--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us-analysis\InputData\trans\TTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149102A2-9349-4738-B4E4-3E9E470ECE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA39C663-A3EB-41CD-B3AA-1CB488C02FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2911,7 +2911,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2981,6 +2981,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3151,7 +3158,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3223,6 +3230,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="8" applyAlignment="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5271,14 +5279,23 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:AF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="15"/>
+    <col min="2" max="13" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="12" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
@@ -5545,127 +5562,127 @@
       </c>
       <c r="B3" s="15">
         <f>Data!H11</f>
-        <v>3.8057610451262282E-4</v>
+        <v>0</v>
       </c>
       <c r="C3" s="15">
         <f>Data!I11</f>
-        <v>3.9320484961125079E-4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
         <f>Data!J11</f>
-        <v>3.9753546733222448E-4</v>
+        <v>0</v>
       </c>
       <c r="E3" s="15">
         <f>Data!K11</f>
-        <v>4.033110396505392E-4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="15">
         <f>Data!L11</f>
-        <v>4.1098212309343519E-4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="15">
         <f>Data!M11</f>
-        <v>4.2111542890787591E-4</v>
+        <v>0</v>
       </c>
       <c r="H3" s="15">
         <f>Data!N11</f>
-        <v>4.3440531499218697E-4</v>
+        <v>0</v>
       </c>
       <c r="I3" s="15">
         <f>Data!O11</f>
-        <v>4.516715783138295E-4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="15">
         <f>Data!P11</f>
-        <v>4.7383134956379655E-4</v>
+        <v>0</v>
       </c>
       <c r="K3" s="15">
         <f>Data!Q11</f>
-        <v>5.0182946160490889E-4</v>
+        <v>0</v>
       </c>
       <c r="L3" s="15">
         <f>Data!R11</f>
-        <v>5.3651224215358457E-4</v>
+        <v>0</v>
       </c>
       <c r="M3" s="15">
         <f>Data!S11</f>
-        <v>5.7843959678952387E-4</v>
+        <v>0</v>
       </c>
       <c r="N3" s="15">
         <f>Data!T11</f>
-        <v>6.2765456811457476E-4</v>
+        <v>0</v>
       </c>
       <c r="O3" s="15">
         <f>Data!U11</f>
-        <v>6.8346676285730725E-4</v>
+        <v>0</v>
       </c>
       <c r="P3" s="15">
         <f>Data!V11</f>
-        <v>7.4433984155985176E-4</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="15">
         <f>Data!W11</f>
-        <v>8.0797281520121893E-4</v>
+        <v>0</v>
       </c>
       <c r="R3" s="15">
         <f>Data!X11</f>
-        <v>8.716057888425861E-4</v>
+        <v>0</v>
       </c>
       <c r="S3" s="15">
         <f>Data!Y11</f>
-        <v>9.3247886754513061E-4</v>
+        <v>0</v>
       </c>
       <c r="T3" s="15">
         <f>Data!Z11</f>
-        <v>9.8829106228786288E-4</v>
+        <v>0</v>
       </c>
       <c r="U3" s="15">
         <f>Data!AA11</f>
-        <v>1.037506033612914E-3</v>
+        <v>0</v>
       </c>
       <c r="V3" s="15">
         <f>Data!AB11</f>
-        <v>1.0794333882488531E-3</v>
+        <v>0</v>
       </c>
       <c r="W3" s="15">
         <f>Data!AC11</f>
-        <v>1.114116168797529E-3</v>
+        <v>0</v>
       </c>
       <c r="X3" s="15">
         <f>Data!AD11</f>
-        <v>1.1421142808386413E-3</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="15">
         <f>Data!AE11</f>
-        <v>1.1642740520886085E-3</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="15">
         <f>Data!AF11</f>
-        <v>1.1815403154102509E-3</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="15">
         <f>Data!AG11</f>
-        <v>1.1948302014945619E-3</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="15">
         <f>Data!AH11</f>
-        <v>1.2049635073090028E-3</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="15">
         <f>Data!AI11</f>
-        <v>1.2126345907518985E-3</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="15">
         <f>Data!AJ11</f>
-        <v>1.2184101630702134E-3</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="15">
         <f>Data!AK11</f>
-        <v>1.2227407807911871E-3</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="15">
         <f>Data!AL11</f>
-        <v>1.2259779596081354E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -5803,127 +5820,127 @@
       </c>
       <c r="B5" s="15">
         <f>Data!H13</f>
-        <v>4.2138566319580755E-3</v>
+        <v>0</v>
       </c>
       <c r="C5" s="15">
         <f>Data!I13</f>
-        <v>5.1006768751431508E-3</v>
+        <v>0</v>
       </c>
       <c r="D5" s="15">
         <f>Data!J13</f>
-        <v>5.9874971183280223E-3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="15">
         <f>Data!K13</f>
-        <v>6.8743173615128939E-3</v>
+        <v>0</v>
       </c>
       <c r="F5" s="15">
         <f>Data!L13</f>
-        <v>7.7611376046979874E-3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="15">
         <f>Data!M13</f>
-        <v>8.6479578478828589E-3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="15">
         <f>Data!N13</f>
-        <v>9.5347780910677304E-3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="15">
         <f>Data!O13</f>
-        <v>1.0421598334252602E-2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="15">
         <f>Data!P13</f>
-        <v>1.1308418577437696E-2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="15">
         <f>Data!Q13</f>
-        <v>1.2195238820622567E-2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="15">
         <f>Data!R13</f>
-        <v>1.3082059063807439E-2</v>
+        <v>0</v>
       </c>
       <c r="M5" s="15">
         <f>Data!S13</f>
-        <v>1.3968879306992532E-2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="15">
         <f>Data!T13</f>
-        <v>1.4855699550177404E-2</v>
+        <v>0</v>
       </c>
       <c r="O5" s="15">
         <f>Data!U13</f>
-        <v>1.5742519793362275E-2</v>
+        <v>0</v>
       </c>
       <c r="P5" s="15">
         <f>Data!V13</f>
-        <v>1.6629340036547369E-2</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="15">
         <f>Data!W13</f>
-        <v>1.751616027973224E-2</v>
+        <v>0</v>
       </c>
       <c r="R5" s="15">
         <f>Data!X13</f>
-        <v>1.8402980522917112E-2</v>
+        <v>0</v>
       </c>
       <c r="S5" s="15">
         <f>Data!Y13</f>
-        <v>1.9289800766102205E-2</v>
+        <v>0</v>
       </c>
       <c r="T5" s="15">
         <f>Data!Z13</f>
-        <v>2.0176621009287077E-2</v>
+        <v>0</v>
       </c>
       <c r="U5" s="15">
         <f>Data!AA13</f>
-        <v>2.1063441252471948E-2</v>
+        <v>0</v>
       </c>
       <c r="V5" s="15">
         <f>Data!AB13</f>
-        <v>2.1950261495657042E-2</v>
+        <v>0</v>
       </c>
       <c r="W5" s="15">
         <f>Data!AC13</f>
-        <v>2.2837081738841913E-2</v>
+        <v>0</v>
       </c>
       <c r="X5" s="15">
         <f>Data!AD13</f>
-        <v>2.3723901982026785E-2</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="15">
         <f>Data!AE13</f>
-        <v>2.4610722225211656E-2</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="15">
         <f>Data!AF13</f>
-        <v>2.549754246839675E-2</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="15">
         <f>Data!AG13</f>
-        <v>2.6384362711581621E-2</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="15">
         <f>Data!AH13</f>
-        <v>2.7271182954766493E-2</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="15">
         <f>Data!AI13</f>
-        <v>2.8158003197951587E-2</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="15">
         <f>Data!AJ13</f>
-        <v>2.9044823441136458E-2</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="15">
         <f>Data!AK13</f>
-        <v>2.993164368432133E-2</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="15">
         <f>Data!AL13</f>
-        <v>3.0818463927506423E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -6061,260 +6078,230 @@
       </c>
       <c r="B7" s="15">
         <f>Data!H15</f>
-        <v>3.186067677034385E-4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
         <f>Data!I15</f>
-        <v>3.3670824346963835E-4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15">
         <f>Data!J15</f>
-        <v>3.5480971923583515E-4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="15">
         <f>Data!K15</f>
-        <v>3.7291119500203196E-4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="15">
         <f>Data!L15</f>
-        <v>3.910126707682357E-4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="15">
         <f>Data!M15</f>
-        <v>4.0911414653443251E-4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="15">
         <f>Data!N15</f>
-        <v>4.2721562230062932E-4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="15">
         <f>Data!O15</f>
-        <v>4.4531709806682612E-4</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <f>Data!P15</f>
-        <v>4.6341857383302293E-4</v>
+        <v>0</v>
       </c>
       <c r="K7" s="15">
         <f>Data!Q15</f>
-        <v>4.8152004959921973E-4</v>
+        <v>0</v>
       </c>
       <c r="L7" s="15">
         <f>Data!R15</f>
-        <v>4.9962152536541654E-4</v>
+        <v>0</v>
       </c>
       <c r="M7" s="15">
         <f>Data!S15</f>
-        <v>5.1772300113162029E-4</v>
+        <v>0</v>
       </c>
       <c r="N7" s="15">
         <f>Data!T15</f>
-        <v>5.3582447689781709E-4</v>
+        <v>0</v>
       </c>
       <c r="O7" s="15">
         <f>Data!U15</f>
-        <v>5.539259526640139E-4</v>
+        <v>0</v>
       </c>
       <c r="P7" s="15">
         <f>Data!V15</f>
-        <v>5.720274284302107E-4</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="15">
         <f>Data!W15</f>
-        <v>5.9012890419640751E-4</v>
+        <v>0</v>
       </c>
       <c r="R7" s="15">
         <f>Data!X15</f>
-        <v>6.0823037996260432E-4</v>
+        <v>0</v>
       </c>
       <c r="S7" s="15">
         <f>Data!Y15</f>
-        <v>6.2633185572880112E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="15">
         <f>Data!Z15</f>
-        <v>6.4443333149500487E-4</v>
+        <v>0</v>
       </c>
       <c r="U7" s="15">
         <f>Data!AA15</f>
-        <v>6.6253480726120167E-4</v>
+        <v>0</v>
       </c>
       <c r="V7" s="15">
         <f>Data!AB15</f>
-        <v>6.8063628302739848E-4</v>
+        <v>0</v>
       </c>
       <c r="W7" s="15">
         <f>Data!AC15</f>
-        <v>6.9873775879359529E-4</v>
+        <v>0</v>
       </c>
       <c r="X7" s="15">
         <f>Data!AD15</f>
-        <v>7.1683923455979209E-4</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="15">
         <f>Data!AE15</f>
-        <v>7.349407103259889E-4</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="15">
         <f>Data!AF15</f>
-        <v>7.5304218609218571E-4</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="15">
         <f>Data!AG15</f>
-        <v>7.7114366185838945E-4</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="15">
         <f>Data!AH15</f>
-        <v>7.8924513762458626E-4</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="15">
         <f>Data!AI15</f>
-        <v>8.0734661339078306E-4</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="15">
         <f>Data!AJ15</f>
-        <v>8.2544808915697987E-4</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="15">
         <f>Data!AK15</f>
-        <v>8.4354956492317668E-4</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="15">
         <f>Data!AL15</f>
-        <v>8.6165104068937348E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="15">
-        <f>Data!H16</f>
-        <v>2.9671627040405578E-5</v>
-      </c>
-      <c r="C8" s="15">
-        <f>Data!I16</f>
-        <v>3.3884455367256228E-5</v>
-      </c>
-      <c r="D8" s="15">
-        <f>Data!J16</f>
-        <v>3.5329107932906753E-5</v>
-      </c>
-      <c r="E8" s="15">
-        <f>Data!K16</f>
-        <v>3.7255783503309569E-5</v>
-      </c>
-      <c r="F8" s="15">
-        <f>Data!L16</f>
-        <v>3.9814783417669883E-5</v>
-      </c>
-      <c r="G8" s="15">
-        <f>Data!M16</f>
-        <v>4.319515711642753E-5</v>
-      </c>
-      <c r="H8" s="15">
-        <f>Data!N16</f>
-        <v>4.7628535739509144E-5</v>
-      </c>
-      <c r="I8" s="15">
-        <f>Data!O16</f>
-        <v>5.3388395698055686E-5</v>
-      </c>
-      <c r="J8" s="15">
-        <f>Data!P16</f>
-        <v>6.0780683000499877E-5</v>
-      </c>
-      <c r="K8" s="15">
-        <f>Data!Q16</f>
-        <v>7.0120584834289462E-5</v>
-      </c>
-      <c r="L8" s="15">
-        <f>Data!R16</f>
-        <v>8.1690428014137938E-5</v>
-      </c>
-      <c r="M8" s="15">
-        <f>Data!S16</f>
-        <v>9.567699167511389E-5</v>
-      </c>
-      <c r="N8" s="15">
-        <f>Data!T16</f>
-        <v>1.1209463441665937E-4</v>
-      </c>
-      <c r="O8" s="15">
-        <f>Data!U16</f>
-        <v>1.3071304766038166E-4</v>
-      </c>
-      <c r="P8" s="15">
-        <f>Data!V16</f>
-        <v>1.5101972328791891E-4</v>
-      </c>
-      <c r="Q8" s="15">
-        <f>Data!W16</f>
-        <v>1.7224707341530546E-4</v>
-      </c>
-      <c r="R8" s="15">
-        <f>Data!X16</f>
-        <v>1.9347442354269201E-4</v>
-      </c>
-      <c r="S8" s="15">
-        <f>Data!Y16</f>
-        <v>2.1378109917022923E-4</v>
-      </c>
-      <c r="T8" s="15">
-        <f>Data!Z16</f>
-        <v>2.3239951241395154E-4</v>
-      </c>
-      <c r="U8" s="15">
-        <f>Data!AA16</f>
-        <v>2.4881715515549704E-4</v>
-      </c>
-      <c r="V8" s="15">
-        <f>Data!AB16</f>
-        <v>2.6280371881647296E-4</v>
-      </c>
-      <c r="W8" s="15">
-        <f>Data!AC16</f>
-        <v>2.7437356199632151E-4</v>
-      </c>
-      <c r="X8" s="15">
-        <f>Data!AD16</f>
-        <v>2.8371346383011109E-4</v>
-      </c>
-      <c r="Y8" s="15">
-        <f>Data!AE16</f>
-        <v>2.911057511325553E-4</v>
-      </c>
-      <c r="Z8" s="15">
-        <f>Data!AF16</f>
-        <v>2.9686561109110182E-4</v>
-      </c>
-      <c r="AA8" s="15">
-        <f>Data!AG16</f>
-        <v>3.0129898971418347E-4</v>
-      </c>
-      <c r="AB8" s="15">
-        <f>Data!AH16</f>
-        <v>3.046793634129411E-4</v>
-      </c>
-      <c r="AC8" s="15">
-        <f>Data!AI16</f>
-        <v>3.0723836332730134E-4</v>
-      </c>
-      <c r="AD8" s="15">
-        <f>Data!AJ16</f>
-        <v>3.091650388977042E-4</v>
-      </c>
-      <c r="AE8" s="15">
-        <f>Data!AK16</f>
-        <v>3.1060969146335472E-4</v>
-      </c>
-      <c r="AF8" s="15">
-        <f>Data!AL16</f>
-        <v>3.1168958329050089E-4</v>
+      <c r="B8" s="49">
+        <v>0</v>
+      </c>
+      <c r="C8" s="49">
+        <v>0</v>
+      </c>
+      <c r="D8" s="49">
+        <v>0</v>
+      </c>
+      <c r="E8" s="49">
+        <v>0</v>
+      </c>
+      <c r="F8" s="49">
+        <v>0</v>
+      </c>
+      <c r="G8" s="49">
+        <v>0</v>
+      </c>
+      <c r="H8" s="49">
+        <v>0</v>
+      </c>
+      <c r="I8" s="49">
+        <v>0</v>
+      </c>
+      <c r="J8" s="49">
+        <v>0</v>
+      </c>
+      <c r="K8" s="49">
+        <v>0</v>
+      </c>
+      <c r="L8" s="49">
+        <v>0</v>
+      </c>
+      <c r="M8" s="49">
+        <v>0</v>
+      </c>
+      <c r="N8" s="49">
+        <v>0</v>
+      </c>
+      <c r="O8" s="49">
+        <v>0</v>
+      </c>
+      <c r="P8" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="49">
+        <v>0</v>
+      </c>
+      <c r="R8" s="49">
+        <v>0</v>
+      </c>
+      <c r="S8" s="49">
+        <v>0</v>
+      </c>
+      <c r="T8" s="49">
+        <v>0</v>
+      </c>
+      <c r="U8" s="49">
+        <v>0</v>
+      </c>
+      <c r="V8" s="49">
+        <v>0</v>
+      </c>
+      <c r="W8" s="49">
+        <v>0</v>
+      </c>
+      <c r="X8" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="49">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="49">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6603,123 +6590,123 @@
       </c>
       <c r="C3" s="15">
         <f>Data!I18</f>
-        <v>1.2415551653788361E-3</v>
+        <v>1.2003761811825026E-3</v>
       </c>
       <c r="D3" s="15">
         <f>Data!J18</f>
-        <v>1.2413418674654217E-3</v>
+        <v>1.158983899072763E-3</v>
       </c>
       <c r="E3" s="15">
         <f>Data!K18</f>
-        <v>1.2411285695520073E-3</v>
+        <v>1.1175916169630234E-3</v>
       </c>
       <c r="F3" s="15">
         <f>Data!L18</f>
-        <v>1.2409152716385927E-3</v>
+        <v>1.0761993348532839E-3</v>
       </c>
       <c r="G3" s="15">
         <f>Data!M18</f>
-        <v>1.240701973725178E-3</v>
+        <v>1.0348070527435443E-3</v>
       </c>
       <c r="H3" s="15">
         <f>Data!N18</f>
-        <v>1.2404886758117636E-3</v>
+        <v>9.9341477063379091E-4</v>
       </c>
       <c r="I3" s="15">
         <f>Data!O18</f>
-        <v>1.2402753778983492E-3</v>
+        <v>9.5202248852405136E-4</v>
       </c>
       <c r="J3" s="15">
         <f>Data!P18</f>
-        <v>1.2400620799849346E-3</v>
+        <v>9.106302064143118E-4</v>
       </c>
       <c r="K3" s="15">
         <f>Data!Q18</f>
-        <v>1.2398487820715199E-3</v>
+        <v>8.6923792430457225E-4</v>
       </c>
       <c r="L3" s="15">
         <f>Data!R18</f>
-        <v>1.2396354841581055E-3</v>
+        <v>8.278456421948327E-4</v>
       </c>
       <c r="M3" s="15">
         <f>Data!S18</f>
-        <v>1.2394221862446911E-3</v>
+        <v>7.8645336008509314E-4</v>
       </c>
       <c r="N3" s="15">
         <f>Data!T18</f>
-        <v>1.2392088883312765E-3</v>
+        <v>7.4506107797533971E-4</v>
       </c>
       <c r="O3" s="15">
         <f>Data!U18</f>
-        <v>1.2389955904178619E-3</v>
+        <v>7.0366879586560016E-4</v>
       </c>
       <c r="P3" s="15">
         <f>Data!V18</f>
-        <v>1.2387822925044474E-3</v>
+        <v>6.6227651375586061E-4</v>
       </c>
       <c r="Q3" s="15">
         <f>Data!W18</f>
-        <v>1.238568994591033E-3</v>
+        <v>6.2088423164612105E-4</v>
       </c>
       <c r="R3" s="15">
         <f>Data!X18</f>
-        <v>1.2383556966776184E-3</v>
+        <v>5.794919495363815E-4</v>
       </c>
       <c r="S3" s="15">
         <f>Data!Y18</f>
-        <v>1.2381423987642038E-3</v>
+        <v>5.3809966742664195E-4</v>
       </c>
       <c r="T3" s="15">
         <f>Data!Z18</f>
-        <v>1.2379291008507893E-3</v>
+        <v>4.9670738531690239E-4</v>
       </c>
       <c r="U3" s="15">
         <f>Data!AA18</f>
-        <v>1.2377158029373749E-3</v>
+        <v>4.5531510320714896E-4</v>
       </c>
       <c r="V3" s="15">
         <f>Data!AB18</f>
-        <v>1.2375025050239603E-3</v>
+        <v>4.1392282109740941E-4</v>
       </c>
       <c r="W3" s="15">
         <f>Data!AC18</f>
-        <v>1.2372892071105457E-3</v>
+        <v>3.7253053898766986E-4</v>
       </c>
       <c r="X3" s="15">
         <f>Data!AD18</f>
-        <v>1.2370759091971312E-3</v>
+        <v>3.311382568779303E-4</v>
       </c>
       <c r="Y3" s="15">
         <f>Data!AE18</f>
-        <v>1.2368626112837168E-3</v>
+        <v>2.8974597476819075E-4</v>
       </c>
       <c r="Z3" s="15">
         <f>Data!AF18</f>
-        <v>1.2366493133703022E-3</v>
+        <v>2.483536926584512E-4</v>
       </c>
       <c r="AA3" s="15">
         <f>Data!AG18</f>
-        <v>1.2364360154568876E-3</v>
+        <v>2.0696141054869777E-4</v>
       </c>
       <c r="AB3" s="15">
         <f>Data!AH18</f>
-        <v>1.2362227175434731E-3</v>
+        <v>1.6556912843895821E-4</v>
       </c>
       <c r="AC3" s="15">
         <f>Data!AI18</f>
-        <v>1.2360094196300587E-3</v>
+        <v>1.2417684632921866E-4</v>
       </c>
       <c r="AD3" s="15">
         <f>Data!AJ18</f>
-        <v>1.2357961217166441E-3</v>
+        <v>8.2784564219479106E-5</v>
       </c>
       <c r="AE3" s="15">
         <f>Data!AK18</f>
-        <v>1.2355828238032295E-3</v>
+        <v>4.1392282109739553E-5</v>
       </c>
       <c r="AF3" s="15">
         <f>Data!AL18</f>
-        <v>1.235369525889815E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -6990,123 +6977,123 @@
       </c>
       <c r="C6" s="15">
         <f>Data!I21</f>
-        <v>1.936779684237523E-3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="15">
         <f>Data!J21</f>
-        <v>2.6009353352286976E-3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="15">
         <f>Data!K21</f>
-        <v>3.4866932663292233E-3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
         <f>Data!L21</f>
-        <v>4.6631520872381935E-3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="15">
         <f>Data!M21</f>
-        <v>6.2172242204786609E-3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="15">
         <f>Data!N21</f>
-        <v>8.2553983361887875E-3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15">
         <f>Data!O21</f>
-        <v>1.0903400791134683E-2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <f>Data!P21</f>
-        <v>1.4301885314268325E-2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15">
         <f>Data!Q21</f>
-        <v>1.8595754117125374E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15">
         <f>Data!R21</f>
-        <v>2.391480238636642E-2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="15">
         <f>Data!S21</f>
-        <v>3.0344898808340407E-2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="15">
         <f>Data!T21</f>
-        <v>3.7892644516902288E-2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="15">
         <f>Data!U21</f>
-        <v>4.6452158868187786E-2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="15">
         <f>Data!V21</f>
-        <v>5.5787824544177182E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="15">
         <f>Data!W21</f>
-        <v>6.5546755430319736E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="15">
         <f>Data!X21</f>
-        <v>7.5305686316462297E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="15">
         <f>Data!Y21</f>
-        <v>8.464135199245168E-2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="15">
         <f>Data!Z21</f>
-        <v>9.3200866343737185E-2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="15">
         <f>Data!AA21</f>
-        <v>0.10074861205229906</v>
+        <v>0</v>
       </c>
       <c r="V6" s="15">
         <f>Data!AB21</f>
-        <v>0.10717870847427305</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15">
         <f>Data!AC21</f>
-        <v>0.11249775674351412</v>
+        <v>0</v>
       </c>
       <c r="X6" s="15">
         <f>Data!AD21</f>
-        <v>0.11679162554637115</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="15">
         <f>Data!AE21</f>
-        <v>0.12019011006950479</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="15">
         <f>Data!AF21</f>
-        <v>0.12283811252445069</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="15">
         <f>Data!AG21</f>
-        <v>0.12487628664016083</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="15">
         <f>Data!AH21</f>
-        <v>0.12643035877340128</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="15">
         <f>Data!AI21</f>
-        <v>0.12760681759431025</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="15">
         <f>Data!AJ21</f>
-        <v>0.12849257552541077</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="15">
         <f>Data!AK21</f>
-        <v>0.12915673117640195</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="15">
         <f>Data!AL21</f>
-        <v>0.12965319397757058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -7115,127 +7102,127 @@
       </c>
       <c r="B7" s="15">
         <f>Data!H22</f>
-        <v>4.5128616403477108E-4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
         <f>Data!I22</f>
-        <v>4.6496499325658983E-4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15">
         <f>Data!J22</f>
-        <v>4.7864382247840911E-4</v>
+        <v>0</v>
       </c>
       <c r="E7" s="15">
         <f>Data!K22</f>
-        <v>4.9232265170023187E-4</v>
+        <v>0</v>
       </c>
       <c r="F7" s="15">
         <f>Data!L22</f>
-        <v>5.0600148092205116E-4</v>
+        <v>0</v>
       </c>
       <c r="G7" s="15">
         <f>Data!M22</f>
-        <v>5.1968031014387045E-4</v>
+        <v>0</v>
       </c>
       <c r="H7" s="15">
         <f>Data!N22</f>
-        <v>5.3335913936568974E-4</v>
+        <v>0</v>
       </c>
       <c r="I7" s="15">
         <f>Data!O22</f>
-        <v>5.4703796858750903E-4</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <f>Data!P22</f>
-        <v>5.6071679780933179E-4</v>
+        <v>0</v>
       </c>
       <c r="K7" s="15">
         <f>Data!Q22</f>
-        <v>5.7439562703115107E-4</v>
+        <v>0</v>
       </c>
       <c r="L7" s="15">
         <f>Data!R22</f>
-        <v>5.8807445625297036E-4</v>
+        <v>0</v>
       </c>
       <c r="M7" s="15">
         <f>Data!S22</f>
-        <v>6.0175328547478965E-4</v>
+        <v>0</v>
       </c>
       <c r="N7" s="15">
         <f>Data!T22</f>
-        <v>6.1543211469661241E-4</v>
+        <v>0</v>
       </c>
       <c r="O7" s="15">
         <f>Data!U22</f>
-        <v>6.291109439184317E-4</v>
+        <v>0</v>
       </c>
       <c r="P7" s="15">
         <f>Data!V22</f>
-        <v>6.4278977314025099E-4</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="15">
         <f>Data!W22</f>
-        <v>6.5646860236207027E-4</v>
+        <v>0</v>
       </c>
       <c r="R7" s="15">
         <f>Data!X22</f>
-        <v>6.7014743158388956E-4</v>
+        <v>0</v>
       </c>
       <c r="S7" s="15">
         <f>Data!Y22</f>
-        <v>6.8382626080571232E-4</v>
+        <v>0</v>
       </c>
       <c r="T7" s="15">
         <f>Data!Z22</f>
-        <v>6.9750509002753161E-4</v>
+        <v>0</v>
       </c>
       <c r="U7" s="15">
         <f>Data!AA22</f>
-        <v>7.111839192493509E-4</v>
+        <v>0</v>
       </c>
       <c r="V7" s="15">
         <f>Data!AB22</f>
-        <v>7.2486274847117019E-4</v>
+        <v>0</v>
       </c>
       <c r="W7" s="15">
         <f>Data!AC22</f>
-        <v>7.3854157769298948E-4</v>
+        <v>0</v>
       </c>
       <c r="X7" s="15">
         <f>Data!AD22</f>
-        <v>7.5222040691481223E-4</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="15">
         <f>Data!AE22</f>
-        <v>7.6589923613663152E-4</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="15">
         <f>Data!AF22</f>
-        <v>7.7957806535845081E-4</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="15">
         <f>Data!AG22</f>
-        <v>7.932568945802701E-4</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="15">
         <f>Data!AH22</f>
-        <v>8.0693572380209286E-4</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="15">
         <f>Data!AI22</f>
-        <v>8.2061455302391215E-4</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="15">
         <f>Data!AJ22</f>
-        <v>8.3429338224573144E-4</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="15">
         <f>Data!AK22</f>
-        <v>8.4797221146755072E-4</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="15">
         <f>Data!AL22</f>
-        <v>8.6165104068937001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -7248,123 +7235,123 @@
       </c>
       <c r="C8" s="15">
         <f>Data!I23</f>
-        <v>4.6511978851365776E-6</v>
+        <v>0</v>
       </c>
       <c r="D8" s="15">
         <f>Data!J23</f>
-        <v>6.2461750446103416E-6</v>
+        <v>0</v>
       </c>
       <c r="E8" s="15">
         <f>Data!K23</f>
-        <v>8.3733325367128191E-6</v>
+        <v>0</v>
       </c>
       <c r="F8" s="15">
         <f>Data!L23</f>
-        <v>1.1198611438745645E-5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="15">
         <f>Data!M23</f>
-        <v>1.4930732897012287E-5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="15">
         <f>Data!N23</f>
-        <v>1.9825430633509433E-5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15">
         <f>Data!O23</f>
-        <v>2.6184637887962621E-5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="15">
         <f>Data!P23</f>
-        <v>3.4346136149904345E-5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="15">
         <f>Data!Q23</f>
-        <v>4.465790968689553E-5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="15">
         <f>Data!R23</f>
-        <v>5.7431663078765201E-5</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <f>Data!S23</f>
-        <v>7.2873610927822591E-5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="15">
         <f>Data!T23</f>
-        <v>9.0999605930208407E-5</v>
+        <v>0</v>
       </c>
       <c r="O8" s="15">
         <f>Data!U23</f>
-        <v>1.1155537454576398E-4</v>
+        <v>0</v>
       </c>
       <c r="P8" s="15">
         <f>Data!V23</f>
-        <v>1.3397507917293147E-4</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="15">
         <f>Data!W23</f>
-        <v>1.5741125989510269E-4</v>
+        <v>0</v>
       </c>
       <c r="R8" s="15">
         <f>Data!X23</f>
-        <v>1.8084744061727391E-4</v>
+        <v>0</v>
       </c>
       <c r="S8" s="15">
         <f>Data!Y23</f>
-        <v>2.0326714524444137E-4</v>
+        <v>0</v>
       </c>
       <c r="T8" s="15">
         <f>Data!Z23</f>
-        <v>2.2382291385999697E-4</v>
+        <v>0</v>
       </c>
       <c r="U8" s="15">
         <f>Data!AA23</f>
-        <v>2.4194890886238276E-4</v>
+        <v>0</v>
       </c>
       <c r="V8" s="15">
         <f>Data!AB23</f>
-        <v>2.5739085671144015E-4</v>
+        <v>0</v>
       </c>
       <c r="W8" s="15">
         <f>Data!AC23</f>
-        <v>2.7016461010330987E-4</v>
+        <v>0</v>
       </c>
       <c r="X8" s="15">
         <f>Data!AD23</f>
-        <v>2.8047638364030105E-4</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="15">
         <f>Data!AE23</f>
-        <v>2.8863788190224276E-4</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="15">
         <f>Data!AF23</f>
-        <v>2.9499708915669594E-4</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="15">
         <f>Data!AG23</f>
-        <v>2.9989178689319312E-4</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="15">
         <f>Data!AH23</f>
-        <v>3.0362390835145974E-4</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="15">
         <f>Data!AI23</f>
-        <v>3.0644918725349253E-4</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="15">
         <f>Data!AJ23</f>
-        <v>3.0857634474559505E-4</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="15">
         <f>Data!AK23</f>
-        <v>3.1017132190506877E-4</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="15">
         <f>Data!AL23</f>
-        <v>3.1136358282645159E-4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8042,123 +8029,123 @@
       </c>
       <c r="C6" s="15">
         <f>Data!I28</f>
-        <v>1.2233156446257681E-3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="15">
         <f>Data!J28</f>
-        <v>1.6428119894792467E-3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="15">
         <f>Data!K28</f>
-        <v>2.2022775514557529E-3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
         <f>Data!L28</f>
-        <v>2.945356639174761E-3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="15">
         <f>Data!M28</f>
-        <v>3.9269451848117651E-3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="15">
         <f>Data!N28</f>
-        <v>5.2143039394039635E-3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15">
         <f>Data!O28</f>
-        <v>6.8868446297602999E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <f>Data!P28</f>
-        <v>9.033407462385545E-3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15">
         <f>Data!Q28</f>
-        <v>1.1745516085402967E-2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15">
         <f>Data!R28</f>
-        <v>1.5105152194372085E-2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="15">
         <f>Data!S28</f>
-        <v>1.916655247312897E-2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="15">
         <f>Data!T28</f>
-        <v>2.3933886353221655E-2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="15">
         <f>Data!U28</f>
-        <v>2.9340277127321797E-2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="15">
         <f>Data!V28</f>
-        <v>3.5236903350417306E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="15">
         <f>Data!W28</f>
-        <v>4.1400873844841243E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="15">
         <f>Data!X28</f>
-        <v>4.756484433926518E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="15">
         <f>Data!Y28</f>
-        <v>5.3461470562360683E-2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="15">
         <f>Data!Z28</f>
-        <v>5.8867861336460832E-2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="15">
         <f>Data!AA28</f>
-        <v>6.3635195216553517E-2</v>
+        <v>0</v>
       </c>
       <c r="V6" s="15">
         <f>Data!AB28</f>
-        <v>6.7696595495310402E-2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15">
         <f>Data!AC28</f>
-        <v>7.1056231604279527E-2</v>
+        <v>0</v>
       </c>
       <c r="X6" s="15">
         <f>Data!AD28</f>
-        <v>7.3768340227296947E-2</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="15">
         <f>Data!AE28</f>
-        <v>7.5914903059922184E-2</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="15">
         <f>Data!AF28</f>
-        <v>7.7587443750278526E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="15">
         <f>Data!AG28</f>
-        <v>7.8874802504870736E-2</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="15">
         <f>Data!AH28</f>
-        <v>7.9856391050507722E-2</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="15">
         <f>Data!AI28</f>
-        <v>8.0599470138226728E-2</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="15">
         <f>Data!AJ28</f>
-        <v>8.1158935700203244E-2</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="15">
         <f>Data!AK28</f>
-        <v>8.1578432045056715E-2</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="15">
         <f>Data!AL28</f>
-        <v>8.18920096381031E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -8167,127 +8154,127 @@
       </c>
       <c r="B7" s="15">
         <f>Data!H29</f>
-        <v>2.2196156186230963E-2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
         <f>Data!I29</f>
-        <v>3.8787446444274565E-2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15">
         <f>Data!J29</f>
-        <v>5.5378736702316189E-2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="15">
         <f>Data!K29</f>
-        <v>7.1970026960350708E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="15">
         <f>Data!L29</f>
-        <v>8.8561317218392333E-2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="15">
         <f>Data!M29</f>
-        <v>0.10515260747643396</v>
+        <v>0</v>
       </c>
       <c r="H7" s="15">
         <f>Data!N29</f>
-        <v>0.12174389773446848</v>
+        <v>0</v>
       </c>
       <c r="I7" s="15">
         <f>Data!O29</f>
-        <v>0.1383351879925101</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <f>Data!P29</f>
-        <v>0.15492647825055172</v>
+        <v>0</v>
       </c>
       <c r="K7" s="15">
         <f>Data!Q29</f>
-        <v>0.17151776850858624</v>
+        <v>0</v>
       </c>
       <c r="L7" s="15">
         <f>Data!R29</f>
-        <v>0.18810905876662787</v>
+        <v>0</v>
       </c>
       <c r="M7" s="15">
         <f>Data!S29</f>
-        <v>0.20470034902466949</v>
+        <v>0</v>
       </c>
       <c r="N7" s="15">
         <f>Data!T29</f>
-        <v>0.22129163928270401</v>
+        <v>0</v>
       </c>
       <c r="O7" s="15">
         <f>Data!U29</f>
-        <v>0.23788292954074564</v>
+        <v>0</v>
       </c>
       <c r="P7" s="15">
         <f>Data!V29</f>
-        <v>0.25447421979878726</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="15">
         <f>Data!W29</f>
-        <v>0.27106551005682178</v>
+        <v>0</v>
       </c>
       <c r="R7" s="15">
         <f>Data!X29</f>
-        <v>0.2876568003148634</v>
+        <v>0</v>
       </c>
       <c r="S7" s="15">
         <f>Data!Y29</f>
-        <v>0.30424809057290503</v>
+        <v>0</v>
       </c>
       <c r="T7" s="15">
         <f>Data!Z29</f>
-        <v>0.32083938083093955</v>
+        <v>0</v>
       </c>
       <c r="U7" s="15">
         <f>Data!AA29</f>
-        <v>0.33743067108898117</v>
+        <v>0</v>
       </c>
       <c r="V7" s="15">
         <f>Data!AB29</f>
-        <v>0.3540219613470228</v>
+        <v>0</v>
       </c>
       <c r="W7" s="15">
         <f>Data!AC29</f>
-        <v>0.37061325160505731</v>
+        <v>0</v>
       </c>
       <c r="X7" s="15">
         <f>Data!AD29</f>
-        <v>0.38720454186309894</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="15">
         <f>Data!AE29</f>
-        <v>0.40379583212114056</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="15">
         <f>Data!AF29</f>
-        <v>0.42038712237917508</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="15">
         <f>Data!AG29</f>
-        <v>0.43697841263721671</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="15">
         <f>Data!AH29</f>
-        <v>0.45356970289525833</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="15">
         <f>Data!AI29</f>
-        <v>0.47016099315329285</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="15">
         <f>Data!AJ29</f>
-        <v>0.48675228341133447</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="15">
         <f>Data!AK29</f>
-        <v>0.5033435736693761</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="15">
         <f>Data!AL29</f>
-        <v>0.51993486392741062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -8296,127 +8283,127 @@
       </c>
       <c r="B8" s="15">
         <f>Data!H30</f>
-        <v>1.2919974477595432E-4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="15">
         <f>Data!I30</f>
-        <v>2.6830066517916028E-3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="15">
         <f>Data!J30</f>
-        <v>3.5587517366035969E-3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="15">
         <f>Data!K30</f>
-        <v>4.7266980656559621E-3</v>
+        <v>0</v>
       </c>
       <c r="F8" s="15">
         <f>Data!L30</f>
-        <v>6.2779579673931142E-3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="15">
         <f>Data!M30</f>
-        <v>8.3271327807031264E-3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="15">
         <f>Data!N30</f>
-        <v>1.1014636773419878E-2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15">
         <f>Data!O30</f>
-        <v>1.4506250721186734E-2</v>
+        <v>0</v>
       </c>
       <c r="J8" s="15">
         <f>Data!P30</f>
-        <v>1.8987438395344558E-2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="15">
         <f>Data!Q30</f>
-        <v>2.4649265548840522E-2</v>
+        <v>0</v>
       </c>
       <c r="L8" s="15">
         <f>Data!R30</f>
-        <v>3.166287805174383E-2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="15">
         <f>Data!S30</f>
-        <v>4.0141500989013298E-2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="15">
         <f>Data!T30</f>
-        <v>5.0093838510826716E-2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="15">
         <f>Data!U30</f>
-        <v>6.1380278083130541E-2</v>
+        <v>0</v>
       </c>
       <c r="P8" s="15">
         <f>Data!V30</f>
-        <v>7.3690138455461227E-2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="15">
         <f>Data!W30</f>
-        <v>8.6558109606207134E-2</v>
+        <v>0</v>
       </c>
       <c r="R8" s="15">
         <f>Data!X30</f>
-        <v>9.9426080756953042E-2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="15">
         <f>Data!Y30</f>
-        <v>0.11173594112928371</v>
+        <v>0</v>
       </c>
       <c r="T8" s="15">
         <f>Data!Z30</f>
-        <v>0.12302238070158754</v>
+        <v>0</v>
       </c>
       <c r="U8" s="15">
         <f>Data!AA30</f>
-        <v>0.13297471822340096</v>
+        <v>0</v>
       </c>
       <c r="V8" s="15">
         <f>Data!AB30</f>
-        <v>0.14145334116067043</v>
+        <v>0</v>
       </c>
       <c r="W8" s="15">
         <f>Data!AC30</f>
-        <v>0.14846695366357376</v>
+        <v>0</v>
       </c>
       <c r="X8" s="15">
         <f>Data!AD30</f>
-        <v>0.15412878081706971</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="15">
         <f>Data!AE30</f>
-        <v>0.15860996849122755</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="15">
         <f>Data!AF30</f>
-        <v>0.16210158243899439</v>
+        <v>0</v>
       </c>
       <c r="AA8" s="15">
         <f>Data!AG30</f>
-        <v>0.16478908643171114</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="15">
         <f>Data!AH30</f>
-        <v>0.16683826124502116</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="15">
         <f>Data!AI30</f>
-        <v>0.16838952114675829</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="15">
         <f>Data!AJ30</f>
-        <v>0.16955746747581069</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="15">
         <f>Data!AK30</f>
-        <v>0.17043321256062266</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="15">
         <f>Data!AL30</f>
-        <v>0.17108784051909381</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9090,127 +9077,127 @@
       </c>
       <c r="B6" s="15">
         <f>Data!H35</f>
-        <v>2.1604589258675129E-3</v>
+        <v>0</v>
       </c>
       <c r="C6" s="15">
         <f>Data!I35</f>
-        <v>2.5363121187666543E-3</v>
+        <v>0</v>
       </c>
       <c r="D6" s="15">
         <f>Data!J35</f>
-        <v>2.6651987567454672E-3</v>
+        <v>0</v>
       </c>
       <c r="E6" s="15">
         <f>Data!K35</f>
-        <v>2.8370897308450499E-3</v>
+        <v>0</v>
       </c>
       <c r="F6" s="15">
         <f>Data!L35</f>
-        <v>3.0653943788913106E-3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="15">
         <f>Data!M35</f>
-        <v>3.3669790031145663E-3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="15">
         <f>Data!N35</f>
-        <v>3.7625088898169965E-3</v>
+        <v>0</v>
       </c>
       <c r="I6" s="15">
         <f>Data!O35</f>
-        <v>4.2763826079255159E-3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="15">
         <f>Data!P35</f>
-        <v>4.9358955455268607E-3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15">
         <f>Data!Q35</f>
-        <v>5.7691675550270976E-3</v>
+        <v>0</v>
       </c>
       <c r="L6" s="15">
         <f>Data!R35</f>
-        <v>6.8013868061113751E-3</v>
+        <v>0</v>
       </c>
       <c r="M6" s="15">
         <f>Data!S35</f>
-        <v>8.0492170526371733E-3</v>
+        <v>0</v>
       </c>
       <c r="N6" s="15">
         <f>Data!T35</f>
-        <v>9.5139393165278099E-3</v>
+        <v>0</v>
       </c>
       <c r="O6" s="15">
         <f>Data!U35</f>
-        <v>1.1175006305602102E-2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="15">
         <f>Data!V35</f>
-        <v>1.298669391298265E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="15">
         <f>Data!W35</f>
-        <v>1.4880520744547505E-2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="15">
         <f>Data!X35</f>
-        <v>1.6774347576112358E-2</v>
+        <v>0</v>
       </c>
       <c r="S6" s="15">
         <f>Data!Y35</f>
-        <v>1.8586035183492906E-2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="15">
         <f>Data!Z35</f>
-        <v>2.0247102172567196E-2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="15">
         <f>Data!AA35</f>
-        <v>2.1711824436457833E-2</v>
+        <v>0</v>
       </c>
       <c r="V6" s="15">
         <f>Data!AB35</f>
-        <v>2.2959654682983631E-2</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15">
         <f>Data!AC35</f>
-        <v>2.399187393406791E-2</v>
+        <v>0</v>
       </c>
       <c r="X6" s="15">
         <f>Data!AD35</f>
-        <v>2.4825145943568147E-2</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="15">
         <f>Data!AE35</f>
-        <v>2.5484658881169492E-2</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="15">
         <f>Data!AF35</f>
-        <v>2.5998532599278014E-2</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="15">
         <f>Data!AG35</f>
-        <v>2.6394062485980443E-2</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="15">
         <f>Data!AH35</f>
-        <v>2.6695647110203696E-2</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="15">
         <f>Data!AI35</f>
-        <v>2.6923951758249957E-2</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="15">
         <f>Data!AJ35</f>
-        <v>2.7095842732349541E-2</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="15">
         <f>Data!AK35</f>
-        <v>2.7224729370328354E-2</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="15">
         <f>Data!AL35</f>
-        <v>2.7321073384308624E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -9219,127 +9206,127 @@
       </c>
       <c r="B7" s="15">
         <f>Data!H36</f>
-        <v>7.9129793393846839E-4</v>
+        <v>0</v>
       </c>
       <c r="C7" s="15">
         <f>Data!I36</f>
-        <v>9.7087460528438863E-4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="15">
         <f>Data!J36</f>
-        <v>1.150451276630271E-3</v>
+        <v>0</v>
       </c>
       <c r="E7" s="15">
         <f>Data!K36</f>
-        <v>1.3300279479761534E-3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="15">
         <f>Data!L36</f>
-        <v>1.5096046193220358E-3</v>
+        <v>0</v>
       </c>
       <c r="G7" s="15">
         <f>Data!M36</f>
-        <v>1.6891812906679182E-3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="15">
         <f>Data!N36</f>
-        <v>1.8687579620138561E-3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="15">
         <f>Data!O36</f>
-        <v>2.0483346333597385E-3</v>
+        <v>0</v>
       </c>
       <c r="J7" s="15">
         <f>Data!P36</f>
-        <v>2.2279113047056209E-3</v>
+        <v>0</v>
       </c>
       <c r="K7" s="15">
         <f>Data!Q36</f>
-        <v>2.4074879760515033E-3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="15">
         <f>Data!R36</f>
-        <v>2.5870646473973857E-3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="15">
         <f>Data!S36</f>
-        <v>2.7666413187432681E-3</v>
+        <v>0</v>
       </c>
       <c r="N7" s="15">
         <f>Data!T36</f>
-        <v>2.946217990089206E-3</v>
+        <v>0</v>
       </c>
       <c r="O7" s="15">
         <f>Data!U36</f>
-        <v>3.1257946614350884E-3</v>
+        <v>0</v>
       </c>
       <c r="P7" s="15">
         <f>Data!V36</f>
-        <v>3.3053713327809708E-3</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="15">
         <f>Data!W36</f>
-        <v>3.4849480041268532E-3</v>
+        <v>0</v>
       </c>
       <c r="R7" s="15">
         <f>Data!X36</f>
-        <v>3.6645246754727356E-3</v>
+        <v>0</v>
       </c>
       <c r="S7" s="15">
         <f>Data!Y36</f>
-        <v>3.844101346818618E-3</v>
+        <v>0</v>
       </c>
       <c r="T7" s="15">
         <f>Data!Z36</f>
-        <v>4.0236780181645004E-3</v>
+        <v>0</v>
       </c>
       <c r="U7" s="15">
         <f>Data!AA36</f>
-        <v>4.2032546895104383E-3</v>
+        <v>0</v>
       </c>
       <c r="V7" s="15">
         <f>Data!AB36</f>
-        <v>4.3828313608563207E-3</v>
+        <v>0</v>
       </c>
       <c r="W7" s="15">
         <f>Data!AC36</f>
-        <v>4.5624080322022031E-3</v>
+        <v>0</v>
       </c>
       <c r="X7" s="15">
         <f>Data!AD36</f>
-        <v>4.7419847035480855E-3</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="15">
         <f>Data!AE36</f>
-        <v>4.9215613748939679E-3</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="15">
         <f>Data!AF36</f>
-        <v>5.1011380462398503E-3</v>
+        <v>0</v>
       </c>
       <c r="AA7" s="15">
         <f>Data!AG36</f>
-        <v>5.2807147175857883E-3</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="15">
         <f>Data!AH36</f>
-        <v>5.4602913889316707E-3</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="15">
         <f>Data!AI36</f>
-        <v>5.6398680602775531E-3</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="15">
         <f>Data!AJ36</f>
-        <v>5.8194447316234355E-3</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="15">
         <f>Data!AK36</f>
-        <v>5.9990214029693179E-3</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="15">
         <f>Data!AL36</f>
-        <v>6.1785980743152003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
@@ -9352,123 +9339,123 @@
       </c>
       <c r="C8" s="15">
         <f>Data!I37</f>
-        <v>1.1328629514907667E-4</v>
+        <v>1.4796206151642051E-2</v>
       </c>
       <c r="D8" s="15">
         <f>Data!J37</f>
-        <v>1.444161120943459E-4</v>
+        <v>1.9862366165932371E-2</v>
       </c>
       <c r="E8" s="15">
         <f>Data!K37</f>
-        <v>1.8593270871116238E-4</v>
+        <v>2.6618901936101752E-2</v>
       </c>
       <c r="F8" s="15">
         <f>Data!L37</f>
-        <v>2.410748243942677E-4</v>
+        <v>3.5592895649854482E-2</v>
       </c>
       <c r="G8" s="15">
         <f>Data!M37</f>
-        <v>3.139161545181947E-4</v>
+        <v>4.7447312741685163E-2</v>
       </c>
       <c r="H8" s="15">
         <f>Data!N37</f>
-        <v>4.0944795798919357E-4</v>
+        <v>6.2994445694272788E-2</v>
       </c>
       <c r="I8" s="15">
         <f>Data!O37</f>
-        <v>5.3356318846275704E-4</v>
+        <v>8.3193331505104731E-2</v>
       </c>
       <c r="J8" s="15">
         <f>Data!P37</f>
-        <v>6.9285446444391488E-4</v>
+        <v>0.10911687273311266</v>
       </c>
       <c r="K8" s="15">
         <f>Data!Q37</f>
-        <v>8.9411353619984948E-4</v>
+        <v>0.14187037923897247</v>
       </c>
       <c r="L8" s="15">
         <f>Data!R37</f>
-        <v>1.1434240685990161E-3</v>
+        <v>0.18244392493642103</v>
       </c>
       <c r="M8" s="15">
         <f>Data!S37</f>
-        <v>1.4448108357788989E-3</v>
+        <v>0.23149251367073373</v>
       </c>
       <c r="N8" s="15">
         <f>Data!T37</f>
-        <v>1.7985832412478915E-3</v>
+        <v>0.28906649869921563</v>
       </c>
       <c r="O8" s="15">
         <f>Data!U37</f>
-        <v>2.1997785250616603E-3</v>
+        <v>0.35435822554594387</v>
       </c>
       <c r="P8" s="15">
         <f>Data!V37</f>
-        <v>2.6373530049626742E-3</v>
+        <v>0.42557041215294833</v>
       </c>
       <c r="Q8" s="15">
         <f>Data!W37</f>
-        <v>3.0947664616031096E-3</v>
+        <v>0.50001125348858144</v>
       </c>
       <c r="R8" s="15">
         <f>Data!X37</f>
-        <v>3.5521799182435449E-3</v>
+        <v>0.57445209482421467</v>
       </c>
       <c r="S8" s="15">
         <f>Data!Y37</f>
-        <v>3.989754398144558E-3</v>
+        <v>0.64566428143121901</v>
       </c>
       <c r="T8" s="15">
         <f>Data!Z37</f>
-        <v>4.3909496819583265E-3</v>
+        <v>0.71095600827794725</v>
       </c>
       <c r="U8" s="15">
         <f>Data!AA37</f>
-        <v>4.7447220874273196E-3</v>
+        <v>0.76852999330642913</v>
       </c>
       <c r="V8" s="15">
         <f>Data!AB37</f>
-        <v>5.0461088546072024E-3</v>
+        <v>0.81757858204074185</v>
       </c>
       <c r="W8" s="15">
         <f>Data!AC37</f>
-        <v>5.2954193870063697E-3</v>
+        <v>0.8581521277381905</v>
       </c>
       <c r="X8" s="15">
         <f>Data!AD37</f>
-        <v>5.4966784587623038E-3</v>
+        <v>0.89090563424405034</v>
       </c>
       <c r="Y8" s="15">
         <f>Data!AE37</f>
-        <v>5.6559697347434617E-3</v>
+        <v>0.91682917547205822</v>
       </c>
       <c r="Z8" s="15">
         <f>Data!AF37</f>
-        <v>5.7800849652170248E-3</v>
+        <v>0.93702806128289018</v>
       </c>
       <c r="AA8" s="15">
         <f>Data!AG37</f>
-        <v>5.875616768688024E-3</v>
+        <v>0.95257519423547787</v>
       </c>
       <c r="AB8" s="15">
         <f>Data!AH37</f>
-        <v>5.948458098811951E-3</v>
+        <v>0.96442961132730842</v>
       </c>
       <c r="AC8" s="15">
         <f>Data!AI37</f>
-        <v>6.0036002144950558E-3</v>
+        <v>0.97340360504106105</v>
       </c>
       <c r="AD8" s="15">
         <f>Data!AJ37</f>
-        <v>6.0451168111118727E-3</v>
+        <v>0.9801601408112306</v>
       </c>
       <c r="AE8" s="15">
         <f>Data!AK37</f>
-        <v>6.0762466280571414E-3</v>
+        <v>0.98522630082552087</v>
       </c>
       <c r="AF8" s="15">
         <f>Data!AL37</f>
-        <v>6.0995164686396177E-3</v>
+        <v>0.98901330465227377</v>
       </c>
     </row>
   </sheetData>
@@ -54488,8 +54475,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54914,140 +54901,138 @@
         <v>2</v>
       </c>
       <c r="D11" s="29">
-        <f>SUM(SUM(INDEX('AEO 39'!$29:$30,0,MATCH($D$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!$51:$52,0,MATCH($D$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH($D$9,'AEO 39'!$1:$1,0))</f>
-        <v>3.8057610451262282E-4</v>
+        <v>0</v>
       </c>
       <c r="E11" s="29">
-        <f>SUM(SUM(INDEX('AEO 39'!$29:$30,0,MATCH($E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!$51:$52,0,MATCH($E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH($E$9,'AEO 39'!$1:$1,0))*Assumptions!$A$11</f>
-        <v>1.235369525889815E-3</v>
+        <v>0</v>
       </c>
       <c r="F11" s="9" t="str">
         <f>IF(D11=E11,"n/a",IF(OR(C11="battery electric vehicle",C11="natural gas vehicle",C11="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H11" s="29">
         <f t="shared" ref="H11:H40" si="1">D11</f>
-        <v>3.8057610451262282E-4</v>
+        <v>0</v>
       </c>
       <c r="I11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,I$9))</f>
-        <v>3.9320484961125079E-4</v>
+        <v>0</v>
       </c>
       <c r="J11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,J$9))</f>
-        <v>3.9753546733222448E-4</v>
+        <v>0</v>
       </c>
       <c r="K11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,K$9))</f>
-        <v>4.033110396505392E-4</v>
+        <v>0</v>
       </c>
       <c r="L11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,L$9))</f>
-        <v>4.1098212309343519E-4</v>
+        <v>0</v>
       </c>
       <c r="M11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,M$9))</f>
-        <v>4.2111542890787591E-4</v>
+        <v>0</v>
       </c>
       <c r="N11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,N$9))</f>
-        <v>4.3440531499218697E-4</v>
+        <v>0</v>
       </c>
       <c r="O11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,O$9))</f>
-        <v>4.516715783138295E-4</v>
+        <v>0</v>
       </c>
       <c r="P11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,P$9))</f>
-        <v>4.7383134956379655E-4</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,Q$9))</f>
-        <v>5.0182946160490889E-4</v>
+        <v>0</v>
       </c>
       <c r="R11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,R$9))</f>
-        <v>5.3651224215358457E-4</v>
+        <v>0</v>
       </c>
       <c r="S11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,S$9))</f>
-        <v>5.7843959678952387E-4</v>
+        <v>0</v>
       </c>
       <c r="T11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,T$9))</f>
-        <v>6.2765456811457476E-4</v>
+        <v>0</v>
       </c>
       <c r="U11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,U$9))</f>
-        <v>6.8346676285730725E-4</v>
+        <v>0</v>
       </c>
       <c r="V11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,V$9))</f>
-        <v>7.4433984155985176E-4</v>
+        <v>0</v>
       </c>
       <c r="W11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,W$9))</f>
-        <v>8.0797281520121893E-4</v>
+        <v>0</v>
       </c>
       <c r="X11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,X$9))</f>
-        <v>8.716057888425861E-4</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,Y$9))</f>
-        <v>9.3247886754513061E-4</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,Z$9))</f>
-        <v>9.8829106228786288E-4</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AA$9))</f>
-        <v>1.037506033612914E-3</v>
+        <v>0</v>
       </c>
       <c r="AB11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AB$9))</f>
-        <v>1.0794333882488531E-3</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AC$9))</f>
-        <v>1.114116168797529E-3</v>
+        <v>0</v>
       </c>
       <c r="AD11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AD$9))</f>
-        <v>1.1421142808386413E-3</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AE$9))</f>
-        <v>1.1642740520886085E-3</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AF$9))</f>
-        <v>1.1815403154102509E-3</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AG$9))</f>
-        <v>1.1948302014945619E-3</v>
+        <v>0</v>
       </c>
       <c r="AH11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AH$9))</f>
-        <v>1.2049635073090028E-3</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AI$9))</f>
-        <v>1.2126345907518985E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AJ$9))</f>
-        <v>1.2184101630702134E-3</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AK$9))</f>
-        <v>1.2227407807911871E-3</v>
+        <v>0</v>
       </c>
       <c r="AL11" s="15">
         <f>IF($F11="s-curve",$D11+($E11-$D11)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D11:$E11,$D$9:$E$9,AL$9))</f>
-        <v>1.2259779596081354E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -55194,140 +55179,138 @@
         <v>4</v>
       </c>
       <c r="D13" s="29">
-        <f>SUM(INDEX('AEO 39'!$18:$18,MATCH(D$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$27:$27,MATCH(D$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$40:$40,MATCH(D$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$49:$49,MATCH(D$9,'AEO 39'!$1:$1,0)))/INDEX('AEO 39'!$59:$59,MATCH(D$9,'AEO 39'!$1:$1,0))</f>
-        <v>4.2138566319580755E-3</v>
+        <v>0</v>
       </c>
       <c r="E13" s="29">
-        <f>SUM(INDEX('AEO 39'!$18:$18,MATCH(E$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$27:$27,MATCH(E$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$40:$40,MATCH(E$9,'AEO 39'!$1:$1,0)),INDEX('AEO 39'!$49:$49,MATCH(E$9,'AEO 39'!$1:$1,0)))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))*Assumptions!A11</f>
-        <v>3.0818463927506295E-2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="9" t="str">
         <f>IF(D13=E13,"n/a",IF(OR(C13="battery electric vehicle",C13="natural gas vehicle",C13="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H13" s="29">
         <f t="shared" si="1"/>
-        <v>4.2138566319580755E-3</v>
+        <v>0</v>
       </c>
       <c r="I13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,I$9))</f>
-        <v>5.1006768751431508E-3</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,J$9))</f>
-        <v>5.9874971183280223E-3</v>
+        <v>0</v>
       </c>
       <c r="K13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,K$9))</f>
-        <v>6.8743173615128939E-3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,L$9))</f>
-        <v>7.7611376046979874E-3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,M$9))</f>
-        <v>8.6479578478828589E-3</v>
+        <v>0</v>
       </c>
       <c r="N13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,N$9))</f>
-        <v>9.5347780910677304E-3</v>
+        <v>0</v>
       </c>
       <c r="O13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,O$9))</f>
-        <v>1.0421598334252602E-2</v>
+        <v>0</v>
       </c>
       <c r="P13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,P$9))</f>
-        <v>1.1308418577437696E-2</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,Q$9))</f>
-        <v>1.2195238820622567E-2</v>
+        <v>0</v>
       </c>
       <c r="R13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,R$9))</f>
-        <v>1.3082059063807439E-2</v>
+        <v>0</v>
       </c>
       <c r="S13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,S$9))</f>
-        <v>1.3968879306992532E-2</v>
+        <v>0</v>
       </c>
       <c r="T13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,T$9))</f>
-        <v>1.4855699550177404E-2</v>
+        <v>0</v>
       </c>
       <c r="U13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,U$9))</f>
-        <v>1.5742519793362275E-2</v>
+        <v>0</v>
       </c>
       <c r="V13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,V$9))</f>
-        <v>1.6629340036547369E-2</v>
+        <v>0</v>
       </c>
       <c r="W13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,W$9))</f>
-        <v>1.751616027973224E-2</v>
+        <v>0</v>
       </c>
       <c r="X13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,X$9))</f>
-        <v>1.8402980522917112E-2</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,Y$9))</f>
-        <v>1.9289800766102205E-2</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,Z$9))</f>
-        <v>2.0176621009287077E-2</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AA$9))</f>
-        <v>2.1063441252471948E-2</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AB$9))</f>
-        <v>2.1950261495657042E-2</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AC$9))</f>
-        <v>2.2837081738841913E-2</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AD$9))</f>
-        <v>2.3723901982026785E-2</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AE$9))</f>
-        <v>2.4610722225211656E-2</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AF$9))</f>
-        <v>2.549754246839675E-2</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AG$9))</f>
-        <v>2.6384362711581621E-2</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AH$9))</f>
-        <v>2.7271182954766493E-2</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AI$9))</f>
-        <v>2.8158003197951587E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AJ$9))</f>
-        <v>2.9044823441136458E-2</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AK$9))</f>
-        <v>2.993164368432133E-2</v>
+        <v>0</v>
       </c>
       <c r="AL13" s="15">
         <f>IF($F13="s-curve",$D13+($E13-$D13)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D13:$E13,$D$9:$E$9,AL$9))</f>
-        <v>3.0818463927506423E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -55475,140 +55458,138 @@
         <v>125</v>
       </c>
       <c r="D15" s="29">
-        <f>SUM(SUM(INDEX('AEO 39'!31:32,0,MATCH(D$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!53:54,0,MATCH(D$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(D$9,'AEO 39'!$1:$1,0))</f>
-        <v>3.186067677034385E-4</v>
+        <v>0</v>
       </c>
       <c r="E15" s="29">
-        <f>SUM(SUM(INDEX('AEO 39'!31:32,0,MATCH(E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!53:54,0,MATCH(E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))*Assumptions!A11</f>
-        <v>8.6165104068937229E-4</v>
+        <v>0</v>
       </c>
       <c r="F15" s="9" t="str">
         <f>IF(D15=E15,"n/a",IF(OR(C15="battery electric vehicle",C15="natural gas vehicle",C15="plugin hybrid vehicle",C15="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H15" s="29">
         <f t="shared" si="1"/>
-        <v>3.186067677034385E-4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,I$9))</f>
-        <v>3.3670824346963835E-4</v>
+        <v>0</v>
       </c>
       <c r="J15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,J$9))</f>
-        <v>3.5480971923583515E-4</v>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,K$9))</f>
-        <v>3.7291119500203196E-4</v>
+        <v>0</v>
       </c>
       <c r="L15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,L$9))</f>
-        <v>3.910126707682357E-4</v>
+        <v>0</v>
       </c>
       <c r="M15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,M$9))</f>
-        <v>4.0911414653443251E-4</v>
+        <v>0</v>
       </c>
       <c r="N15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,N$9))</f>
-        <v>4.2721562230062932E-4</v>
+        <v>0</v>
       </c>
       <c r="O15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,O$9))</f>
-        <v>4.4531709806682612E-4</v>
+        <v>0</v>
       </c>
       <c r="P15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,P$9))</f>
-        <v>4.6341857383302293E-4</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,Q$9))</f>
-        <v>4.8152004959921973E-4</v>
+        <v>0</v>
       </c>
       <c r="R15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,R$9))</f>
-        <v>4.9962152536541654E-4</v>
+        <v>0</v>
       </c>
       <c r="S15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,S$9))</f>
-        <v>5.1772300113162029E-4</v>
+        <v>0</v>
       </c>
       <c r="T15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,T$9))</f>
-        <v>5.3582447689781709E-4</v>
+        <v>0</v>
       </c>
       <c r="U15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,U$9))</f>
-        <v>5.539259526640139E-4</v>
+        <v>0</v>
       </c>
       <c r="V15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,V$9))</f>
-        <v>5.720274284302107E-4</v>
+        <v>0</v>
       </c>
       <c r="W15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,W$9))</f>
-        <v>5.9012890419640751E-4</v>
+        <v>0</v>
       </c>
       <c r="X15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,X$9))</f>
-        <v>6.0823037996260432E-4</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,Y$9))</f>
-        <v>6.2633185572880112E-4</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,Z$9))</f>
-        <v>6.4443333149500487E-4</v>
+        <v>0</v>
       </c>
       <c r="AA15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AA$9))</f>
-        <v>6.6253480726120167E-4</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AB$9))</f>
-        <v>6.8063628302739848E-4</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AC$9))</f>
-        <v>6.9873775879359529E-4</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AD$9))</f>
-        <v>7.1683923455979209E-4</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AE$9))</f>
-        <v>7.349407103259889E-4</v>
+        <v>0</v>
       </c>
       <c r="AF15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AF$9))</f>
-        <v>7.5304218609218571E-4</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AG$9))</f>
-        <v>7.7114366185838945E-4</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AH$9))</f>
-        <v>7.8924513762458626E-4</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AI$9))</f>
-        <v>8.0734661339078306E-4</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AJ$9))</f>
-        <v>8.2544808915697987E-4</v>
+        <v>0</v>
       </c>
       <c r="AK15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AK$9))</f>
-        <v>8.4354956492317668E-4</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="15">
         <f>IF($F15="s-curve",$D15+($E15-$D15)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D15:$E15,$D$9:$E$9,AL$9))</f>
-        <v>8.6165104068937348E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -55622,8 +55603,7 @@
         <v>2.9671627040405578E-5</v>
       </c>
       <c r="E16" s="37">
-        <f>SUM(SUM(INDEX('AEO 39'!34:34,0,MATCH(E$9,'AEO 39'!$1:$1,0))),SUM(INDEX('AEO 39'!56:56,0,MATCH(E$9,'AEO 39'!$1:$1,0))))/INDEX('AEO 39'!$59:$59,MATCH(E$9,'AEO 39'!$1:$1,0))*Assumptions!A11</f>
-        <v>3.1482251979020537E-4</v>
+        <v>0</v>
       </c>
       <c r="F16" s="10" t="str">
         <f>IF(D16=E16,"n/a",IF(OR(C16="battery electric vehicle",C16="natural gas vehicle",C16="plugin hybrid vehicle",C16="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -55635,123 +55615,123 @@
       </c>
       <c r="I16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,I$9))</f>
-        <v>3.3884455367256228E-5</v>
+        <v>2.923325748211965E-5</v>
       </c>
       <c r="J16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,J$9))</f>
-        <v>3.5329107932906753E-5</v>
+        <v>2.9082932888296411E-5</v>
       </c>
       <c r="K16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,K$9))</f>
-        <v>3.7255783503309569E-5</v>
+        <v>2.888245096659675E-5</v>
       </c>
       <c r="L16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,L$9))</f>
-        <v>3.9814783417669883E-5</v>
+        <v>2.8616171978924244E-5</v>
       </c>
       <c r="M16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,M$9))</f>
-        <v>4.319515711642753E-5</v>
+        <v>2.8264424219415241E-5</v>
       </c>
       <c r="N16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,N$9))</f>
-        <v>4.7628535739509144E-5</v>
+        <v>2.7803105105999714E-5</v>
       </c>
       <c r="O16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,O$9))</f>
-        <v>5.3388395698055686E-5</v>
+        <v>2.7203757810093066E-5</v>
       </c>
       <c r="P16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,P$9))</f>
-        <v>6.0780683000499877E-5</v>
+        <v>2.6434546850595539E-5</v>
       </c>
       <c r="Q16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,Q$9))</f>
-        <v>7.0120584834289462E-5</v>
+        <v>2.5462675147393939E-5</v>
       </c>
       <c r="R16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,R$9))</f>
-        <v>8.1690428014137938E-5</v>
+        <v>2.4258764935372745E-5</v>
       </c>
       <c r="S16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,S$9))</f>
-        <v>9.567699167511389E-5</v>
+        <v>2.2803380747291295E-5</v>
       </c>
       <c r="T16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,T$9))</f>
-        <v>1.1209463441665937E-4</v>
+        <v>2.1095028486450964E-5</v>
       </c>
       <c r="U16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,U$9))</f>
-        <v>1.3071304766038166E-4</v>
+        <v>1.9157673114617697E-5</v>
       </c>
       <c r="V16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,V$9))</f>
-        <v>1.5101972328791891E-4</v>
+        <v>1.7044644114987457E-5</v>
       </c>
       <c r="W16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,W$9))</f>
-        <v>1.7224707341530546E-4</v>
+        <v>1.4835813520202789E-5</v>
       </c>
       <c r="X16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,X$9))</f>
-        <v>1.9347442354269201E-4</v>
+        <v>1.2626982925418122E-5</v>
       </c>
       <c r="Y16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,Y$9))</f>
-        <v>2.1378109917022923E-4</v>
+        <v>1.0513953925787881E-5</v>
       </c>
       <c r="Z16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,Z$9))</f>
-        <v>2.3239951241395154E-4</v>
+        <v>8.5765985539546141E-6</v>
       </c>
       <c r="AA16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AA$9))</f>
-        <v>2.4881715515549704E-4</v>
+        <v>6.8682462931142866E-6</v>
       </c>
       <c r="AB16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AB$9))</f>
-        <v>2.6280371881647296E-4</v>
+        <v>5.4128621050328373E-6</v>
       </c>
       <c r="AC16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AC$9))</f>
-        <v>2.7437356199632151E-4</v>
+        <v>4.2089518930116397E-6</v>
       </c>
       <c r="AD16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AD$9))</f>
-        <v>2.8371346383011109E-4</v>
+        <v>3.2370801898100395E-6</v>
       </c>
       <c r="AE16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AE$9))</f>
-        <v>2.911057511325553E-4</v>
+        <v>2.4678692303125129E-6</v>
       </c>
       <c r="AF16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AF$9))</f>
-        <v>2.9686561109110182E-4</v>
+        <v>1.8685219344058644E-6</v>
       </c>
       <c r="AG16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AG$9))</f>
-        <v>3.0129898971418347E-4</v>
+        <v>1.4072028209903343E-6</v>
       </c>
       <c r="AH16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AH$9))</f>
-        <v>3.046793634129411E-4</v>
+        <v>1.0554550614813348E-6</v>
       </c>
       <c r="AI16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AI$9))</f>
-        <v>3.0723836332730134E-4</v>
+        <v>7.8917607380882829E-7</v>
       </c>
       <c r="AJ16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AJ$9))</f>
-        <v>3.091650388977042E-4</v>
+        <v>5.8869415210916723E-7</v>
       </c>
       <c r="AK16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AK$9))</f>
-        <v>3.1060969146335472E-4</v>
+        <v>4.3836955828592848E-7</v>
       </c>
       <c r="AL16" s="15">
         <f>IF($F16="s-curve",$D16+($E16-$D16)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D16:$E16,$D$9:$E$9,AL$9))</f>
-        <v>3.1168958329050089E-4</v>
+        <v>3.2600046404929385E-7</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
@@ -55910,7 +55890,7 @@
       </c>
       <c r="E18" s="29">
         <f>E11</f>
-        <v>1.235369525889815E-3</v>
+        <v>0</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>123</v>
@@ -55921,123 +55901,123 @@
       </c>
       <c r="I18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,I$9))</f>
-        <v>1.2415551653788361E-3</v>
+        <v>1.2003761811825026E-3</v>
       </c>
       <c r="J18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,J$9))</f>
-        <v>1.2413418674654217E-3</v>
+        <v>1.158983899072763E-3</v>
       </c>
       <c r="K18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,K$9))</f>
-        <v>1.2411285695520073E-3</v>
+        <v>1.1175916169630234E-3</v>
       </c>
       <c r="L18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,L$9))</f>
-        <v>1.2409152716385927E-3</v>
+        <v>1.0761993348532839E-3</v>
       </c>
       <c r="M18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,M$9))</f>
-        <v>1.240701973725178E-3</v>
+        <v>1.0348070527435443E-3</v>
       </c>
       <c r="N18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,N$9))</f>
-        <v>1.2404886758117636E-3</v>
+        <v>9.9341477063379091E-4</v>
       </c>
       <c r="O18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,O$9))</f>
-        <v>1.2402753778983492E-3</v>
+        <v>9.5202248852405136E-4</v>
       </c>
       <c r="P18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,P$9))</f>
-        <v>1.2400620799849346E-3</v>
+        <v>9.106302064143118E-4</v>
       </c>
       <c r="Q18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,Q$9))</f>
-        <v>1.2398487820715199E-3</v>
+        <v>8.6923792430457225E-4</v>
       </c>
       <c r="R18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,R$9))</f>
-        <v>1.2396354841581055E-3</v>
+        <v>8.278456421948327E-4</v>
       </c>
       <c r="S18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,S$9))</f>
-        <v>1.2394221862446911E-3</v>
+        <v>7.8645336008509314E-4</v>
       </c>
       <c r="T18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,T$9))</f>
-        <v>1.2392088883312765E-3</v>
+        <v>7.4506107797533971E-4</v>
       </c>
       <c r="U18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,U$9))</f>
-        <v>1.2389955904178619E-3</v>
+        <v>7.0366879586560016E-4</v>
       </c>
       <c r="V18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,V$9))</f>
-        <v>1.2387822925044474E-3</v>
+        <v>6.6227651375586061E-4</v>
       </c>
       <c r="W18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,W$9))</f>
-        <v>1.238568994591033E-3</v>
+        <v>6.2088423164612105E-4</v>
       </c>
       <c r="X18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,X$9))</f>
-        <v>1.2383556966776184E-3</v>
+        <v>5.794919495363815E-4</v>
       </c>
       <c r="Y18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,Y$9))</f>
-        <v>1.2381423987642038E-3</v>
+        <v>5.3809966742664195E-4</v>
       </c>
       <c r="Z18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,Z$9))</f>
-        <v>1.2379291008507893E-3</v>
+        <v>4.9670738531690239E-4</v>
       </c>
       <c r="AA18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AA$9))</f>
-        <v>1.2377158029373749E-3</v>
+        <v>4.5531510320714896E-4</v>
       </c>
       <c r="AB18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AB$9))</f>
-        <v>1.2375025050239603E-3</v>
+        <v>4.1392282109740941E-4</v>
       </c>
       <c r="AC18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AC$9))</f>
-        <v>1.2372892071105457E-3</v>
+        <v>3.7253053898766986E-4</v>
       </c>
       <c r="AD18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AD$9))</f>
-        <v>1.2370759091971312E-3</v>
+        <v>3.311382568779303E-4</v>
       </c>
       <c r="AE18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AE$9))</f>
-        <v>1.2368626112837168E-3</v>
+        <v>2.8974597476819075E-4</v>
       </c>
       <c r="AF18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AF$9))</f>
-        <v>1.2366493133703022E-3</v>
+        <v>2.483536926584512E-4</v>
       </c>
       <c r="AG18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AG$9))</f>
-        <v>1.2364360154568876E-3</v>
+        <v>2.0696141054869777E-4</v>
       </c>
       <c r="AH18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AH$9))</f>
-        <v>1.2362227175434731E-3</v>
+        <v>1.6556912843895821E-4</v>
       </c>
       <c r="AI18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AI$9))</f>
-        <v>1.2360094196300587E-3</v>
+        <v>1.2417684632921866E-4</v>
       </c>
       <c r="AJ18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AJ$9))</f>
-        <v>1.2357961217166441E-3</v>
+        <v>8.2784564219479106E-5</v>
       </c>
       <c r="AK18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AK$9))</f>
-        <v>1.2355828238032295E-3</v>
+        <v>4.1392282109739553E-5</v>
       </c>
       <c r="AL18" s="15">
         <f>IF($F18="s-curve",$D18+($E18-$D18)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D18:$E18,$D$9:$E$9,AL$9))</f>
-        <v>1.235369525889815E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
@@ -56323,16 +56303,14 @@
         <v>5</v>
       </c>
       <c r="D21" s="29">
-        <f>'SYVbT-freight'!F$2/'SYVbT-freight'!$2:$2</f>
         <v>0</v>
       </c>
       <c r="E21" s="29">
-        <f>E14</f>
-        <v>0.13109351086063947</v>
+        <v>0</v>
       </c>
       <c r="F21" s="9" t="str">
         <f>IF(D21=E21,"n/a",IF(OR(C21="battery electric vehicle",C21="natural gas vehicle",C21="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H21" s="29">
         <f t="shared" si="1"/>
@@ -56340,123 +56318,123 @@
       </c>
       <c r="I21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,I$9))</f>
-        <v>1.936779684237523E-3</v>
+        <v>0</v>
       </c>
       <c r="J21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,J$9))</f>
-        <v>2.6009353352286976E-3</v>
+        <v>0</v>
       </c>
       <c r="K21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,K$9))</f>
-        <v>3.4866932663292233E-3</v>
+        <v>0</v>
       </c>
       <c r="L21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,L$9))</f>
-        <v>4.6631520872381935E-3</v>
+        <v>0</v>
       </c>
       <c r="M21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,M$9))</f>
-        <v>6.2172242204786609E-3</v>
+        <v>0</v>
       </c>
       <c r="N21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,N$9))</f>
-        <v>8.2553983361887875E-3</v>
+        <v>0</v>
       </c>
       <c r="O21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,O$9))</f>
-        <v>1.0903400791134683E-2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,P$9))</f>
-        <v>1.4301885314268325E-2</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,Q$9))</f>
-        <v>1.8595754117125374E-2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,R$9))</f>
-        <v>2.391480238636642E-2</v>
+        <v>0</v>
       </c>
       <c r="S21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,S$9))</f>
-        <v>3.0344898808340407E-2</v>
+        <v>0</v>
       </c>
       <c r="T21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,T$9))</f>
-        <v>3.7892644516902288E-2</v>
+        <v>0</v>
       </c>
       <c r="U21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,U$9))</f>
-        <v>4.6452158868187786E-2</v>
+        <v>0</v>
       </c>
       <c r="V21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,V$9))</f>
-        <v>5.5787824544177182E-2</v>
+        <v>0</v>
       </c>
       <c r="W21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,W$9))</f>
-        <v>6.5546755430319736E-2</v>
+        <v>0</v>
       </c>
       <c r="X21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,X$9))</f>
-        <v>7.5305686316462297E-2</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,Y$9))</f>
-        <v>8.464135199245168E-2</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,Z$9))</f>
-        <v>9.3200866343737185E-2</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AA$9))</f>
-        <v>0.10074861205229906</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AB$9))</f>
-        <v>0.10717870847427305</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AC$9))</f>
-        <v>0.11249775674351412</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AD$9))</f>
-        <v>0.11679162554637115</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AE$9))</f>
-        <v>0.12019011006950479</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AF$9))</f>
-        <v>0.12283811252445069</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AG$9))</f>
-        <v>0.12487628664016083</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AH$9))</f>
-        <v>0.12643035877340128</v>
+        <v>0</v>
       </c>
       <c r="AI21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AI$9))</f>
-        <v>0.12760681759431025</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AJ$9))</f>
-        <v>0.12849257552541077</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AK$9))</f>
-        <v>0.12915673117640195</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="15">
         <f>IF($F21="s-curve",$D21+($E21-$D21)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D21:$E21,$D$9:$E$9,AL$9))</f>
-        <v>0.12965319397757058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
@@ -56464,140 +56442,138 @@
         <v>125</v>
       </c>
       <c r="D22" s="29">
-        <f>'SYVbT-freight'!G$2/'SYVbT-freight'!$2:$2</f>
-        <v>4.5128616403477108E-4</v>
+        <v>0</v>
       </c>
       <c r="E22" s="29">
-        <f>E15</f>
-        <v>8.6165104068937229E-4</v>
+        <v>0</v>
       </c>
       <c r="F22" s="9" t="str">
         <f>IF(D22=E22,"n/a",IF(OR(C22="battery electric vehicle",C22="natural gas vehicle",C22="plugin hybrid vehicle",C22="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H22" s="29">
         <f t="shared" si="1"/>
-        <v>4.5128616403477108E-4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,I$9))</f>
-        <v>4.6496499325658983E-4</v>
+        <v>0</v>
       </c>
       <c r="J22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,J$9))</f>
-        <v>4.7864382247840911E-4</v>
+        <v>0</v>
       </c>
       <c r="K22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,K$9))</f>
-        <v>4.9232265170023187E-4</v>
+        <v>0</v>
       </c>
       <c r="L22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,L$9))</f>
-        <v>5.0600148092205116E-4</v>
+        <v>0</v>
       </c>
       <c r="M22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,M$9))</f>
-        <v>5.1968031014387045E-4</v>
+        <v>0</v>
       </c>
       <c r="N22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,N$9))</f>
-        <v>5.3335913936568974E-4</v>
+        <v>0</v>
       </c>
       <c r="O22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,O$9))</f>
-        <v>5.4703796858750903E-4</v>
+        <v>0</v>
       </c>
       <c r="P22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,P$9))</f>
-        <v>5.6071679780933179E-4</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,Q$9))</f>
-        <v>5.7439562703115107E-4</v>
+        <v>0</v>
       </c>
       <c r="R22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,R$9))</f>
-        <v>5.8807445625297036E-4</v>
+        <v>0</v>
       </c>
       <c r="S22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,S$9))</f>
-        <v>6.0175328547478965E-4</v>
+        <v>0</v>
       </c>
       <c r="T22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,T$9))</f>
-        <v>6.1543211469661241E-4</v>
+        <v>0</v>
       </c>
       <c r="U22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,U$9))</f>
-        <v>6.291109439184317E-4</v>
+        <v>0</v>
       </c>
       <c r="V22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,V$9))</f>
-        <v>6.4278977314025099E-4</v>
+        <v>0</v>
       </c>
       <c r="W22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,W$9))</f>
-        <v>6.5646860236207027E-4</v>
+        <v>0</v>
       </c>
       <c r="X22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,X$9))</f>
-        <v>6.7014743158388956E-4</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,Y$9))</f>
-        <v>6.8382626080571232E-4</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,Z$9))</f>
-        <v>6.9750509002753161E-4</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AA$9))</f>
-        <v>7.111839192493509E-4</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AB$9))</f>
-        <v>7.2486274847117019E-4</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AC$9))</f>
-        <v>7.3854157769298948E-4</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AD$9))</f>
-        <v>7.5222040691481223E-4</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AE$9))</f>
-        <v>7.6589923613663152E-4</v>
+        <v>0</v>
       </c>
       <c r="AF22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AF$9))</f>
-        <v>7.7957806535845081E-4</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AG$9))</f>
-        <v>7.932568945802701E-4</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AH$9))</f>
-        <v>8.0693572380209286E-4</v>
+        <v>0</v>
       </c>
       <c r="AI22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AI$9))</f>
-        <v>8.2061455302391215E-4</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AJ$9))</f>
-        <v>8.3429338224573144E-4</v>
+        <v>0</v>
       </c>
       <c r="AK22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AK$9))</f>
-        <v>8.4797221146755072E-4</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="15">
         <f>IF($F22="s-curve",$D22+($E22-$D22)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D22:$E22,$D$9:$E$9,AL$9))</f>
-        <v>8.6165104068937001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -56607,16 +56583,14 @@
         <v>126</v>
       </c>
       <c r="D23" s="37">
-        <f>'SYVbT-freight'!H$2/'SYVbT-freight'!$2:$2</f>
         <v>0</v>
       </c>
       <c r="E23" s="37">
-        <f>E16</f>
-        <v>3.1482251979020537E-4</v>
+        <v>0</v>
       </c>
       <c r="F23" s="10" t="str">
         <f>IF(D23=E23,"n/a",IF(OR(C23="battery electric vehicle",C23="natural gas vehicle",C23="plugin hybrid vehicle",C23="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H23" s="29">
         <f t="shared" si="1"/>
@@ -56624,123 +56598,123 @@
       </c>
       <c r="I23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,I$9))</f>
-        <v>4.6511978851365776E-6</v>
+        <v>0</v>
       </c>
       <c r="J23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,J$9))</f>
-        <v>6.2461750446103416E-6</v>
+        <v>0</v>
       </c>
       <c r="K23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,K$9))</f>
-        <v>8.3733325367128191E-6</v>
+        <v>0</v>
       </c>
       <c r="L23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,L$9))</f>
-        <v>1.1198611438745645E-5</v>
+        <v>0</v>
       </c>
       <c r="M23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,M$9))</f>
-        <v>1.4930732897012287E-5</v>
+        <v>0</v>
       </c>
       <c r="N23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,N$9))</f>
-        <v>1.9825430633509433E-5</v>
+        <v>0</v>
       </c>
       <c r="O23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,O$9))</f>
-        <v>2.6184637887962621E-5</v>
+        <v>0</v>
       </c>
       <c r="P23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,P$9))</f>
-        <v>3.4346136149904345E-5</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,Q$9))</f>
-        <v>4.465790968689553E-5</v>
+        <v>0</v>
       </c>
       <c r="R23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,R$9))</f>
-        <v>5.7431663078765201E-5</v>
+        <v>0</v>
       </c>
       <c r="S23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,S$9))</f>
-        <v>7.2873610927822591E-5</v>
+        <v>0</v>
       </c>
       <c r="T23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,T$9))</f>
-        <v>9.0999605930208407E-5</v>
+        <v>0</v>
       </c>
       <c r="U23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,U$9))</f>
-        <v>1.1155537454576398E-4</v>
+        <v>0</v>
       </c>
       <c r="V23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,V$9))</f>
-        <v>1.3397507917293147E-4</v>
+        <v>0</v>
       </c>
       <c r="W23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,W$9))</f>
-        <v>1.5741125989510269E-4</v>
+        <v>0</v>
       </c>
       <c r="X23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,X$9))</f>
-        <v>1.8084744061727391E-4</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,Y$9))</f>
-        <v>2.0326714524444137E-4</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,Z$9))</f>
-        <v>2.2382291385999697E-4</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AA$9))</f>
-        <v>2.4194890886238276E-4</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AB$9))</f>
-        <v>2.5739085671144015E-4</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AC$9))</f>
-        <v>2.7016461010330987E-4</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AD$9))</f>
-        <v>2.8047638364030105E-4</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AE$9))</f>
-        <v>2.8863788190224276E-4</v>
+        <v>0</v>
       </c>
       <c r="AF23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AF$9))</f>
-        <v>2.9499708915669594E-4</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AG$9))</f>
-        <v>2.9989178689319312E-4</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AH$9))</f>
-        <v>3.0362390835145974E-4</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AI$9))</f>
-        <v>3.0644918725349253E-4</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AJ$9))</f>
-        <v>3.0857634474559505E-4</v>
+        <v>0</v>
       </c>
       <c r="AK23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AK$9))</f>
-        <v>3.1017132190506877E-4</v>
+        <v>0</v>
       </c>
       <c r="AL23" s="15">
         <f>IF($F23="s-curve",$D23+($E23-$D23)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D23:$E23,$D$9:$E$9,AL$9))</f>
-        <v>3.1136358282645159E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
@@ -57315,16 +57289,14 @@
         <v>5</v>
       </c>
       <c r="D28" s="29">
-        <f>'SYVbT-passenger'!F3/SUM('SYVbT-passenger'!3:3)*3</f>
         <v>0</v>
       </c>
       <c r="E28" s="29">
-        <f>E35*3</f>
-        <v>8.2801747689682487E-2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="9" t="str">
         <f>IF(D28=E28,"n/a",IF(OR(C28="battery electric vehicle",C28="natural gas vehicle",C28="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H28" s="29">
         <f t="shared" si="1"/>
@@ -57332,123 +57304,123 @@
       </c>
       <c r="I28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,I$9))</f>
-        <v>1.2233156446257681E-3</v>
+        <v>0</v>
       </c>
       <c r="J28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,J$9))</f>
-        <v>1.6428119894792467E-3</v>
+        <v>0</v>
       </c>
       <c r="K28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,K$9))</f>
-        <v>2.2022775514557529E-3</v>
+        <v>0</v>
       </c>
       <c r="L28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,L$9))</f>
-        <v>2.945356639174761E-3</v>
+        <v>0</v>
       </c>
       <c r="M28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,M$9))</f>
-        <v>3.9269451848117651E-3</v>
+        <v>0</v>
       </c>
       <c r="N28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,N$9))</f>
-        <v>5.2143039394039635E-3</v>
+        <v>0</v>
       </c>
       <c r="O28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,O$9))</f>
-        <v>6.8868446297602999E-3</v>
+        <v>0</v>
       </c>
       <c r="P28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,P$9))</f>
-        <v>9.033407462385545E-3</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,Q$9))</f>
-        <v>1.1745516085402967E-2</v>
+        <v>0</v>
       </c>
       <c r="R28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,R$9))</f>
-        <v>1.5105152194372085E-2</v>
+        <v>0</v>
       </c>
       <c r="S28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,S$9))</f>
-        <v>1.916655247312897E-2</v>
+        <v>0</v>
       </c>
       <c r="T28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,T$9))</f>
-        <v>2.3933886353221655E-2</v>
+        <v>0</v>
       </c>
       <c r="U28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,U$9))</f>
-        <v>2.9340277127321797E-2</v>
+        <v>0</v>
       </c>
       <c r="V28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,V$9))</f>
-        <v>3.5236903350417306E-2</v>
+        <v>0</v>
       </c>
       <c r="W28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,W$9))</f>
-        <v>4.1400873844841243E-2</v>
+        <v>0</v>
       </c>
       <c r="X28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,X$9))</f>
-        <v>4.756484433926518E-2</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,Y$9))</f>
-        <v>5.3461470562360683E-2</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,Z$9))</f>
-        <v>5.8867861336460832E-2</v>
+        <v>0</v>
       </c>
       <c r="AA28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AA$9))</f>
-        <v>6.3635195216553517E-2</v>
+        <v>0</v>
       </c>
       <c r="AB28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AB$9))</f>
-        <v>6.7696595495310402E-2</v>
+        <v>0</v>
       </c>
       <c r="AC28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AC$9))</f>
-        <v>7.1056231604279527E-2</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AD$9))</f>
-        <v>7.3768340227296947E-2</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AE$9))</f>
-        <v>7.5914903059922184E-2</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AF$9))</f>
-        <v>7.7587443750278526E-2</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AG$9))</f>
-        <v>7.8874802504870736E-2</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AH$9))</f>
-        <v>7.9856391050507722E-2</v>
+        <v>0</v>
       </c>
       <c r="AI28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AI$9))</f>
-        <v>8.0599470138226728E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AJ$9))</f>
-        <v>8.1158935700203244E-2</v>
+        <v>0</v>
       </c>
       <c r="AK28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AK$9))</f>
-        <v>8.1578432045056715E-2</v>
+        <v>0</v>
       </c>
       <c r="AL28" s="15">
         <f>IF($F28="s-curve",$D28+($E28-$D28)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D28:$E28,$D$9:$E$9,AL$9))</f>
-        <v>8.18920096381031E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
@@ -57456,140 +57428,138 @@
         <v>125</v>
       </c>
       <c r="D29" s="29">
-        <f>'SYVbT-passenger'!G3/SUM('SYVbT-passenger'!3:3)*3</f>
-        <v>2.2196156186230963E-2</v>
+        <v>0</v>
       </c>
       <c r="E29" s="29">
-        <f>E36*($D$29/$D$36)*3</f>
-        <v>0.51993486392740962</v>
+        <v>0</v>
       </c>
       <c r="F29" s="9" t="str">
         <f>IF(D29=E29,"n/a",IF(OR(C29="battery electric vehicle",C29="natural gas vehicle",C29="plugin hybrid vehicle",C29="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H29" s="29">
         <f t="shared" si="1"/>
-        <v>2.2196156186230963E-2</v>
+        <v>0</v>
       </c>
       <c r="I29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,I$9))</f>
-        <v>3.8787446444274565E-2</v>
+        <v>0</v>
       </c>
       <c r="J29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,J$9))</f>
-        <v>5.5378736702316189E-2</v>
+        <v>0</v>
       </c>
       <c r="K29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,K$9))</f>
-        <v>7.1970026960350708E-2</v>
+        <v>0</v>
       </c>
       <c r="L29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,L$9))</f>
-        <v>8.8561317218392333E-2</v>
+        <v>0</v>
       </c>
       <c r="M29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,M$9))</f>
-        <v>0.10515260747643396</v>
+        <v>0</v>
       </c>
       <c r="N29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,N$9))</f>
-        <v>0.12174389773446848</v>
+        <v>0</v>
       </c>
       <c r="O29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,O$9))</f>
-        <v>0.1383351879925101</v>
+        <v>0</v>
       </c>
       <c r="P29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,P$9))</f>
-        <v>0.15492647825055172</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,Q$9))</f>
-        <v>0.17151776850858624</v>
+        <v>0</v>
       </c>
       <c r="R29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,R$9))</f>
-        <v>0.18810905876662787</v>
+        <v>0</v>
       </c>
       <c r="S29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,S$9))</f>
-        <v>0.20470034902466949</v>
+        <v>0</v>
       </c>
       <c r="T29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,T$9))</f>
-        <v>0.22129163928270401</v>
+        <v>0</v>
       </c>
       <c r="U29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,U$9))</f>
-        <v>0.23788292954074564</v>
+        <v>0</v>
       </c>
       <c r="V29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,V$9))</f>
-        <v>0.25447421979878726</v>
+        <v>0</v>
       </c>
       <c r="W29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,W$9))</f>
-        <v>0.27106551005682178</v>
+        <v>0</v>
       </c>
       <c r="X29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,X$9))</f>
-        <v>0.2876568003148634</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,Y$9))</f>
-        <v>0.30424809057290503</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,Z$9))</f>
-        <v>0.32083938083093955</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AA$9))</f>
-        <v>0.33743067108898117</v>
+        <v>0</v>
       </c>
       <c r="AB29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AB$9))</f>
-        <v>0.3540219613470228</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AC$9))</f>
-        <v>0.37061325160505731</v>
+        <v>0</v>
       </c>
       <c r="AD29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AD$9))</f>
-        <v>0.38720454186309894</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AE$9))</f>
-        <v>0.40379583212114056</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AF$9))</f>
-        <v>0.42038712237917508</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AG$9))</f>
-        <v>0.43697841263721671</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AH$9))</f>
-        <v>0.45356970289525833</v>
+        <v>0</v>
       </c>
       <c r="AI29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AI$9))</f>
-        <v>0.47016099315329285</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AJ$9))</f>
-        <v>0.48675228341133447</v>
+        <v>0</v>
       </c>
       <c r="AK29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AK$9))</f>
-        <v>0.5033435736693761</v>
+        <v>0</v>
       </c>
       <c r="AL29" s="15">
         <f>IF($F29="s-curve",$D29+($E29-$D29)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D29:$E29,$D$9:$E$9,AL$9))</f>
-        <v>0.51993486392741062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -57599,140 +57569,138 @@
         <v>126</v>
       </c>
       <c r="D30" s="37">
-        <f>'SYVbT-passenger'!H3/SUM('SYVbT-passenger'!3:3)</f>
-        <v>1.2919974477595432E-4</v>
+        <v>0</v>
       </c>
       <c r="E30" s="37">
-        <f>E37*($D$29/$D$36)</f>
-        <v>0.17298701946763831</v>
+        <v>0</v>
       </c>
       <c r="F30" s="10" t="str">
         <f>IF(D30=E30,"n/a",IF(OR(C30="battery electric vehicle",C30="natural gas vehicle",C30="plugin hybrid vehicle",C30="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H30" s="29">
         <f t="shared" si="1"/>
-        <v>1.2919974477595432E-4</v>
+        <v>0</v>
       </c>
       <c r="I30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,I$9))</f>
-        <v>2.6830066517916028E-3</v>
+        <v>0</v>
       </c>
       <c r="J30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,J$9))</f>
-        <v>3.5587517366035969E-3</v>
+        <v>0</v>
       </c>
       <c r="K30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,K$9))</f>
-        <v>4.7266980656559621E-3</v>
+        <v>0</v>
       </c>
       <c r="L30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,L$9))</f>
-        <v>6.2779579673931142E-3</v>
+        <v>0</v>
       </c>
       <c r="M30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,M$9))</f>
-        <v>8.3271327807031264E-3</v>
+        <v>0</v>
       </c>
       <c r="N30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,N$9))</f>
-        <v>1.1014636773419878E-2</v>
+        <v>0</v>
       </c>
       <c r="O30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,O$9))</f>
-        <v>1.4506250721186734E-2</v>
+        <v>0</v>
       </c>
       <c r="P30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,P$9))</f>
-        <v>1.8987438395344558E-2</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,Q$9))</f>
-        <v>2.4649265548840522E-2</v>
+        <v>0</v>
       </c>
       <c r="R30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,R$9))</f>
-        <v>3.166287805174383E-2</v>
+        <v>0</v>
       </c>
       <c r="S30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,S$9))</f>
-        <v>4.0141500989013298E-2</v>
+        <v>0</v>
       </c>
       <c r="T30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,T$9))</f>
-        <v>5.0093838510826716E-2</v>
+        <v>0</v>
       </c>
       <c r="U30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,U$9))</f>
-        <v>6.1380278083130541E-2</v>
+        <v>0</v>
       </c>
       <c r="V30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,V$9))</f>
-        <v>7.3690138455461227E-2</v>
+        <v>0</v>
       </c>
       <c r="W30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,W$9))</f>
-        <v>8.6558109606207134E-2</v>
+        <v>0</v>
       </c>
       <c r="X30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,X$9))</f>
-        <v>9.9426080756953042E-2</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,Y$9))</f>
-        <v>0.11173594112928371</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,Z$9))</f>
-        <v>0.12302238070158754</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AA$9))</f>
-        <v>0.13297471822340096</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AB$9))</f>
-        <v>0.14145334116067043</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AC$9))</f>
-        <v>0.14846695366357376</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AD$9))</f>
-        <v>0.15412878081706971</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AE$9))</f>
-        <v>0.15860996849122755</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AF$9))</f>
-        <v>0.16210158243899439</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AG$9))</f>
-        <v>0.16478908643171114</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AH$9))</f>
-        <v>0.16683826124502116</v>
+        <v>0</v>
       </c>
       <c r="AI30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AI$9))</f>
-        <v>0.16838952114675829</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AJ$9))</f>
-        <v>0.16955746747581069</v>
+        <v>0</v>
       </c>
       <c r="AK30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AK$9))</f>
-        <v>0.17043321256062266</v>
+        <v>0</v>
       </c>
       <c r="AL30" s="15">
         <f>IF($F30="s-curve",$D30+($E30-$D30)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D30:$E30,$D$9:$E$9,AL$9))</f>
-        <v>0.17108784051909381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
@@ -58304,140 +58272,138 @@
         <v>5</v>
       </c>
       <c r="D35" s="29">
-        <f>SUM(INDEX('AEO 49'!$211:$212,0,MATCH(D$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$222:$223,0,MATCH(D$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$233:$234,0,MATCH(D$9,'AEO 49'!$1:$1,0)))/INDEX('AEO 49'!$237:$237,MATCH(D$9,'AEO 49'!$1:$1,0))</f>
-        <v>2.1604589258675129E-3</v>
+        <v>0</v>
       </c>
       <c r="E35" s="29">
-        <f>SUM(INDEX('AEO 49'!$211:$212,0,MATCH(E$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$222:$223,0,MATCH(E$9,'AEO 49'!$1:$1,0)),INDEX('AEO 49'!$233:$234,0,MATCH(E$9,'AEO 49'!$1:$1,0)))*Assumptions!A2/INDEX('AEO 49'!$237:$237,MATCH(E$9,'AEO 49'!$1:$1,0))</f>
-        <v>2.7600582563227494E-2</v>
+        <v>0</v>
       </c>
       <c r="F35" s="9" t="str">
         <f>IF(D35=E35,"n/a",IF(OR(C35="battery electric vehicle",C35="natural gas vehicle",C35="plugin hybrid vehicle"),"s-curve","linear"))</f>
-        <v>s-curve</v>
+        <v>n/a</v>
       </c>
       <c r="H35" s="29">
         <f t="shared" si="1"/>
-        <v>2.1604589258675129E-3</v>
+        <v>0</v>
       </c>
       <c r="I35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,I$9))</f>
-        <v>2.5363121187666543E-3</v>
+        <v>0</v>
       </c>
       <c r="J35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,J$9))</f>
-        <v>2.6651987567454672E-3</v>
+        <v>0</v>
       </c>
       <c r="K35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,K$9))</f>
-        <v>2.8370897308450499E-3</v>
+        <v>0</v>
       </c>
       <c r="L35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,L$9))</f>
-        <v>3.0653943788913106E-3</v>
+        <v>0</v>
       </c>
       <c r="M35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,M$9))</f>
-        <v>3.3669790031145663E-3</v>
+        <v>0</v>
       </c>
       <c r="N35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,N$9))</f>
-        <v>3.7625088898169965E-3</v>
+        <v>0</v>
       </c>
       <c r="O35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,O$9))</f>
-        <v>4.2763826079255159E-3</v>
+        <v>0</v>
       </c>
       <c r="P35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,P$9))</f>
-        <v>4.9358955455268607E-3</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,Q$9))</f>
-        <v>5.7691675550270976E-3</v>
+        <v>0</v>
       </c>
       <c r="R35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,R$9))</f>
-        <v>6.8013868061113751E-3</v>
+        <v>0</v>
       </c>
       <c r="S35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,S$9))</f>
-        <v>8.0492170526371733E-3</v>
+        <v>0</v>
       </c>
       <c r="T35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,T$9))</f>
-        <v>9.5139393165278099E-3</v>
+        <v>0</v>
       </c>
       <c r="U35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,U$9))</f>
-        <v>1.1175006305602102E-2</v>
+        <v>0</v>
       </c>
       <c r="V35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,V$9))</f>
-        <v>1.298669391298265E-2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,W$9))</f>
-        <v>1.4880520744547505E-2</v>
+        <v>0</v>
       </c>
       <c r="X35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,X$9))</f>
-        <v>1.6774347576112358E-2</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,Y$9))</f>
-        <v>1.8586035183492906E-2</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,Z$9))</f>
-        <v>2.0247102172567196E-2</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AA$9))</f>
-        <v>2.1711824436457833E-2</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AB$9))</f>
-        <v>2.2959654682983631E-2</v>
+        <v>0</v>
       </c>
       <c r="AC35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AC$9))</f>
-        <v>2.399187393406791E-2</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AD$9))</f>
-        <v>2.4825145943568147E-2</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AE$9))</f>
-        <v>2.5484658881169492E-2</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AF$9))</f>
-        <v>2.5998532599278014E-2</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AG$9))</f>
-        <v>2.6394062485980443E-2</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AH$9))</f>
-        <v>2.6695647110203696E-2</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AI$9))</f>
-        <v>2.6923951758249957E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AJ$9))</f>
-        <v>2.7095842732349541E-2</v>
+        <v>0</v>
       </c>
       <c r="AK35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AK$9))</f>
-        <v>2.7224729370328354E-2</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="15">
         <f>IF($F35="s-curve",$D35+($E35-$D35)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D35:$E35,$D$9:$E$9,AL$9))</f>
-        <v>2.7321073384308624E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
@@ -58445,140 +58411,138 @@
         <v>125</v>
       </c>
       <c r="D36" s="29">
-        <f>'SYVbT-freight'!G3/SUM('SYVbT-freight'!3:3)</f>
-        <v>7.9129793393846839E-4</v>
+        <v>0</v>
       </c>
       <c r="E36" s="29">
-        <f>SUM(SUM(INDEX('AEO 49'!136:136,0,MATCH(E$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!147:147,0,MATCH(E$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!158:158,0,MATCH(E$9,'AEO 49'!$1:$1,0))))/INDEX('AEO 49'!$166:$166,MATCH(E$9,'AEO 49'!$1:$1,0))*Assumptions!A11</f>
-        <v>6.1785980743151968E-3</v>
+        <v>0</v>
       </c>
       <c r="F36" s="9" t="str">
         <f>IF(D36=E36,"n/a",IF(OR(C36="battery electric vehicle",C36="natural gas vehicle",C36="plugin hybrid vehicle",C36="hydrogen vehicle"),"s-curve","linear"))</f>
-        <v>linear</v>
+        <v>n/a</v>
       </c>
       <c r="H36" s="29">
         <f t="shared" si="1"/>
-        <v>7.9129793393846839E-4</v>
+        <v>0</v>
       </c>
       <c r="I36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,I$9))</f>
-        <v>9.7087460528438863E-4</v>
+        <v>0</v>
       </c>
       <c r="J36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,J$9))</f>
-        <v>1.150451276630271E-3</v>
+        <v>0</v>
       </c>
       <c r="K36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,K$9))</f>
-        <v>1.3300279479761534E-3</v>
+        <v>0</v>
       </c>
       <c r="L36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,L$9))</f>
-        <v>1.5096046193220358E-3</v>
+        <v>0</v>
       </c>
       <c r="M36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,M$9))</f>
-        <v>1.6891812906679182E-3</v>
+        <v>0</v>
       </c>
       <c r="N36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,N$9))</f>
-        <v>1.8687579620138561E-3</v>
+        <v>0</v>
       </c>
       <c r="O36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,O$9))</f>
-        <v>2.0483346333597385E-3</v>
+        <v>0</v>
       </c>
       <c r="P36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,P$9))</f>
-        <v>2.2279113047056209E-3</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,Q$9))</f>
-        <v>2.4074879760515033E-3</v>
+        <v>0</v>
       </c>
       <c r="R36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,R$9))</f>
-        <v>2.5870646473973857E-3</v>
+        <v>0</v>
       </c>
       <c r="S36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,S$9))</f>
-        <v>2.7666413187432681E-3</v>
+        <v>0</v>
       </c>
       <c r="T36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,T$9))</f>
-        <v>2.946217990089206E-3</v>
+        <v>0</v>
       </c>
       <c r="U36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,U$9))</f>
-        <v>3.1257946614350884E-3</v>
+        <v>0</v>
       </c>
       <c r="V36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,V$9))</f>
-        <v>3.3053713327809708E-3</v>
+        <v>0</v>
       </c>
       <c r="W36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,W$9))</f>
-        <v>3.4849480041268532E-3</v>
+        <v>0</v>
       </c>
       <c r="X36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,X$9))</f>
-        <v>3.6645246754727356E-3</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,Y$9))</f>
-        <v>3.844101346818618E-3</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,Z$9))</f>
-        <v>4.0236780181645004E-3</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AA$9))</f>
-        <v>4.2032546895104383E-3</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AB$9))</f>
-        <v>4.3828313608563207E-3</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AC$9))</f>
-        <v>4.5624080322022031E-3</v>
+        <v>0</v>
       </c>
       <c r="AD36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AD$9))</f>
-        <v>4.7419847035480855E-3</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AE$9))</f>
-        <v>4.9215613748939679E-3</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AF$9))</f>
-        <v>5.1011380462398503E-3</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AG$9))</f>
-        <v>5.2807147175857883E-3</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AH$9))</f>
-        <v>5.4602913889316707E-3</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AI$9))</f>
-        <v>5.6398680602775531E-3</v>
+        <v>0</v>
       </c>
       <c r="AJ36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AJ$9))</f>
-        <v>5.8194447316234355E-3</v>
+        <v>0</v>
       </c>
       <c r="AK36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AK$9))</f>
-        <v>5.9990214029693179E-3</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="15">
         <f>IF($F36="s-curve",$D36+($E36-$D36)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D36:$E36,$D$9:$E$9,AL$9))</f>
-        <v>6.1785980743152003E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -58592,8 +58556,7 @@
         <v>2.2506977162920506E-5</v>
       </c>
       <c r="E37" s="37">
-        <f>SUM(SUM(INDEX('AEO 49'!142:142,0,MATCH(E$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!153:153,0,MATCH(E$9,'AEO 49'!$1:$1,0))),SUM(INDEX('AEO 49'!164:164,0,MATCH(E$9,'AEO 49'!$1:$1,0))))/INDEX('AEO 49'!$166:$166,MATCH(E$9,'AEO 49'!$1:$1,0))*Assumptions!A11</f>
-        <v>6.167025946043298E-3</v>
+        <v>1</v>
       </c>
       <c r="F37" s="10" t="str">
         <f>IF(D37=E37,"n/a",IF(OR(C37="battery electric vehicle",C37="natural gas vehicle",C37="plugin hybrid vehicle",C37="hydrogen vehicle"),"s-curve","linear"))</f>
@@ -58605,123 +58568,123 @@
       </c>
       <c r="I37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:I$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,I$9))</f>
-        <v>1.1328629514907667E-4</v>
+        <v>1.4796206151642051E-2</v>
       </c>
       <c r="J37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:J$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,J$9))</f>
-        <v>1.444161120943459E-4</v>
+        <v>1.9862366165932371E-2</v>
       </c>
       <c r="K37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:K$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,K$9))</f>
-        <v>1.8593270871116238E-4</v>
+        <v>2.6618901936101752E-2</v>
       </c>
       <c r="L37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:L$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,L$9))</f>
-        <v>2.410748243942677E-4</v>
+        <v>3.5592895649854482E-2</v>
       </c>
       <c r="M37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:M$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,M$9))</f>
-        <v>3.139161545181947E-4</v>
+        <v>4.7447312741685163E-2</v>
       </c>
       <c r="N37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:N$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,N$9))</f>
-        <v>4.0944795798919357E-4</v>
+        <v>6.2994445694272788E-2</v>
       </c>
       <c r="O37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:O$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,O$9))</f>
-        <v>5.3356318846275704E-4</v>
+        <v>8.3193331505104731E-2</v>
       </c>
       <c r="P37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:P$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,P$9))</f>
-        <v>6.9285446444391488E-4</v>
+        <v>0.10911687273311266</v>
       </c>
       <c r="Q37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:Q$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,Q$9))</f>
-        <v>8.9411353619984948E-4</v>
+        <v>0.14187037923897247</v>
       </c>
       <c r="R37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:R$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,R$9))</f>
-        <v>1.1434240685990161E-3</v>
+        <v>0.18244392493642103</v>
       </c>
       <c r="S37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:S$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,S$9))</f>
-        <v>1.4448108357788989E-3</v>
+        <v>0.23149251367073373</v>
       </c>
       <c r="T37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:T$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,T$9))</f>
-        <v>1.7985832412478915E-3</v>
+        <v>0.28906649869921563</v>
       </c>
       <c r="U37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:U$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,U$9))</f>
-        <v>2.1997785250616603E-3</v>
+        <v>0.35435822554594387</v>
       </c>
       <c r="V37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:V$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,V$9))</f>
-        <v>2.6373530049626742E-3</v>
+        <v>0.42557041215294833</v>
       </c>
       <c r="W37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:W$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,W$9))</f>
-        <v>3.0947664616031096E-3</v>
+        <v>0.50001125348858144</v>
       </c>
       <c r="X37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:X$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,X$9))</f>
-        <v>3.5521799182435449E-3</v>
+        <v>0.57445209482421467</v>
       </c>
       <c r="Y37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:Y$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,Y$9))</f>
-        <v>3.989754398144558E-3</v>
+        <v>0.64566428143121901</v>
       </c>
       <c r="Z37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:Z$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,Z$9))</f>
-        <v>4.3909496819583265E-3</v>
+        <v>0.71095600827794725</v>
       </c>
       <c r="AA37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AA$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AA$9))</f>
-        <v>4.7447220874273196E-3</v>
+        <v>0.76852999330642913</v>
       </c>
       <c r="AB37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AB$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AB$9))</f>
-        <v>5.0461088546072024E-3</v>
+        <v>0.81757858204074185</v>
       </c>
       <c r="AC37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AC$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AC$9))</f>
-        <v>5.2954193870063697E-3</v>
+        <v>0.8581521277381905</v>
       </c>
       <c r="AD37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AD$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AD$9))</f>
-        <v>5.4966784587623038E-3</v>
+        <v>0.89090563424405034</v>
       </c>
       <c r="AE37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AE$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AE$9))</f>
-        <v>5.6559697347434617E-3</v>
+        <v>0.91682917547205822</v>
       </c>
       <c r="AF37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AF$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AF$9))</f>
-        <v>5.7800849652170248E-3</v>
+        <v>0.93702806128289018</v>
       </c>
       <c r="AG37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AG$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AG$9))</f>
-        <v>5.875616768688024E-3</v>
+        <v>0.95257519423547787</v>
       </c>
       <c r="AH37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AH$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AH$9))</f>
-        <v>5.948458098811951E-3</v>
+        <v>0.96442961132730842</v>
       </c>
       <c r="AI37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AI$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AI$9))</f>
-        <v>6.0036002144950558E-3</v>
+        <v>0.97340360504106105</v>
       </c>
       <c r="AJ37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AJ$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AJ$9))</f>
-        <v>6.0451168111118727E-3</v>
+        <v>0.9801601408112306</v>
       </c>
       <c r="AK37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AK$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AK$9))</f>
-        <v>6.0762466280571414E-3</v>
+        <v>0.98522630082552087</v>
       </c>
       <c r="AL37" s="15">
         <f>IF($F37="s-curve",$D37+($E37-$D37)*$I$2/(1+EXP($I$3*(COUNT($H$9:AL$9)+$I$4))),TREND($D37:$E37,$D$9:$E$9,AL$9))</f>
-        <v>6.0995164686396177E-3</v>
+        <v>0.98901330465227377</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChrisB\Dropbox (Energy Innovation)\Desktop\Current CA EPS update\Revised variables\Transpo updates (16-May)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChrisB\Dropbox (Energy Innovation)\Desktop\Current CA EPS update\Revised variables\Transpo updates (19-May-2022)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1E2E7C9-9B06-4DC5-8E19-FEB7AAAEE8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CCA9F6-74CB-41E4-9B05-CB0203C0C894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="959">
   <si>
     <t>Source:</t>
   </si>
@@ -2916,6 +2916,18 @@
   </si>
   <si>
     <t>HDV psgr</t>
+  </si>
+  <si>
+    <t>*Adjust battery electric vehicle*</t>
+  </si>
+  <si>
+    <t>* Due to different new sales levels, adjustments from the initial model release were made to hit the BAU target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values advanced one year in time initially </t>
+  </si>
+  <si>
+    <t>Then incremented as detailed in this row to hit expected BAU</t>
   </si>
 </sst>
 </file>
@@ -5322,8 +5334,8 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:AF4"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5476,126 +5488,126 @@
       </c>
       <c r="B2">
         <f>Assumptions!B59</f>
-        <v>7.1699320999999996E-2</v>
+        <v>8.6806201999999999E-2</v>
       </c>
       <c r="C2">
         <f>Assumptions!C59</f>
-        <v>7.9299499999999995E-2</v>
+        <v>9.6378142999999999E-2</v>
       </c>
       <c r="D2">
         <f>Assumptions!D59</f>
-        <v>8.6806201999999999E-2</v>
+        <v>0.10774742800000001</v>
       </c>
       <c r="E2">
         <f>Assumptions!E59</f>
-        <v>9.6378142999999999E-2</v>
+        <v>0.12311778</v>
       </c>
       <c r="F2">
         <f>Assumptions!F59</f>
-        <v>0.10774742800000001</v>
+        <v>0.12811777999999999</v>
       </c>
       <c r="G2">
         <f>Assumptions!G59</f>
-        <v>0.12311778</v>
+        <v>0.13311777999999999</v>
       </c>
       <c r="H2">
         <f>Assumptions!H59</f>
-        <v>0.12311778</v>
+        <v>0.142107188</v>
       </c>
       <c r="I2">
         <f>Assumptions!I59</f>
-        <v>0.12311778</v>
+        <v>0.16099779</v>
       </c>
       <c r="J2">
         <f>Assumptions!J59</f>
-        <v>0.12710718800000001</v>
+        <v>0.18444923299999999</v>
       </c>
       <c r="K2">
         <f>Assumptions!K59</f>
-        <v>0.14099779000000001</v>
+        <v>0.22931154200000001</v>
       </c>
       <c r="L2">
         <f>Assumptions!L59</f>
-        <v>0.159449233</v>
+        <v>0.27915663899999998</v>
       </c>
       <c r="M2">
         <f>Assumptions!M59</f>
-        <v>0.19931154200000001</v>
+        <v>0.293598358</v>
       </c>
       <c r="N2">
         <f>Assumptions!N59</f>
-        <v>0.24415663900000001</v>
+        <v>0.34710665899999998</v>
       </c>
       <c r="O2">
         <f>Assumptions!O59</f>
-        <v>0.293598358</v>
+        <v>0.40404082800000002</v>
       </c>
       <c r="P2">
         <f>Assumptions!P59</f>
-        <v>0.34710665899999998</v>
+        <v>0.463686345</v>
       </c>
       <c r="Q2">
         <f>Assumptions!Q59</f>
-        <v>0.40404082800000002</v>
+        <v>0.52529182900000004</v>
       </c>
       <c r="R2">
         <f>Assumptions!R59</f>
-        <v>0.463686345</v>
+        <v>0.58810319300000002</v>
       </c>
       <c r="S2">
         <f>Assumptions!S59</f>
-        <v>0.52529182900000004</v>
+        <v>0.65139297799999996</v>
       </c>
       <c r="T2">
         <f>Assumptions!T59</f>
-        <v>0.58810319300000002</v>
+        <v>0.71448372400000004</v>
       </c>
       <c r="U2">
         <f>Assumptions!U59</f>
-        <v>0.65139297799999996</v>
+        <v>0.77676499200000004</v>
       </c>
       <c r="V2">
         <f>Assumptions!V59</f>
-        <v>0.71448372400000004</v>
+        <v>0.837704263</v>
       </c>
       <c r="W2">
         <f>Assumptions!W59</f>
-        <v>0.77676499200000004</v>
+        <v>0.89685236999999995</v>
       </c>
       <c r="X2">
         <f>Assumptions!X59</f>
-        <v>0.837704263</v>
+        <v>0.95384432900000005</v>
       </c>
       <c r="Y2">
         <f>Assumptions!Y59</f>
-        <v>0.89685236999999995</v>
+        <v>1</v>
       </c>
       <c r="Z2">
         <f>Assumptions!Z59</f>
-        <v>0.95384432900000005</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <f>Assumptions!AA59</f>
         <v>1</v>
       </c>
       <c r="AB2">
-        <f>Assumptions!AB59</f>
+        <f>Assumptions!Z60</f>
         <v>1</v>
       </c>
       <c r="AC2">
-        <f>Assumptions!AC59</f>
+        <f>Assumptions!AA60</f>
         <v>1</v>
       </c>
       <c r="AD2">
-        <f>Assumptions!AD59</f>
+        <f>Assumptions!AB60</f>
         <v>1</v>
       </c>
       <c r="AE2">
-        <f>Assumptions!AE59</f>
+        <f>Assumptions!AC60</f>
         <v>1</v>
       </c>
       <c r="AF2">
-        <f>Assumptions!AF59</f>
+        <f>Assumptions!AD60</f>
         <v>1</v>
       </c>
     </row>
@@ -5960,127 +5972,127 @@
         <v>5</v>
       </c>
       <c r="B6" s="15">
-        <f>Assumptions!B63</f>
+        <f>Assumptions!B64</f>
         <v>1.9460552999999998E-2</v>
       </c>
       <c r="C6" s="15">
-        <f>Assumptions!C63</f>
+        <f>Assumptions!C64</f>
         <v>2.0337040000000001E-2</v>
       </c>
       <c r="D6" s="15">
-        <f>Assumptions!D63</f>
+        <f>Assumptions!D64</f>
         <v>2.0885547000000001E-2</v>
       </c>
       <c r="E6" s="15">
-        <f>Assumptions!E63</f>
+        <f>Assumptions!E64</f>
         <v>2.1811047E-2</v>
       </c>
       <c r="F6" s="15">
-        <f>Assumptions!F63</f>
+        <f>Assumptions!F64</f>
         <v>2.2789772E-2</v>
       </c>
       <c r="G6" s="15">
-        <f>Assumptions!G63</f>
+        <f>Assumptions!G64</f>
         <v>2.4530158E-2</v>
       </c>
       <c r="H6" s="15">
-        <f>Assumptions!H63</f>
+        <f>Assumptions!H64</f>
         <v>1.9105086E-2</v>
       </c>
       <c r="I6" s="15">
-        <f>Assumptions!I63</f>
+        <f>Assumptions!I64</f>
         <v>2.5750637E-2</v>
       </c>
       <c r="J6" s="15">
-        <f>Assumptions!J63</f>
+        <f>Assumptions!J64</f>
         <v>2.9856924999999999E-2</v>
       </c>
       <c r="K6" s="15">
-        <f>Assumptions!K63</f>
+        <f>Assumptions!K64</f>
         <v>3.3546773000000002E-2</v>
       </c>
       <c r="L6" s="15">
-        <f>Assumptions!L63</f>
+        <f>Assumptions!L64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="M6" s="15">
-        <f>Assumptions!M63</f>
+        <f>Assumptions!M64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="N6" s="15">
-        <f>Assumptions!N63</f>
+        <f>Assumptions!N64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="O6" s="15">
-        <f>Assumptions!O63</f>
+        <f>Assumptions!O64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="P6" s="15">
-        <f>Assumptions!P63</f>
+        <f>Assumptions!P64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="Q6" s="15">
-        <f>Assumptions!Q63</f>
+        <f>Assumptions!Q64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="R6" s="15">
-        <f>Assumptions!R63</f>
+        <f>Assumptions!R64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="S6" s="15">
-        <f>Assumptions!S63</f>
+        <f>Assumptions!S64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="T6" s="15">
-        <f>Assumptions!T63</f>
+        <f>Assumptions!T64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="U6" s="15">
-        <f>Assumptions!U63</f>
+        <f>Assumptions!U64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="V6" s="15">
-        <f>Assumptions!V63</f>
+        <f>Assumptions!V64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="W6" s="15">
-        <f>Assumptions!W63</f>
+        <f>Assumptions!W64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="X6" s="15">
-        <f>Assumptions!X63</f>
+        <f>Assumptions!X64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="Y6" s="15">
-        <f>Assumptions!Y63</f>
+        <f>Assumptions!Y64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="Z6" s="15">
-        <f>Assumptions!Z63</f>
+        <f>Assumptions!Z64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="AA6" s="15">
-        <f>Assumptions!AA63</f>
+        <f>Assumptions!AA64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="AB6" s="15">
-        <f>Assumptions!AB63</f>
+        <f>Assumptions!AB64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="AC6" s="15">
-        <f>Assumptions!AC63</f>
+        <f>Assumptions!AC64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="AD6" s="15">
-        <f>Assumptions!AD63</f>
+        <f>Assumptions!AD64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="AE6" s="15">
-        <f>Assumptions!AE63</f>
+        <f>Assumptions!AE64</f>
         <v>3.7123840999999998E-2</v>
       </c>
       <c r="AF6" s="15">
-        <f>Assumptions!AF63</f>
+        <f>Assumptions!AF64</f>
         <v>3.7123840999999998E-2</v>
       </c>
     </row>
@@ -6468,127 +6480,127 @@
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>Assumptions!B69</f>
+        <f>Assumptions!B74</f>
         <v>4.0288390000000002E-3</v>
       </c>
       <c r="C2" s="15">
-        <f>Assumptions!C69</f>
+        <f>Assumptions!C74</f>
         <v>7.4906770000000003E-3</v>
       </c>
       <c r="D2" s="15">
-        <f>Assumptions!D69</f>
+        <f>Assumptions!D74</f>
         <v>1.3517357000000001E-2</v>
       </c>
       <c r="E2" s="15">
-        <f>Assumptions!E69</f>
+        <f>Assumptions!E74</f>
         <v>2.2982546E-2</v>
       </c>
       <c r="F2" s="15">
-        <f>Assumptions!F69</f>
+        <f>Assumptions!F74</f>
         <v>3.6100624999999997E-2</v>
       </c>
       <c r="G2" s="15">
-        <f>Assumptions!G69</f>
+        <f>Assumptions!G74</f>
         <v>5.1007505000000002E-2</v>
       </c>
       <c r="H2" s="15">
-        <f>Assumptions!H69</f>
+        <f>Assumptions!H74</f>
         <v>6.5037979999999995E-2</v>
       </c>
       <c r="I2" s="15">
-        <f>Assumptions!I69</f>
+        <f>Assumptions!I74</f>
         <v>7.4050884999999997E-2</v>
       </c>
       <c r="J2" s="15">
-        <f>Assumptions!J69</f>
+        <f>Assumptions!J74</f>
         <v>7.5902622000000003E-2</v>
       </c>
       <c r="K2" s="15">
-        <f>Assumptions!K69</f>
+        <f>Assumptions!K74</f>
         <v>7.9969093000000005E-2</v>
       </c>
       <c r="L2" s="15">
-        <f>Assumptions!L69</f>
+        <f>Assumptions!L74</f>
         <v>8.5852278000000004E-2</v>
       </c>
       <c r="M2" s="15">
-        <f>Assumptions!M69</f>
+        <f>Assumptions!M74</f>
         <v>0.115342836</v>
       </c>
       <c r="N2" s="15">
-        <f>Assumptions!N69</f>
+        <f>Assumptions!N74</f>
         <v>0.12811123299999999</v>
       </c>
       <c r="O2" s="15">
-        <f>Assumptions!O69</f>
+        <f>Assumptions!O74</f>
         <v>0.14218904299999999</v>
       </c>
       <c r="P2" s="15">
-        <f>Assumptions!P69</f>
+        <f>Assumptions!P74</f>
         <v>0.15715570200000001</v>
       </c>
       <c r="Q2" s="15">
-        <f>Assumptions!Q69</f>
+        <f>Assumptions!Q74</f>
         <v>0.17312130100000001</v>
       </c>
       <c r="R2" s="15">
-        <f>Assumptions!R69</f>
+        <f>Assumptions!R74</f>
         <v>0.18486860099999999</v>
       </c>
       <c r="S2" s="15">
-        <f>Assumptions!S69</f>
+        <f>Assumptions!S74</f>
         <v>0.194230549</v>
       </c>
       <c r="T2" s="15">
-        <f>Assumptions!T69</f>
+        <f>Assumptions!T74</f>
         <v>0.200844037</v>
       </c>
       <c r="U2" s="15">
-        <f>Assumptions!U69</f>
+        <f>Assumptions!U74</f>
         <v>0.20479752200000001</v>
       </c>
       <c r="V2" s="15">
-        <f>Assumptions!V69</f>
+        <f>Assumptions!V74</f>
         <v>0.20639531</v>
       </c>
       <c r="W2" s="15">
-        <f>Assumptions!W69</f>
+        <f>Assumptions!W74</f>
         <v>0.207285109</v>
       </c>
       <c r="X2" s="15">
-        <f>Assumptions!X69</f>
+        <f>Assumptions!X74</f>
         <v>0.205884558</v>
       </c>
       <c r="Y2" s="15">
-        <f>Assumptions!Y69</f>
+        <f>Assumptions!Y74</f>
         <v>0.203850332</v>
       </c>
       <c r="Z2" s="15">
-        <f>Assumptions!Z69</f>
+        <f>Assumptions!Z74</f>
         <v>0.20227350999999999</v>
       </c>
       <c r="AA2" s="15">
-        <f>Assumptions!AA69</f>
+        <f>Assumptions!AA74</f>
         <v>0.201661221</v>
       </c>
       <c r="AB2" s="15">
-        <f>Assumptions!AB69</f>
+        <f>Assumptions!AB74</f>
         <v>0.202610965</v>
       </c>
       <c r="AC2" s="15">
-        <f>Assumptions!AC69</f>
+        <f>Assumptions!AC74</f>
         <v>0.20489760400000001</v>
       </c>
       <c r="AD2" s="15">
-        <f>Assumptions!AD69</f>
+        <f>Assumptions!AD74</f>
         <v>0.20845095499999999</v>
       </c>
       <c r="AE2" s="15">
-        <f>Assumptions!AE69</f>
+        <f>Assumptions!AE74</f>
         <v>0.21348747400000001</v>
       </c>
       <c r="AF2" s="15">
-        <f>Assumptions!AF69</f>
+        <f>Assumptions!AF74</f>
         <v>0.22004099999999999</v>
       </c>
     </row>
@@ -7378,7 +7390,7 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AF8"/>
     </sheetView>
   </sheetViews>
@@ -7522,127 +7534,127 @@
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>Assumptions!B89</f>
+        <f>Assumptions!B94</f>
         <v>3.8708444000000002E-2</v>
       </c>
       <c r="C2" s="15">
-        <f>Assumptions!C89</f>
+        <f>Assumptions!C94</f>
         <v>4.6440683000000003E-2</v>
       </c>
       <c r="D2" s="15">
-        <f>Assumptions!D89</f>
+        <f>Assumptions!D94</f>
         <v>5.4172921999999998E-2</v>
       </c>
       <c r="E2" s="15">
-        <f>Assumptions!E89</f>
+        <f>Assumptions!E94</f>
         <v>6.1905160000000001E-2</v>
       </c>
       <c r="F2" s="15">
-        <f>Assumptions!F89</f>
+        <f>Assumptions!F94</f>
         <v>6.9637399000000003E-2</v>
       </c>
       <c r="G2" s="15">
-        <f>Assumptions!G89</f>
+        <f>Assumptions!G94</f>
         <v>7.7369637000000005E-2</v>
       </c>
       <c r="H2" s="15">
-        <f>Assumptions!H89</f>
+        <f>Assumptions!H94</f>
         <v>8.5101876000000007E-2</v>
       </c>
       <c r="I2" s="15">
-        <f>Assumptions!I89</f>
+        <f>Assumptions!I94</f>
         <v>9.2834114999999995E-2</v>
       </c>
       <c r="J2" s="15">
-        <f>Assumptions!J89</f>
+        <f>Assumptions!J94</f>
         <v>0.100566353</v>
       </c>
       <c r="K2" s="15">
-        <f>Assumptions!K89</f>
+        <f>Assumptions!K94</f>
         <v>0.108298592</v>
       </c>
       <c r="L2" s="15">
-        <f>Assumptions!L89</f>
+        <f>Assumptions!L94</f>
         <v>0.11603083</v>
       </c>
       <c r="M2" s="15">
-        <f>Assumptions!M89</f>
+        <f>Assumptions!M94</f>
         <v>0.123763069</v>
       </c>
       <c r="N2" s="15">
-        <f>Assumptions!N89</f>
+        <f>Assumptions!N94</f>
         <v>0.13149530700000001</v>
       </c>
       <c r="O2" s="15">
-        <f>Assumptions!O89</f>
+        <f>Assumptions!O94</f>
         <v>0.13922754600000001</v>
       </c>
       <c r="P2" s="15">
-        <f>Assumptions!P89</f>
+        <f>Assumptions!P94</f>
         <v>0.14695978500000001</v>
       </c>
       <c r="Q2" s="15">
-        <f>Assumptions!Q89</f>
+        <f>Assumptions!Q94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="R2" s="15">
-        <f>Assumptions!R89</f>
+        <f>Assumptions!R94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="S2" s="15">
-        <f>Assumptions!S89</f>
+        <f>Assumptions!S94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="T2" s="15">
-        <f>Assumptions!T89</f>
+        <f>Assumptions!T94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="U2" s="15">
-        <f>Assumptions!U89</f>
+        <f>Assumptions!U94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="V2" s="15">
-        <f>Assumptions!V89</f>
+        <f>Assumptions!V94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="W2" s="15">
-        <f>Assumptions!W89</f>
+        <f>Assumptions!W94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="X2" s="15">
-        <f>Assumptions!X89</f>
+        <f>Assumptions!X94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="Y2" s="15">
-        <f>Assumptions!Y89</f>
+        <f>Assumptions!Y94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="Z2" s="15">
-        <f>Assumptions!Z89</f>
+        <f>Assumptions!Z94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="AA2" s="15">
-        <f>Assumptions!AA89</f>
+        <f>Assumptions!AA94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="AB2" s="15">
-        <f>Assumptions!AB89</f>
+        <f>Assumptions!AB94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="AC2" s="15">
-        <f>Assumptions!AC89</f>
+        <f>Assumptions!AC94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="AD2" s="15">
-        <f>Assumptions!AD89</f>
+        <f>Assumptions!AD94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="AE2" s="15">
-        <f>Assumptions!AE89</f>
+        <f>Assumptions!AE94</f>
         <v>0.16242426200000001</v>
       </c>
       <c r="AF2" s="15">
-        <f>Assumptions!AF89</f>
+        <f>Assumptions!AF94</f>
         <v>0.16242426200000001</v>
       </c>
     </row>
@@ -8576,127 +8588,127 @@
         <v>1</v>
       </c>
       <c r="B2" s="15">
-        <f>Assumptions!B79</f>
+        <f>Assumptions!B84</f>
         <v>2.162813E-3</v>
       </c>
       <c r="C2" s="15">
-        <f>Assumptions!C79</f>
+        <f>Assumptions!C84</f>
         <v>2.3154429999999999E-3</v>
       </c>
       <c r="D2" s="15">
-        <f>Assumptions!D79</f>
+        <f>Assumptions!D84</f>
         <v>3.8036620000000002E-3</v>
       </c>
       <c r="E2" s="15">
-        <f>Assumptions!E79</f>
+        <f>Assumptions!E84</f>
         <v>5.3024580000000003E-3</v>
       </c>
       <c r="F2" s="15">
-        <f>Assumptions!F79</f>
+        <f>Assumptions!F84</f>
         <v>6.8161840000000003E-3</v>
       </c>
       <c r="G2" s="15">
-        <f>Assumptions!G79</f>
+        <f>Assumptions!G84</f>
         <v>8.3520650000000005E-3</v>
       </c>
       <c r="H2" s="15">
-        <f>Assumptions!H79</f>
+        <f>Assumptions!H84</f>
         <v>9.9196909999999996E-3</v>
       </c>
       <c r="I2" s="15">
-        <f>Assumptions!I79</f>
+        <f>Assumptions!I84</f>
         <v>1.1533804E-2</v>
       </c>
       <c r="J2" s="15">
-        <f>Assumptions!J79</f>
+        <f>Assumptions!J84</f>
         <v>1.3212750000000001E-2</v>
       </c>
       <c r="K2" s="15">
-        <f>Assumptions!K79</f>
+        <f>Assumptions!K84</f>
         <v>1.4978709E-2</v>
       </c>
       <c r="L2" s="15">
-        <f>Assumptions!L79</f>
+        <f>Assumptions!L84</f>
         <v>1.6867157000000001E-2</v>
       </c>
       <c r="M2" s="15">
-        <f>Assumptions!M79</f>
+        <f>Assumptions!M84</f>
         <v>1.7452430000000001E-2</v>
       </c>
       <c r="N2" s="15">
-        <f>Assumptions!N79</f>
+        <f>Assumptions!N84</f>
         <v>1.8252092000000001E-2</v>
       </c>
       <c r="O2" s="15">
-        <f>Assumptions!O79</f>
+        <f>Assumptions!O84</f>
         <v>1.9309627999999999E-2</v>
       </c>
       <c r="P2" s="15">
-        <f>Assumptions!P79</f>
+        <f>Assumptions!P84</f>
         <v>2.0645547E-2</v>
       </c>
       <c r="Q2" s="15">
-        <f>Assumptions!Q79</f>
+        <f>Assumptions!Q84</f>
         <v>2.227985E-2</v>
       </c>
       <c r="R2" s="15">
-        <f>Assumptions!R79</f>
+        <f>Assumptions!R84</f>
         <v>2.4351382000000001E-2</v>
       </c>
       <c r="S2" s="15">
-        <f>Assumptions!S79</f>
+        <f>Assumptions!S84</f>
         <v>2.6780347999999999E-2</v>
       </c>
       <c r="T2" s="15">
-        <f>Assumptions!T79</f>
+        <f>Assumptions!T84</f>
         <v>2.9592798E-2</v>
       </c>
       <c r="U2" s="15">
-        <f>Assumptions!U79</f>
+        <f>Assumptions!U84</f>
         <v>3.2960165999999999E-2</v>
       </c>
       <c r="V2" s="15">
-        <f>Assumptions!V79</f>
+        <f>Assumptions!V84</f>
         <v>3.7044072999999997E-2</v>
       </c>
       <c r="W2" s="15">
-        <f>Assumptions!W79</f>
+        <f>Assumptions!W84</f>
         <v>4.2587001999999999E-2</v>
       </c>
       <c r="X2" s="15">
-        <f>Assumptions!X79</f>
+        <f>Assumptions!X84</f>
         <v>4.8824688999999998E-2</v>
       </c>
       <c r="Y2" s="15">
-        <f>Assumptions!Y79</f>
+        <f>Assumptions!Y84</f>
         <v>5.5696411000000001E-2</v>
       </c>
       <c r="Z2" s="15">
-        <f>Assumptions!Z79</f>
+        <f>Assumptions!Z84</f>
         <v>6.2507718000000004E-2</v>
       </c>
       <c r="AA2" s="15">
-        <f>Assumptions!AA79</f>
+        <f>Assumptions!AA84</f>
         <v>6.8291605000000005E-2</v>
       </c>
       <c r="AB2" s="15">
-        <f>Assumptions!AB79</f>
+        <f>Assumptions!AB84</f>
         <v>7.2692810999999996E-2</v>
       </c>
       <c r="AC2" s="15">
-        <f>Assumptions!AC79</f>
+        <f>Assumptions!AC84</f>
         <v>7.5988175000000005E-2</v>
       </c>
       <c r="AD2" s="15">
-        <f>Assumptions!AD79</f>
+        <f>Assumptions!AD84</f>
         <v>7.8326194000000002E-2</v>
       </c>
       <c r="AE2" s="15">
-        <f>Assumptions!AE79</f>
+        <f>Assumptions!AE84</f>
         <v>8.0239419000000006E-2</v>
       </c>
       <c r="AF2" s="15">
-        <f>Assumptions!AF79</f>
+        <f>Assumptions!AF84</f>
         <v>8.1928860000000006E-2</v>
       </c>
     </row>
@@ -54458,10 +54470,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:AF89"/>
+  <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView topLeftCell="R71" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89:AF89"/>
+    <sheetView topLeftCell="P57" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59:AA59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -54771,2373 +54783,2538 @@
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A59" s="15" t="s">
+        <v>955</v>
+      </c>
+      <c r="B59" s="15">
+        <f t="shared" ref="B59:G59" si="0">B60</f>
+        <v>8.6806201999999999E-2</v>
+      </c>
+      <c r="C59" s="15">
+        <f t="shared" si="0"/>
+        <v>9.6378142999999999E-2</v>
+      </c>
+      <c r="D59" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10774742800000001</v>
+      </c>
+      <c r="E59" s="15">
+        <f t="shared" si="0"/>
+        <v>0.12311778</v>
+      </c>
+      <c r="F59" s="15">
+        <f>F60+F70</f>
+        <v>0.12811777999999999</v>
+      </c>
+      <c r="G59" s="15">
+        <f t="shared" ref="G59:L59" si="1">G60+G70</f>
+        <v>0.13311777999999999</v>
+      </c>
+      <c r="H59" s="15">
+        <f t="shared" si="1"/>
+        <v>0.142107188</v>
+      </c>
+      <c r="I59" s="15">
+        <f t="shared" si="1"/>
+        <v>0.16099779</v>
+      </c>
+      <c r="J59" s="15">
+        <f t="shared" si="1"/>
+        <v>0.18444923299999999</v>
+      </c>
+      <c r="K59" s="15">
+        <f t="shared" si="1"/>
+        <v>0.22931154200000001</v>
+      </c>
+      <c r="L59" s="15">
+        <f t="shared" si="1"/>
+        <v>0.27915663899999998</v>
+      </c>
+      <c r="M59" s="15">
+        <f>M60</f>
+        <v>0.293598358</v>
+      </c>
+      <c r="N59" s="15">
+        <f t="shared" ref="N59:AA59" si="2">N60</f>
+        <v>0.34710665899999998</v>
+      </c>
+      <c r="O59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.40404082800000002</v>
+      </c>
+      <c r="P59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.463686345</v>
+      </c>
+      <c r="Q59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.52529182900000004</v>
+      </c>
+      <c r="R59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.58810319300000002</v>
+      </c>
+      <c r="S59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.65139297799999996</v>
+      </c>
+      <c r="T59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.71448372400000004</v>
+      </c>
+      <c r="U59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.77676499200000004</v>
+      </c>
+      <c r="V59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.837704263</v>
+      </c>
+      <c r="W59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.89685236999999995</v>
+      </c>
+      <c r="X59" s="15">
+        <f t="shared" si="2"/>
+        <v>0.95384432900000005</v>
+      </c>
+      <c r="Y59" s="15">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="B59" s="15">
-        <v>7.1699320999999996E-2</v>
-      </c>
-      <c r="C59" s="15">
-        <v>7.9299499999999995E-2</v>
-      </c>
-      <c r="D59" s="15">
-        <v>8.6806201999999999E-2</v>
-      </c>
-      <c r="E59" s="15">
-        <v>9.6378142999999999E-2</v>
-      </c>
-      <c r="F59" s="15">
-        <v>0.10774742800000001</v>
-      </c>
-      <c r="G59" s="15">
-        <v>0.12311778</v>
-      </c>
-      <c r="H59" s="15">
-        <v>0.12311778</v>
-      </c>
-      <c r="I59" s="15">
-        <v>0.12311778</v>
-      </c>
-      <c r="J59" s="15">
-        <v>0.12710718800000001</v>
-      </c>
-      <c r="K59" s="15">
-        <v>0.14099779000000001</v>
-      </c>
-      <c r="L59" s="15">
-        <v>0.159449233</v>
-      </c>
-      <c r="M59" s="15">
-        <v>0.19931154200000001</v>
-      </c>
-      <c r="N59" s="15">
-        <v>0.24415663900000001</v>
-      </c>
-      <c r="O59" s="15">
-        <v>0.293598358</v>
-      </c>
-      <c r="P59" s="15">
-        <v>0.34710665899999998</v>
-      </c>
-      <c r="Q59" s="15">
-        <v>0.40404082800000002</v>
-      </c>
-      <c r="R59" s="15">
-        <v>0.463686345</v>
-      </c>
-      <c r="S59" s="15">
-        <v>0.52529182900000004</v>
-      </c>
-      <c r="T59" s="15">
-        <v>0.58810319300000002</v>
-      </c>
-      <c r="U59" s="15">
-        <v>0.65139297799999996</v>
-      </c>
-      <c r="V59" s="15">
-        <v>0.71448372400000004</v>
-      </c>
-      <c r="W59" s="15">
-        <v>0.77676499200000004</v>
-      </c>
-      <c r="X59" s="15">
-        <v>0.837704263</v>
-      </c>
-      <c r="Y59" s="15">
-        <v>0.89685236999999995</v>
-      </c>
       <c r="Z59" s="15">
-        <v>0.95384432900000005</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="AA59" s="15">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="AB59" s="15">
+        <f t="shared" ref="AB59:AF59" si="3">Z60</f>
         <v>1</v>
       </c>
       <c r="AC59" s="15">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AD59" s="15">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AE59" s="15">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AF59" s="15">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A60" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="15">
-        <v>0</v>
+        <v>8.6806201999999999E-2</v>
       </c>
       <c r="C60" s="15">
-        <v>0</v>
+        <v>9.6378142999999999E-2</v>
       </c>
       <c r="D60" s="15">
-        <v>0</v>
+        <v>0.10774742800000001</v>
       </c>
       <c r="E60" s="15">
-        <v>0</v>
+        <v>0.12311778</v>
       </c>
       <c r="F60" s="15">
-        <v>0</v>
+        <v>0.12311778</v>
       </c>
       <c r="G60" s="15">
-        <v>0</v>
+        <v>0.12311778</v>
       </c>
       <c r="H60" s="15">
-        <v>0</v>
+        <v>0.12710718800000001</v>
       </c>
       <c r="I60" s="15">
-        <v>0</v>
+        <v>0.14099779000000001</v>
       </c>
       <c r="J60" s="15">
-        <v>0</v>
+        <v>0.159449233</v>
       </c>
       <c r="K60" s="15">
-        <v>0</v>
+        <v>0.19931154200000001</v>
       </c>
       <c r="L60" s="15">
-        <v>0</v>
+        <v>0.24415663900000001</v>
       </c>
       <c r="M60" s="15">
-        <v>0</v>
+        <v>0.293598358</v>
       </c>
       <c r="N60" s="15">
-        <v>0</v>
+        <v>0.34710665899999998</v>
       </c>
       <c r="O60" s="15">
-        <v>0</v>
+        <v>0.40404082800000002</v>
       </c>
       <c r="P60" s="15">
-        <v>0</v>
+        <v>0.463686345</v>
       </c>
       <c r="Q60" s="15">
-        <v>0</v>
+        <v>0.52529182900000004</v>
       </c>
       <c r="R60" s="15">
-        <v>0</v>
+        <v>0.58810319300000002</v>
       </c>
       <c r="S60" s="15">
-        <v>0</v>
+        <v>0.65139297799999996</v>
       </c>
       <c r="T60" s="15">
-        <v>0</v>
+        <v>0.71448372400000004</v>
       </c>
       <c r="U60" s="15">
-        <v>0</v>
+        <v>0.77676499200000004</v>
       </c>
       <c r="V60" s="15">
-        <v>0</v>
+        <v>0.837704263</v>
       </c>
       <c r="W60" s="15">
-        <v>0</v>
+        <v>0.89685236999999995</v>
       </c>
       <c r="X60" s="15">
-        <v>0</v>
+        <v>0.95384432900000005</v>
       </c>
       <c r="Y60" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA60" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE60" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF60" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A61" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF61" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A62" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF62" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B63" s="15">
-        <v>1.9460552999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C63" s="15">
-        <v>2.0337040000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="D63" s="15">
-        <v>2.0885547000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="E63" s="15">
-        <v>2.1811047E-2</v>
+        <v>0</v>
       </c>
       <c r="F63" s="15">
-        <v>2.2789772E-2</v>
+        <v>0</v>
       </c>
       <c r="G63" s="15">
-        <v>2.4530158E-2</v>
+        <v>0</v>
       </c>
       <c r="H63" s="15">
-        <v>1.9105086E-2</v>
+        <v>0</v>
       </c>
       <c r="I63" s="15">
-        <v>2.5750637E-2</v>
+        <v>0</v>
       </c>
       <c r="J63" s="15">
-        <v>2.9856924999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="K63" s="15">
-        <v>3.3546773000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="L63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="M63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="N63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="O63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="P63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="R63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="S63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="T63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="U63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="V63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="W63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="X63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AA63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AB63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AC63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AD63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="AF63" s="15">
-        <v>3.7123840999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="B64" s="15">
-        <v>0</v>
+        <v>1.9460552999999998E-2</v>
       </c>
       <c r="C64" s="15">
-        <v>0</v>
+        <v>2.0337040000000001E-2</v>
       </c>
       <c r="D64" s="15">
-        <v>0</v>
+        <v>2.0885547000000001E-2</v>
       </c>
       <c r="E64" s="15">
-        <v>0</v>
+        <v>2.1811047E-2</v>
       </c>
       <c r="F64" s="15">
-        <v>0</v>
+        <v>2.2789772E-2</v>
       </c>
       <c r="G64" s="15">
-        <v>0</v>
+        <v>2.4530158E-2</v>
       </c>
       <c r="H64" s="15">
-        <v>0</v>
+        <v>1.9105086E-2</v>
       </c>
       <c r="I64" s="15">
-        <v>0</v>
+        <v>2.5750637E-2</v>
       </c>
       <c r="J64" s="15">
-        <v>0</v>
+        <v>2.9856924999999999E-2</v>
       </c>
       <c r="K64" s="15">
-        <v>0</v>
+        <v>3.3546773000000002E-2</v>
       </c>
       <c r="L64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="M64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="N64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="O64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="P64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="Q64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="R64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="S64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="T64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="U64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="V64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="W64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="X64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="Y64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="Z64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="AA64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="AB64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="AC64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="AD64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="AE64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
       <c r="AF64" s="15">
-        <v>0</v>
+        <v>3.7123840999999998E-2</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A65" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="15">
+        <v>0</v>
+      </c>
+      <c r="C65" s="15">
+        <v>0</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0</v>
+      </c>
+      <c r="E65" s="15">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15">
+        <v>0</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0</v>
+      </c>
+      <c r="H65" s="15">
+        <v>0</v>
+      </c>
+      <c r="I65" s="15">
+        <v>0</v>
+      </c>
+      <c r="J65" s="15">
+        <v>0</v>
+      </c>
+      <c r="K65" s="15">
+        <v>0</v>
+      </c>
+      <c r="L65" s="15">
+        <v>0</v>
+      </c>
+      <c r="M65" s="15">
+        <v>0</v>
+      </c>
+      <c r="N65" s="15">
+        <v>0</v>
+      </c>
+      <c r="O65" s="15">
+        <v>0</v>
+      </c>
+      <c r="P65" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="15">
+        <v>0</v>
+      </c>
+      <c r="R65" s="15">
+        <v>0</v>
+      </c>
+      <c r="S65" s="15">
+        <v>0</v>
+      </c>
+      <c r="T65" s="15">
+        <v>0</v>
+      </c>
+      <c r="U65" s="15">
+        <v>0</v>
+      </c>
+      <c r="V65" s="15">
+        <v>0</v>
+      </c>
+      <c r="W65" s="15">
+        <v>0</v>
+      </c>
+      <c r="X65" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A66" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="15">
-        <v>0</v>
-      </c>
-      <c r="C65" s="15">
-        <v>0</v>
-      </c>
-      <c r="D65" s="15">
-        <v>0</v>
-      </c>
-      <c r="E65" s="15">
-        <v>0</v>
-      </c>
-      <c r="F65" s="15">
-        <v>0</v>
-      </c>
-      <c r="G65" s="15">
-        <v>0</v>
-      </c>
-      <c r="H65" s="15">
-        <v>0</v>
-      </c>
-      <c r="I65" s="15">
-        <v>0</v>
-      </c>
-      <c r="J65" s="15">
-        <v>0</v>
-      </c>
-      <c r="K65" s="15">
-        <v>0</v>
-      </c>
-      <c r="L65" s="15">
-        <v>0</v>
-      </c>
-      <c r="M65" s="15">
-        <v>0</v>
-      </c>
-      <c r="N65" s="15">
-        <v>0</v>
-      </c>
-      <c r="O65" s="15">
-        <v>0</v>
-      </c>
-      <c r="P65" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="15">
-        <v>0</v>
-      </c>
-      <c r="R65" s="15">
-        <v>0</v>
-      </c>
-      <c r="S65" s="15">
-        <v>0</v>
-      </c>
-      <c r="T65" s="15">
-        <v>0</v>
-      </c>
-      <c r="U65" s="15">
-        <v>0</v>
-      </c>
-      <c r="V65" s="15">
-        <v>0</v>
-      </c>
-      <c r="W65" s="15">
-        <v>0</v>
-      </c>
-      <c r="X65" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE65" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF65" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A67" s="14" t="s">
-        <v>952</v>
+      <c r="B66" s="15">
+        <v>0</v>
+      </c>
+      <c r="C66" s="15">
+        <v>0</v>
+      </c>
+      <c r="D66" s="15">
+        <v>0</v>
+      </c>
+      <c r="E66" s="15">
+        <v>0</v>
+      </c>
+      <c r="F66" s="15">
+        <v>0</v>
+      </c>
+      <c r="G66" s="15">
+        <v>0</v>
+      </c>
+      <c r="H66" s="15">
+        <v>0</v>
+      </c>
+      <c r="I66" s="15">
+        <v>0</v>
+      </c>
+      <c r="J66" s="15">
+        <v>0</v>
+      </c>
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="15">
+        <v>0</v>
+      </c>
+      <c r="M66" s="15">
+        <v>0</v>
+      </c>
+      <c r="N66" s="15">
+        <v>0</v>
+      </c>
+      <c r="O66" s="15">
+        <v>0</v>
+      </c>
+      <c r="P66" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="15">
+        <v>0</v>
+      </c>
+      <c r="R66" s="15">
+        <v>0</v>
+      </c>
+      <c r="S66" s="15">
+        <v>0</v>
+      </c>
+      <c r="T66" s="15">
+        <v>0</v>
+      </c>
+      <c r="U66" s="15">
+        <v>0</v>
+      </c>
+      <c r="V66" s="15">
+        <v>0</v>
+      </c>
+      <c r="W66" s="15">
+        <v>0</v>
+      </c>
+      <c r="X66" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A68" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B68" s="15">
-        <v>2020</v>
-      </c>
-      <c r="C68" s="15">
-        <v>2021</v>
-      </c>
-      <c r="D68" s="15">
-        <v>2022</v>
-      </c>
-      <c r="E68" s="15">
-        <v>2023</v>
-      </c>
-      <c r="F68" s="15">
-        <v>2024</v>
-      </c>
-      <c r="G68" s="15">
-        <v>2025</v>
-      </c>
-      <c r="H68" s="15">
-        <v>2026</v>
-      </c>
-      <c r="I68" s="15">
-        <v>2027</v>
-      </c>
-      <c r="J68" s="15">
-        <v>2028</v>
-      </c>
-      <c r="K68" s="15">
-        <v>2029</v>
-      </c>
-      <c r="L68" s="15">
-        <v>2030</v>
-      </c>
-      <c r="M68" s="15">
-        <v>2031</v>
-      </c>
-      <c r="N68" s="15">
-        <v>2032</v>
-      </c>
-      <c r="O68" s="15">
-        <v>2033</v>
-      </c>
-      <c r="P68" s="15">
-        <v>2034</v>
-      </c>
-      <c r="Q68" s="15">
-        <v>2035</v>
-      </c>
-      <c r="R68" s="15">
-        <v>2036</v>
-      </c>
-      <c r="S68" s="15">
-        <v>2037</v>
-      </c>
-      <c r="T68" s="15">
-        <v>2038</v>
-      </c>
-      <c r="U68" s="15">
-        <v>2039</v>
-      </c>
-      <c r="V68" s="15">
-        <v>2040</v>
-      </c>
-      <c r="W68" s="15">
-        <v>2041</v>
-      </c>
-      <c r="X68" s="15">
-        <v>2042</v>
-      </c>
-      <c r="Y68" s="15">
-        <v>2043</v>
-      </c>
-      <c r="Z68" s="15">
-        <v>2044</v>
-      </c>
-      <c r="AA68" s="15">
-        <v>2045</v>
-      </c>
-      <c r="AB68" s="15">
-        <v>2046</v>
-      </c>
-      <c r="AC68" s="15">
-        <v>2047</v>
-      </c>
-      <c r="AD68" s="15">
-        <v>2048</v>
-      </c>
-      <c r="AE68" s="15">
-        <v>2049</v>
-      </c>
-      <c r="AF68" s="15">
-        <v>2050</v>
+        <v>956</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A69" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="15">
-        <v>4.0288390000000002E-3</v>
-      </c>
-      <c r="C69" s="15">
-        <v>7.4906770000000003E-3</v>
-      </c>
-      <c r="D69" s="15">
-        <v>1.3517357000000001E-2</v>
-      </c>
-      <c r="E69" s="15">
-        <v>2.2982546E-2</v>
-      </c>
-      <c r="F69" s="15">
-        <v>3.6100624999999997E-2</v>
-      </c>
-      <c r="G69" s="15">
-        <v>5.1007505000000002E-2</v>
-      </c>
-      <c r="H69" s="15">
-        <v>6.5037979999999995E-2</v>
-      </c>
-      <c r="I69" s="15">
-        <v>7.4050884999999997E-2</v>
-      </c>
-      <c r="J69" s="15">
-        <v>7.5902622000000003E-2</v>
-      </c>
-      <c r="K69" s="15">
-        <v>7.9969093000000005E-2</v>
-      </c>
-      <c r="L69" s="15">
-        <v>8.5852278000000004E-2</v>
-      </c>
-      <c r="M69" s="15">
-        <v>0.115342836</v>
-      </c>
-      <c r="N69" s="15">
-        <v>0.12811123299999999</v>
-      </c>
-      <c r="O69" s="15">
-        <v>0.14218904299999999</v>
-      </c>
-      <c r="P69" s="15">
-        <v>0.15715570200000001</v>
-      </c>
-      <c r="Q69" s="15">
-        <v>0.17312130100000001</v>
-      </c>
-      <c r="R69" s="15">
-        <v>0.18486860099999999</v>
-      </c>
-      <c r="S69" s="15">
-        <v>0.194230549</v>
-      </c>
-      <c r="T69" s="15">
-        <v>0.200844037</v>
-      </c>
-      <c r="U69" s="15">
-        <v>0.20479752200000001</v>
-      </c>
-      <c r="V69" s="15">
-        <v>0.20639531</v>
-      </c>
-      <c r="W69" s="15">
-        <v>0.207285109</v>
-      </c>
-      <c r="X69" s="15">
-        <v>0.205884558</v>
-      </c>
-      <c r="Y69" s="15">
-        <v>0.203850332</v>
-      </c>
-      <c r="Z69" s="15">
-        <v>0.20227350999999999</v>
-      </c>
-      <c r="AA69" s="15">
-        <v>0.201661221</v>
-      </c>
-      <c r="AB69" s="15">
-        <v>0.202610965</v>
-      </c>
-      <c r="AC69" s="15">
-        <v>0.20489760400000001</v>
-      </c>
-      <c r="AD69" s="15">
-        <v>0.20845095499999999</v>
-      </c>
-      <c r="AE69" s="15">
-        <v>0.21348747400000001</v>
-      </c>
-      <c r="AF69" s="15">
-        <v>0.22004099999999999</v>
+        <v>957</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A70" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B71" s="15">
-        <v>3</v>
-      </c>
-      <c r="C71" s="15">
-        <v>3</v>
-      </c>
-      <c r="D71" s="15">
-        <v>3</v>
-      </c>
-      <c r="E71" s="15">
-        <v>3</v>
-      </c>
-      <c r="F71" s="15">
-        <v>3</v>
-      </c>
-      <c r="G71" s="15">
-        <v>3</v>
-      </c>
-      <c r="H71" s="15">
-        <v>3</v>
-      </c>
-      <c r="I71" s="15">
-        <v>3</v>
-      </c>
-      <c r="J71" s="15">
-        <v>3</v>
-      </c>
-      <c r="K71" s="15">
-        <v>3</v>
-      </c>
-      <c r="L71" s="15">
-        <v>3</v>
-      </c>
-      <c r="M71" s="15">
-        <v>3</v>
-      </c>
-      <c r="N71" s="15">
-        <v>3</v>
-      </c>
-      <c r="O71" s="15">
-        <v>3</v>
-      </c>
-      <c r="P71" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q71" s="15">
-        <v>3</v>
-      </c>
-      <c r="R71" s="15">
-        <v>3</v>
-      </c>
-      <c r="S71" s="15">
-        <v>3</v>
-      </c>
-      <c r="T71" s="15">
-        <v>3</v>
-      </c>
-      <c r="U71" s="15">
-        <v>3</v>
-      </c>
-      <c r="V71" s="15">
-        <v>3</v>
-      </c>
-      <c r="W71" s="15">
-        <v>3</v>
-      </c>
-      <c r="X71" s="15">
-        <v>3</v>
-      </c>
-      <c r="Y71" s="15">
-        <v>3</v>
-      </c>
-      <c r="Z71" s="15">
-        <v>3</v>
-      </c>
-      <c r="AA71" s="15">
-        <v>3</v>
-      </c>
-      <c r="AB71" s="15">
-        <v>3</v>
-      </c>
-      <c r="AC71" s="15">
-        <v>3</v>
-      </c>
-      <c r="AD71" s="15">
-        <v>3</v>
-      </c>
-      <c r="AE71" s="15">
-        <v>3</v>
-      </c>
-      <c r="AF71" s="15">
-        <v>3</v>
+        <v>958</v>
+      </c>
+      <c r="F70" s="15">
+        <f t="shared" ref="F70:J70" si="4">G70-0.005</f>
+        <v>4.9999999999999984E-3</v>
+      </c>
+      <c r="G70" s="15">
+        <f t="shared" si="4"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="H70" s="15">
+        <f t="shared" si="4"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I70" s="15">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="J70" s="15">
+        <f t="shared" si="4"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K70" s="15">
+        <f>L70-0.005</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="L70" s="15">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A72" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B72" s="15">
-        <v>3</v>
-      </c>
-      <c r="C72" s="15">
-        <v>3</v>
-      </c>
-      <c r="D72" s="15">
-        <v>3</v>
-      </c>
-      <c r="E72" s="15">
-        <v>3</v>
-      </c>
-      <c r="F72" s="15">
-        <v>3</v>
-      </c>
-      <c r="G72" s="15">
-        <v>3</v>
-      </c>
-      <c r="H72" s="15">
-        <v>3</v>
-      </c>
-      <c r="I72" s="15">
-        <v>3</v>
-      </c>
-      <c r="J72" s="15">
-        <v>3</v>
-      </c>
-      <c r="K72" s="15">
-        <v>3</v>
-      </c>
-      <c r="L72" s="15">
-        <v>3</v>
-      </c>
-      <c r="M72" s="15">
-        <v>3</v>
-      </c>
-      <c r="N72" s="15">
-        <v>3</v>
-      </c>
-      <c r="O72" s="15">
-        <v>3</v>
-      </c>
-      <c r="P72" s="15">
-        <v>3</v>
-      </c>
-      <c r="Q72" s="15">
-        <v>3</v>
-      </c>
-      <c r="R72" s="15">
-        <v>3</v>
-      </c>
-      <c r="S72" s="15">
-        <v>3</v>
-      </c>
-      <c r="T72" s="15">
-        <v>3</v>
-      </c>
-      <c r="U72" s="15">
-        <v>3</v>
-      </c>
-      <c r="V72" s="15">
-        <v>3</v>
-      </c>
-      <c r="W72" s="15">
-        <v>3</v>
-      </c>
-      <c r="X72" s="15">
-        <v>3</v>
-      </c>
-      <c r="Y72" s="15">
-        <v>3</v>
-      </c>
-      <c r="Z72" s="15">
-        <v>3</v>
-      </c>
-      <c r="AA72" s="15">
-        <v>3</v>
-      </c>
-      <c r="AB72" s="15">
-        <v>3</v>
-      </c>
-      <c r="AC72" s="15">
-        <v>3</v>
-      </c>
-      <c r="AD72" s="15">
-        <v>3</v>
-      </c>
-      <c r="AE72" s="15">
-        <v>3</v>
-      </c>
-      <c r="AF72" s="15">
-        <v>3</v>
+      <c r="A72" s="14" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B73" s="15">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="C73" s="15">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="D73" s="15">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="E73" s="15">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="F73" s="15">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="G73" s="15">
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="H73" s="15">
-        <v>0</v>
+        <v>2026</v>
       </c>
       <c r="I73" s="15">
-        <v>0</v>
+        <v>2027</v>
       </c>
       <c r="J73" s="15">
-        <v>0</v>
+        <v>2028</v>
       </c>
       <c r="K73" s="15">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="L73" s="15">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="M73" s="15">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="N73" s="15">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="O73" s="15">
-        <v>0</v>
+        <v>2033</v>
       </c>
       <c r="P73" s="15">
-        <v>0</v>
+        <v>2034</v>
       </c>
       <c r="Q73" s="15">
-        <v>0</v>
+        <v>2035</v>
       </c>
       <c r="R73" s="15">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="S73" s="15">
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="T73" s="15">
-        <v>0</v>
+        <v>2038</v>
       </c>
       <c r="U73" s="15">
-        <v>0</v>
+        <v>2039</v>
       </c>
       <c r="V73" s="15">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="W73" s="15">
-        <v>0</v>
+        <v>2041</v>
       </c>
       <c r="X73" s="15">
-        <v>0</v>
+        <v>2042</v>
       </c>
       <c r="Y73" s="15">
-        <v>0</v>
+        <v>2043</v>
       </c>
       <c r="Z73" s="15">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="AA73" s="15">
-        <v>0</v>
+        <v>2045</v>
       </c>
       <c r="AB73" s="15">
-        <v>0</v>
+        <v>2046</v>
       </c>
       <c r="AC73" s="15">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="AD73" s="15">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="AE73" s="15">
-        <v>0</v>
+        <v>2049</v>
       </c>
       <c r="AF73" s="15">
-        <v>0</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A74" s="15" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="B74" s="15">
-        <v>0</v>
+        <v>4.0288390000000002E-3</v>
       </c>
       <c r="C74" s="15">
-        <v>0</v>
+        <v>7.4906770000000003E-3</v>
       </c>
       <c r="D74" s="15">
-        <v>0</v>
+        <v>1.3517357000000001E-2</v>
       </c>
       <c r="E74" s="15">
-        <v>0</v>
+        <v>2.2982546E-2</v>
       </c>
       <c r="F74" s="15">
-        <v>0</v>
+        <v>3.6100624999999997E-2</v>
       </c>
       <c r="G74" s="15">
-        <v>0</v>
+        <v>5.1007505000000002E-2</v>
       </c>
       <c r="H74" s="15">
-        <v>0</v>
+        <v>6.5037979999999995E-2</v>
       </c>
       <c r="I74" s="15">
-        <v>0</v>
+        <v>7.4050884999999997E-2</v>
       </c>
       <c r="J74" s="15">
-        <v>0</v>
+        <v>7.5902622000000003E-2</v>
       </c>
       <c r="K74" s="15">
-        <v>0</v>
+        <v>7.9969093000000005E-2</v>
       </c>
       <c r="L74" s="15">
-        <v>0</v>
+        <v>8.5852278000000004E-2</v>
       </c>
       <c r="M74" s="15">
-        <v>0</v>
+        <v>0.115342836</v>
       </c>
       <c r="N74" s="15">
-        <v>0</v>
+        <v>0.12811123299999999</v>
       </c>
       <c r="O74" s="15">
-        <v>0</v>
+        <v>0.14218904299999999</v>
       </c>
       <c r="P74" s="15">
-        <v>0</v>
+        <v>0.15715570200000001</v>
       </c>
       <c r="Q74" s="15">
-        <v>0</v>
+        <v>0.17312130100000001</v>
       </c>
       <c r="R74" s="15">
-        <v>0</v>
+        <v>0.18486860099999999</v>
       </c>
       <c r="S74" s="15">
-        <v>0</v>
+        <v>0.194230549</v>
       </c>
       <c r="T74" s="15">
-        <v>0</v>
+        <v>0.200844037</v>
       </c>
       <c r="U74" s="15">
-        <v>0</v>
+        <v>0.20479752200000001</v>
       </c>
       <c r="V74" s="15">
-        <v>0</v>
+        <v>0.20639531</v>
       </c>
       <c r="W74" s="15">
-        <v>0</v>
+        <v>0.207285109</v>
       </c>
       <c r="X74" s="15">
-        <v>0</v>
+        <v>0.205884558</v>
       </c>
       <c r="Y74" s="15">
-        <v>0</v>
+        <v>0.203850332</v>
       </c>
       <c r="Z74" s="15">
-        <v>0</v>
+        <v>0.20227350999999999</v>
       </c>
       <c r="AA74" s="15">
-        <v>0</v>
+        <v>0.201661221</v>
       </c>
       <c r="AB74" s="15">
-        <v>0</v>
+        <v>0.202610965</v>
       </c>
       <c r="AC74" s="15">
-        <v>0</v>
+        <v>0.20489760400000001</v>
       </c>
       <c r="AD74" s="15">
-        <v>0</v>
+        <v>0.20845095499999999</v>
       </c>
       <c r="AE74" s="15">
-        <v>0</v>
+        <v>0.21348747400000001</v>
       </c>
       <c r="AF74" s="15">
-        <v>0</v>
+        <v>0.22004099999999999</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A75" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="15">
-        <v>0</v>
-      </c>
-      <c r="C75" s="15">
-        <v>0</v>
-      </c>
-      <c r="D75" s="15">
-        <v>0</v>
-      </c>
-      <c r="E75" s="15">
-        <v>0</v>
-      </c>
-      <c r="F75" s="15">
-        <v>0</v>
-      </c>
-      <c r="G75" s="15">
-        <v>0</v>
-      </c>
-      <c r="H75" s="15">
-        <v>0</v>
-      </c>
-      <c r="I75" s="15">
-        <v>0</v>
-      </c>
-      <c r="J75" s="15">
-        <v>0</v>
-      </c>
-      <c r="K75" s="15">
-        <v>0</v>
-      </c>
-      <c r="L75" s="15">
-        <v>0</v>
-      </c>
-      <c r="M75" s="15">
-        <v>0</v>
-      </c>
-      <c r="N75" s="15">
-        <v>0</v>
-      </c>
-      <c r="O75" s="15">
-        <v>0</v>
-      </c>
-      <c r="P75" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="15">
-        <v>0</v>
-      </c>
-      <c r="R75" s="15">
-        <v>0</v>
-      </c>
-      <c r="S75" s="15">
-        <v>0</v>
-      </c>
-      <c r="T75" s="15">
-        <v>0</v>
-      </c>
-      <c r="U75" s="15">
-        <v>0</v>
-      </c>
-      <c r="V75" s="15">
-        <v>0</v>
-      </c>
-      <c r="W75" s="15">
-        <v>0</v>
-      </c>
-      <c r="X75" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC75" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD75" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE75" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF75" s="15">
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="15">
+        <v>3</v>
+      </c>
+      <c r="C76" s="15">
+        <v>3</v>
+      </c>
+      <c r="D76" s="15">
+        <v>3</v>
+      </c>
+      <c r="E76" s="15">
+        <v>3</v>
+      </c>
+      <c r="F76" s="15">
+        <v>3</v>
+      </c>
+      <c r="G76" s="15">
+        <v>3</v>
+      </c>
+      <c r="H76" s="15">
+        <v>3</v>
+      </c>
+      <c r="I76" s="15">
+        <v>3</v>
+      </c>
+      <c r="J76" s="15">
+        <v>3</v>
+      </c>
+      <c r="K76" s="15">
+        <v>3</v>
+      </c>
+      <c r="L76" s="15">
+        <v>3</v>
+      </c>
+      <c r="M76" s="15">
+        <v>3</v>
+      </c>
+      <c r="N76" s="15">
+        <v>3</v>
+      </c>
+      <c r="O76" s="15">
+        <v>3</v>
+      </c>
+      <c r="P76" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="15">
+        <v>3</v>
+      </c>
+      <c r="R76" s="15">
+        <v>3</v>
+      </c>
+      <c r="S76" s="15">
+        <v>3</v>
+      </c>
+      <c r="T76" s="15">
+        <v>3</v>
+      </c>
+      <c r="U76" s="15">
+        <v>3</v>
+      </c>
+      <c r="V76" s="15">
+        <v>3</v>
+      </c>
+      <c r="W76" s="15">
+        <v>3</v>
+      </c>
+      <c r="X76" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y76" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z76" s="15">
+        <v>3</v>
+      </c>
+      <c r="AA76" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB76" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC76" s="15">
+        <v>3</v>
+      </c>
+      <c r="AD76" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE76" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF76" s="15">
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
-        <v>953</v>
+        <v>4</v>
+      </c>
+      <c r="B77" s="15">
+        <v>3</v>
+      </c>
+      <c r="C77" s="15">
+        <v>3</v>
+      </c>
+      <c r="D77" s="15">
+        <v>3</v>
+      </c>
+      <c r="E77" s="15">
+        <v>3</v>
+      </c>
+      <c r="F77" s="15">
+        <v>3</v>
+      </c>
+      <c r="G77" s="15">
+        <v>3</v>
+      </c>
+      <c r="H77" s="15">
+        <v>3</v>
+      </c>
+      <c r="I77" s="15">
+        <v>3</v>
+      </c>
+      <c r="J77" s="15">
+        <v>3</v>
+      </c>
+      <c r="K77" s="15">
+        <v>3</v>
+      </c>
+      <c r="L77" s="15">
+        <v>3</v>
+      </c>
+      <c r="M77" s="15">
+        <v>3</v>
+      </c>
+      <c r="N77" s="15">
+        <v>3</v>
+      </c>
+      <c r="O77" s="15">
+        <v>3</v>
+      </c>
+      <c r="P77" s="15">
+        <v>3</v>
+      </c>
+      <c r="Q77" s="15">
+        <v>3</v>
+      </c>
+      <c r="R77" s="15">
+        <v>3</v>
+      </c>
+      <c r="S77" s="15">
+        <v>3</v>
+      </c>
+      <c r="T77" s="15">
+        <v>3</v>
+      </c>
+      <c r="U77" s="15">
+        <v>3</v>
+      </c>
+      <c r="V77" s="15">
+        <v>3</v>
+      </c>
+      <c r="W77" s="15">
+        <v>3</v>
+      </c>
+      <c r="X77" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y77" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z77" s="15">
+        <v>3</v>
+      </c>
+      <c r="AA77" s="15">
+        <v>3</v>
+      </c>
+      <c r="AB77" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC77" s="15">
+        <v>3</v>
+      </c>
+      <c r="AD77" s="15">
+        <v>3</v>
+      </c>
+      <c r="AE77" s="15">
+        <v>3</v>
+      </c>
+      <c r="AF77" s="15">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="B78" s="15">
-        <v>2020</v>
+        <v>0</v>
       </c>
       <c r="C78" s="15">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="D78" s="15">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="E78" s="15">
-        <v>2023</v>
+        <v>0</v>
       </c>
       <c r="F78" s="15">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="G78" s="15">
-        <v>2025</v>
+        <v>0</v>
       </c>
       <c r="H78" s="15">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="I78" s="15">
-        <v>2027</v>
+        <v>0</v>
       </c>
       <c r="J78" s="15">
-        <v>2028</v>
+        <v>0</v>
       </c>
       <c r="K78" s="15">
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="L78" s="15">
-        <v>2030</v>
+        <v>0</v>
       </c>
       <c r="M78" s="15">
-        <v>2031</v>
+        <v>0</v>
       </c>
       <c r="N78" s="15">
-        <v>2032</v>
+        <v>0</v>
       </c>
       <c r="O78" s="15">
-        <v>2033</v>
+        <v>0</v>
       </c>
       <c r="P78" s="15">
-        <v>2034</v>
+        <v>0</v>
       </c>
       <c r="Q78" s="15">
-        <v>2035</v>
+        <v>0</v>
       </c>
       <c r="R78" s="15">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="S78" s="15">
-        <v>2037</v>
+        <v>0</v>
       </c>
       <c r="T78" s="15">
-        <v>2038</v>
+        <v>0</v>
       </c>
       <c r="U78" s="15">
-        <v>2039</v>
+        <v>0</v>
       </c>
       <c r="V78" s="15">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="W78" s="15">
-        <v>2041</v>
+        <v>0</v>
       </c>
       <c r="X78" s="15">
-        <v>2042</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="15">
-        <v>2043</v>
+        <v>0</v>
       </c>
       <c r="Z78" s="15">
-        <v>2044</v>
+        <v>0</v>
       </c>
       <c r="AA78" s="15">
-        <v>2045</v>
+        <v>0</v>
       </c>
       <c r="AB78" s="15">
-        <v>2046</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="15">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="AD78" s="15">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AE78" s="15">
-        <v>2049</v>
+        <v>0</v>
       </c>
       <c r="AF78" s="15">
-        <v>2050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
-        <v>1</v>
+        <v>122</v>
       </c>
       <c r="B79" s="15">
-        <v>2.162813E-3</v>
+        <v>0</v>
       </c>
       <c r="C79" s="15">
-        <v>2.3154429999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="D79" s="15">
-        <v>3.8036620000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="E79" s="15">
-        <v>5.3024580000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="F79" s="15">
-        <v>6.8161840000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="G79" s="15">
-        <v>8.3520650000000005E-3</v>
+        <v>0</v>
       </c>
       <c r="H79" s="15">
-        <v>9.9196909999999996E-3</v>
+        <v>0</v>
       </c>
       <c r="I79" s="15">
-        <v>1.1533804E-2</v>
+        <v>0</v>
       </c>
       <c r="J79" s="15">
-        <v>1.3212750000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="K79" s="15">
-        <v>1.4978709E-2</v>
+        <v>0</v>
       </c>
       <c r="L79" s="15">
-        <v>1.6867157000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="M79" s="15">
-        <v>1.7452430000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="N79" s="15">
-        <v>1.8252092000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="O79" s="15">
-        <v>1.9309627999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="P79" s="15">
-        <v>2.0645547E-2</v>
+        <v>0</v>
       </c>
       <c r="Q79" s="15">
-        <v>2.227985E-2</v>
+        <v>0</v>
       </c>
       <c r="R79" s="15">
-        <v>2.4351382000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="S79" s="15">
-        <v>2.6780347999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="T79" s="15">
-        <v>2.9592798E-2</v>
+        <v>0</v>
       </c>
       <c r="U79" s="15">
-        <v>3.2960165999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="V79" s="15">
-        <v>3.7044072999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="W79" s="15">
-        <v>4.2587001999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="X79" s="15">
-        <v>4.8824688999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="Y79" s="15">
-        <v>5.5696411000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="Z79" s="15">
-        <v>6.2507718000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="AA79" s="15">
-        <v>6.8291605000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="15">
-        <v>7.2692810999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="AC79" s="15">
-        <v>7.5988175000000005E-2</v>
+        <v>0</v>
       </c>
       <c r="AD79" s="15">
-        <v>7.8326194000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AE79" s="15">
-        <v>8.0239419000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="AF79" s="15">
-        <v>8.1928860000000006E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A80" s="15" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B80" s="15">
-        <v>7.3589795E-2</v>
+        <v>0</v>
       </c>
       <c r="C80" s="15">
-        <v>7.3995889999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="D80" s="15">
-        <v>7.3941642000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="E80" s="15">
-        <v>7.3765467000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="F80" s="15">
-        <v>7.3390425999999995E-2</v>
+        <v>0</v>
       </c>
       <c r="G80" s="15">
-        <v>7.2711755000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="H80" s="15">
-        <v>7.1783712999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="I80" s="15">
-        <v>7.0928409999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="J80" s="15">
-        <v>7.0469529000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="K80" s="15">
-        <v>7.0480107E-2</v>
+        <v>0</v>
       </c>
       <c r="L80" s="15">
-        <v>7.0984199999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="M80" s="15">
-        <v>7.1919686999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="N80" s="15">
-        <v>7.3416383000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="O80" s="15">
-        <v>7.5395217E-2</v>
+        <v>0</v>
       </c>
       <c r="P80" s="15">
-        <v>7.7468259999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="15">
-        <v>7.9363059E-2</v>
+        <v>0</v>
       </c>
       <c r="R80" s="15">
-        <v>8.2309397000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="S80" s="15">
-        <v>8.5071710999999994E-2</v>
+        <v>0</v>
       </c>
       <c r="T80" s="15">
-        <v>8.7719454000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="U80" s="15">
-        <v>9.1121837999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="V80" s="15">
-        <v>9.5418878999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="W80" s="15">
-        <v>0.103777671</v>
+        <v>0</v>
       </c>
       <c r="X80" s="15">
-        <v>0.111585432</v>
+        <v>0</v>
       </c>
       <c r="Y80" s="15">
-        <v>0.12034946000000001</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="15">
-        <v>0.12938412199999999</v>
+        <v>0</v>
       </c>
       <c r="AA80" s="15">
-        <v>0.13682857200000001</v>
+        <v>0</v>
       </c>
       <c r="AB80" s="15">
-        <v>0.14210099500000001</v>
+        <v>0</v>
       </c>
       <c r="AC80" s="15">
-        <v>0.145822912</v>
+        <v>0</v>
       </c>
       <c r="AD80" s="15">
-        <v>0.14804408299999999</v>
+        <v>0</v>
       </c>
       <c r="AE80" s="15">
-        <v>0.14978561500000001</v>
+        <v>0</v>
       </c>
       <c r="AF80" s="15">
-        <v>0.15130775599999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A81" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="15">
-        <v>0</v>
-      </c>
-      <c r="C81" s="15">
-        <v>0</v>
-      </c>
-      <c r="D81" s="15">
-        <v>0</v>
-      </c>
-      <c r="E81" s="15">
-        <v>0</v>
-      </c>
-      <c r="F81" s="15">
-        <v>0</v>
-      </c>
-      <c r="G81" s="15">
-        <v>0</v>
-      </c>
-      <c r="H81" s="15">
-        <v>0</v>
-      </c>
-      <c r="I81" s="15">
-        <v>0</v>
-      </c>
-      <c r="J81" s="15">
-        <v>0</v>
-      </c>
-      <c r="K81" s="15">
-        <v>0</v>
-      </c>
-      <c r="L81" s="15">
-        <v>0</v>
-      </c>
-      <c r="M81" s="15">
-        <v>0</v>
-      </c>
-      <c r="N81" s="15">
-        <v>0</v>
-      </c>
-      <c r="O81" s="15">
-        <v>0</v>
-      </c>
-      <c r="P81" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="15">
-        <v>0</v>
-      </c>
-      <c r="R81" s="15">
-        <v>0</v>
-      </c>
-      <c r="S81" s="15">
-        <v>0</v>
-      </c>
-      <c r="T81" s="15">
-        <v>0</v>
-      </c>
-      <c r="U81" s="15">
-        <v>0</v>
-      </c>
-      <c r="V81" s="15">
-        <v>0</v>
-      </c>
-      <c r="W81" s="15">
-        <v>0</v>
-      </c>
-      <c r="X81" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE81" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF81" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A82" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B82" s="15">
-        <v>5</v>
-      </c>
-      <c r="C82" s="15">
-        <v>5</v>
-      </c>
-      <c r="D82" s="15">
-        <v>5</v>
-      </c>
-      <c r="E82" s="15">
-        <v>5</v>
-      </c>
-      <c r="F82" s="15">
-        <v>5</v>
-      </c>
-      <c r="G82" s="15">
-        <v>5</v>
-      </c>
-      <c r="H82" s="15">
-        <v>5</v>
-      </c>
-      <c r="I82" s="15">
-        <v>5</v>
-      </c>
-      <c r="J82" s="15">
-        <v>5</v>
-      </c>
-      <c r="K82" s="15">
-        <v>5</v>
-      </c>
-      <c r="L82" s="15">
-        <v>5</v>
-      </c>
-      <c r="M82" s="15">
-        <v>5</v>
-      </c>
-      <c r="N82" s="15">
-        <v>5</v>
-      </c>
-      <c r="O82" s="15">
-        <v>5</v>
-      </c>
-      <c r="P82" s="15">
-        <v>5</v>
-      </c>
-      <c r="Q82" s="15">
-        <v>5</v>
-      </c>
-      <c r="R82" s="15">
-        <v>5</v>
-      </c>
-      <c r="S82" s="15">
-        <v>5</v>
-      </c>
-      <c r="T82" s="15">
-        <v>5</v>
-      </c>
-      <c r="U82" s="15">
-        <v>5</v>
-      </c>
-      <c r="V82" s="15">
-        <v>5</v>
-      </c>
-      <c r="W82" s="15">
-        <v>5</v>
-      </c>
-      <c r="X82" s="15">
-        <v>5</v>
-      </c>
-      <c r="Y82" s="15">
-        <v>5</v>
-      </c>
-      <c r="Z82" s="15">
-        <v>5</v>
-      </c>
-      <c r="AA82" s="15">
-        <v>5</v>
-      </c>
-      <c r="AB82" s="15">
-        <v>5</v>
-      </c>
-      <c r="AC82" s="15">
-        <v>5</v>
-      </c>
-      <c r="AD82" s="15">
-        <v>5</v>
-      </c>
-      <c r="AE82" s="15">
-        <v>5</v>
-      </c>
-      <c r="AF82" s="15">
-        <v>5</v>
+        <v>953</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A83" s="15" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="B83" s="15">
-        <v>0</v>
+        <v>2020</v>
       </c>
       <c r="C83" s="15">
-        <v>0</v>
+        <v>2021</v>
       </c>
       <c r="D83" s="15">
-        <v>0</v>
+        <v>2022</v>
       </c>
       <c r="E83" s="15">
-        <v>0</v>
+        <v>2023</v>
       </c>
       <c r="F83" s="15">
-        <v>0</v>
+        <v>2024</v>
       </c>
       <c r="G83" s="15">
-        <v>0</v>
+        <v>2025</v>
       </c>
       <c r="H83" s="15">
-        <v>0</v>
+        <v>2026</v>
       </c>
       <c r="I83" s="15">
-        <v>0</v>
+        <v>2027</v>
       </c>
       <c r="J83" s="15">
-        <v>0</v>
+        <v>2028</v>
       </c>
       <c r="K83" s="15">
-        <v>0</v>
+        <v>2029</v>
       </c>
       <c r="L83" s="15">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="M83" s="15">
-        <v>0</v>
+        <v>2031</v>
       </c>
       <c r="N83" s="15">
-        <v>0</v>
+        <v>2032</v>
       </c>
       <c r="O83" s="15">
-        <v>0</v>
+        <v>2033</v>
       </c>
       <c r="P83" s="15">
-        <v>0</v>
+        <v>2034</v>
       </c>
       <c r="Q83" s="15">
-        <v>0</v>
+        <v>2035</v>
       </c>
       <c r="R83" s="15">
-        <v>0</v>
+        <v>2036</v>
       </c>
       <c r="S83" s="15">
-        <v>0</v>
+        <v>2037</v>
       </c>
       <c r="T83" s="15">
-        <v>0</v>
+        <v>2038</v>
       </c>
       <c r="U83" s="15">
-        <v>0</v>
+        <v>2039</v>
       </c>
       <c r="V83" s="15">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="W83" s="15">
-        <v>0</v>
+        <v>2041</v>
       </c>
       <c r="X83" s="15">
-        <v>0</v>
+        <v>2042</v>
       </c>
       <c r="Y83" s="15">
-        <v>0</v>
+        <v>2043</v>
       </c>
       <c r="Z83" s="15">
-        <v>0</v>
+        <v>2044</v>
       </c>
       <c r="AA83" s="15">
-        <v>0</v>
+        <v>2045</v>
       </c>
       <c r="AB83" s="15">
-        <v>0</v>
+        <v>2046</v>
       </c>
       <c r="AC83" s="15">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="AD83" s="15">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="AE83" s="15">
-        <v>0</v>
+        <v>2049</v>
       </c>
       <c r="AF83" s="15">
-        <v>0</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="B84" s="15">
-        <v>0</v>
+        <v>2.162813E-3</v>
       </c>
       <c r="C84" s="15">
-        <v>0</v>
+        <v>2.3154429999999999E-3</v>
       </c>
       <c r="D84" s="15">
-        <v>0</v>
+        <v>3.8036620000000002E-3</v>
       </c>
       <c r="E84" s="15">
-        <v>0</v>
+        <v>5.3024580000000003E-3</v>
       </c>
       <c r="F84" s="15">
-        <v>0</v>
+        <v>6.8161840000000003E-3</v>
       </c>
       <c r="G84" s="15">
-        <v>0</v>
+        <v>8.3520650000000005E-3</v>
       </c>
       <c r="H84" s="15">
-        <v>0</v>
+        <v>9.9196909999999996E-3</v>
       </c>
       <c r="I84" s="15">
-        <v>0</v>
+        <v>1.1533804E-2</v>
       </c>
       <c r="J84" s="15">
-        <v>0</v>
+        <v>1.3212750000000001E-2</v>
       </c>
       <c r="K84" s="15">
-        <v>0</v>
+        <v>1.4978709E-2</v>
       </c>
       <c r="L84" s="15">
-        <v>0</v>
+        <v>1.6867157000000001E-2</v>
       </c>
       <c r="M84" s="15">
-        <v>0</v>
+        <v>1.7452430000000001E-2</v>
       </c>
       <c r="N84" s="15">
-        <v>0</v>
+        <v>1.8252092000000001E-2</v>
       </c>
       <c r="O84" s="15">
-        <v>0</v>
+        <v>1.9309627999999999E-2</v>
       </c>
       <c r="P84" s="15">
-        <v>0</v>
+        <v>2.0645547E-2</v>
       </c>
       <c r="Q84" s="15">
-        <v>0</v>
+        <v>2.227985E-2</v>
       </c>
       <c r="R84" s="15">
-        <v>0</v>
+        <v>2.4351382000000001E-2</v>
       </c>
       <c r="S84" s="15">
-        <v>0</v>
+        <v>2.6780347999999999E-2</v>
       </c>
       <c r="T84" s="15">
-        <v>0</v>
+        <v>2.9592798E-2</v>
       </c>
       <c r="U84" s="15">
-        <v>0</v>
+        <v>3.2960165999999999E-2</v>
       </c>
       <c r="V84" s="15">
-        <v>0</v>
+        <v>3.7044072999999997E-2</v>
       </c>
       <c r="W84" s="15">
-        <v>0</v>
+        <v>4.2587001999999999E-2</v>
       </c>
       <c r="X84" s="15">
-        <v>0</v>
+        <v>4.8824688999999998E-2</v>
       </c>
       <c r="Y84" s="15">
-        <v>0</v>
+        <v>5.5696411000000001E-2</v>
       </c>
       <c r="Z84" s="15">
-        <v>0</v>
+        <v>6.2507718000000004E-2</v>
       </c>
       <c r="AA84" s="15">
-        <v>0</v>
+        <v>6.8291605000000005E-2</v>
       </c>
       <c r="AB84" s="15">
-        <v>0</v>
+        <v>7.2692810999999996E-2</v>
       </c>
       <c r="AC84" s="15">
-        <v>0</v>
+        <v>7.5988175000000005E-2</v>
       </c>
       <c r="AD84" s="15">
-        <v>0</v>
+        <v>7.8326194000000002E-2</v>
       </c>
       <c r="AE84" s="15">
-        <v>0</v>
+        <v>8.0239419000000006E-2</v>
       </c>
       <c r="AF84" s="15">
-        <v>0</v>
+        <v>8.1928860000000006E-2</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A85" s="15" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="B85" s="15">
-        <v>2.16E-3</v>
+        <v>7.3589795E-2</v>
       </c>
       <c r="C85" s="15">
-        <v>2.3154429999999999E-3</v>
+        <v>7.3995889999999995E-2</v>
       </c>
       <c r="D85" s="15">
-        <v>3.8036620000000002E-3</v>
+        <v>7.3941642000000002E-2</v>
       </c>
       <c r="E85" s="15">
-        <v>5.3024580000000003E-3</v>
+        <v>7.3765467000000001E-2</v>
       </c>
       <c r="F85" s="15">
-        <v>6.8161840000000003E-3</v>
+        <v>7.3390425999999995E-2</v>
       </c>
       <c r="G85" s="15">
-        <v>8.3520650000000005E-3</v>
+        <v>7.2711755000000003E-2</v>
       </c>
       <c r="H85" s="15">
-        <v>9.9196909999999996E-3</v>
+        <v>7.1783712999999999E-2</v>
       </c>
       <c r="I85" s="15">
-        <v>1.1533804E-2</v>
+        <v>7.0928409999999997E-2</v>
       </c>
       <c r="J85" s="15">
-        <v>1.3212750000000001E-2</v>
+        <v>7.0469529000000003E-2</v>
       </c>
       <c r="K85" s="15">
-        <v>1.4978709E-2</v>
+        <v>7.0480107E-2</v>
       </c>
       <c r="L85" s="15">
-        <v>1.6867157000000001E-2</v>
+        <v>7.0984199999999997E-2</v>
       </c>
       <c r="M85" s="15">
-        <v>1.7452430000000001E-2</v>
+        <v>7.1919686999999996E-2</v>
       </c>
       <c r="N85" s="15">
-        <v>1.8252092000000001E-2</v>
+        <v>7.3416383000000002E-2</v>
       </c>
       <c r="O85" s="15">
-        <v>1.9309627999999999E-2</v>
+        <v>7.5395217E-2</v>
       </c>
       <c r="P85" s="15">
-        <v>2.0645547E-2</v>
+        <v>7.7468259999999997E-2</v>
       </c>
       <c r="Q85" s="15">
-        <v>2.227985E-2</v>
+        <v>7.9363059E-2</v>
       </c>
       <c r="R85" s="15">
-        <v>2.4351382000000001E-2</v>
+        <v>8.2309397000000006E-2</v>
       </c>
       <c r="S85" s="15">
-        <v>2.6780347999999999E-2</v>
+        <v>8.5071710999999994E-2</v>
       </c>
       <c r="T85" s="15">
-        <v>2.9592798E-2</v>
+        <v>8.7719454000000002E-2</v>
       </c>
       <c r="U85" s="15">
-        <v>3.2960165999999999E-2</v>
+        <v>9.1121837999999997E-2</v>
       </c>
       <c r="V85" s="15">
-        <v>3.7044072999999997E-2</v>
+        <v>9.5418878999999998E-2</v>
       </c>
       <c r="W85" s="15">
-        <v>4.2587001999999999E-2</v>
+        <v>0.103777671</v>
       </c>
       <c r="X85" s="15">
-        <v>4.8824688999999998E-2</v>
+        <v>0.111585432</v>
       </c>
       <c r="Y85" s="15">
-        <v>5.5696411000000001E-2</v>
+        <v>0.12034946000000001</v>
       </c>
       <c r="Z85" s="15">
-        <v>6.2507718000000004E-2</v>
+        <v>0.12938412199999999</v>
       </c>
       <c r="AA85" s="15">
-        <v>6.8291605000000005E-2</v>
+        <v>0.13682857200000001</v>
       </c>
       <c r="AB85" s="15">
-        <v>7.2692810999999996E-2</v>
+        <v>0.14210099500000001</v>
       </c>
       <c r="AC85" s="15">
-        <v>7.5988175000000005E-2</v>
+        <v>0.145822912</v>
       </c>
       <c r="AD85" s="15">
-        <v>7.8326194000000002E-2</v>
+        <v>0.14804408299999999</v>
       </c>
       <c r="AE85" s="15">
-        <v>8.0239419000000006E-2</v>
+        <v>0.14978561500000001</v>
       </c>
       <c r="AF85" s="15">
-        <v>8.1928860000000006E-2</v>
+        <v>0.15130775599999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="15">
+        <v>0</v>
+      </c>
+      <c r="C86" s="15">
+        <v>0</v>
+      </c>
+      <c r="D86" s="15">
+        <v>0</v>
+      </c>
+      <c r="E86" s="15">
+        <v>0</v>
+      </c>
+      <c r="F86" s="15">
+        <v>0</v>
+      </c>
+      <c r="G86" s="15">
+        <v>0</v>
+      </c>
+      <c r="H86" s="15">
+        <v>0</v>
+      </c>
+      <c r="I86" s="15">
+        <v>0</v>
+      </c>
+      <c r="J86" s="15">
+        <v>0</v>
+      </c>
+      <c r="K86" s="15">
+        <v>0</v>
+      </c>
+      <c r="L86" s="15">
+        <v>0</v>
+      </c>
+      <c r="M86" s="15">
+        <v>0</v>
+      </c>
+      <c r="N86" s="15">
+        <v>0</v>
+      </c>
+      <c r="O86" s="15">
+        <v>0</v>
+      </c>
+      <c r="P86" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="15">
+        <v>0</v>
+      </c>
+      <c r="R86" s="15">
+        <v>0</v>
+      </c>
+      <c r="S86" s="15">
+        <v>0</v>
+      </c>
+      <c r="T86" s="15">
+        <v>0</v>
+      </c>
+      <c r="U86" s="15">
+        <v>0</v>
+      </c>
+      <c r="V86" s="15">
+        <v>0</v>
+      </c>
+      <c r="W86" s="15">
+        <v>0</v>
+      </c>
+      <c r="X86" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="15">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A87" s="15" t="s">
-        <v>954</v>
+        <v>4</v>
+      </c>
+      <c r="B87" s="15">
+        <v>5</v>
+      </c>
+      <c r="C87" s="15">
+        <v>5</v>
+      </c>
+      <c r="D87" s="15">
+        <v>5</v>
+      </c>
+      <c r="E87" s="15">
+        <v>5</v>
+      </c>
+      <c r="F87" s="15">
+        <v>5</v>
+      </c>
+      <c r="G87" s="15">
+        <v>5</v>
+      </c>
+      <c r="H87" s="15">
+        <v>5</v>
+      </c>
+      <c r="I87" s="15">
+        <v>5</v>
+      </c>
+      <c r="J87" s="15">
+        <v>5</v>
+      </c>
+      <c r="K87" s="15">
+        <v>5</v>
+      </c>
+      <c r="L87" s="15">
+        <v>5</v>
+      </c>
+      <c r="M87" s="15">
+        <v>5</v>
+      </c>
+      <c r="N87" s="15">
+        <v>5</v>
+      </c>
+      <c r="O87" s="15">
+        <v>5</v>
+      </c>
+      <c r="P87" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q87" s="15">
+        <v>5</v>
+      </c>
+      <c r="R87" s="15">
+        <v>5</v>
+      </c>
+      <c r="S87" s="15">
+        <v>5</v>
+      </c>
+      <c r="T87" s="15">
+        <v>5</v>
+      </c>
+      <c r="U87" s="15">
+        <v>5</v>
+      </c>
+      <c r="V87" s="15">
+        <v>5</v>
+      </c>
+      <c r="W87" s="15">
+        <v>5</v>
+      </c>
+      <c r="X87" s="15">
+        <v>5</v>
+      </c>
+      <c r="Y87" s="15">
+        <v>5</v>
+      </c>
+      <c r="Z87" s="15">
+        <v>5</v>
+      </c>
+      <c r="AA87" s="15">
+        <v>5</v>
+      </c>
+      <c r="AB87" s="15">
+        <v>5</v>
+      </c>
+      <c r="AC87" s="15">
+        <v>5</v>
+      </c>
+      <c r="AD87" s="15">
+        <v>5</v>
+      </c>
+      <c r="AE87" s="15">
+        <v>5</v>
+      </c>
+      <c r="AF87" s="15">
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A88" s="15" t="s">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="B88" s="15">
-        <v>2020</v>
+        <v>0</v>
       </c>
       <c r="C88" s="15">
-        <v>2021</v>
+        <v>0</v>
       </c>
       <c r="D88" s="15">
-        <v>2022</v>
+        <v>0</v>
       </c>
       <c r="E88" s="15">
-        <v>2023</v>
+        <v>0</v>
       </c>
       <c r="F88" s="15">
-        <v>2024</v>
+        <v>0</v>
       </c>
       <c r="G88" s="15">
-        <v>2025</v>
+        <v>0</v>
       </c>
       <c r="H88" s="15">
-        <v>2026</v>
+        <v>0</v>
       </c>
       <c r="I88" s="15">
-        <v>2027</v>
+        <v>0</v>
       </c>
       <c r="J88" s="15">
-        <v>2028</v>
+        <v>0</v>
       </c>
       <c r="K88" s="15">
-        <v>2029</v>
+        <v>0</v>
       </c>
       <c r="L88" s="15">
-        <v>2030</v>
+        <v>0</v>
       </c>
       <c r="M88" s="15">
-        <v>2031</v>
+        <v>0</v>
       </c>
       <c r="N88" s="15">
-        <v>2032</v>
+        <v>0</v>
       </c>
       <c r="O88" s="15">
-        <v>2033</v>
+        <v>0</v>
       </c>
       <c r="P88" s="15">
-        <v>2034</v>
+        <v>0</v>
       </c>
       <c r="Q88" s="15">
-        <v>2035</v>
+        <v>0</v>
       </c>
       <c r="R88" s="15">
-        <v>2036</v>
+        <v>0</v>
       </c>
       <c r="S88" s="15">
-        <v>2037</v>
+        <v>0</v>
       </c>
       <c r="T88" s="15">
-        <v>2038</v>
+        <v>0</v>
       </c>
       <c r="U88" s="15">
-        <v>2039</v>
+        <v>0</v>
       </c>
       <c r="V88" s="15">
-        <v>2040</v>
+        <v>0</v>
       </c>
       <c r="W88" s="15">
-        <v>2041</v>
+        <v>0</v>
       </c>
       <c r="X88" s="15">
-        <v>2042</v>
+        <v>0</v>
       </c>
       <c r="Y88" s="15">
-        <v>2043</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="15">
-        <v>2044</v>
+        <v>0</v>
       </c>
       <c r="AA88" s="15">
-        <v>2045</v>
+        <v>0</v>
       </c>
       <c r="AB88" s="15">
-        <v>2046</v>
+        <v>0</v>
       </c>
       <c r="AC88" s="15">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="AD88" s="15">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="AE88" s="15">
-        <v>2049</v>
+        <v>0</v>
       </c>
       <c r="AF88" s="15">
-        <v>2050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="15">
+        <v>0</v>
+      </c>
+      <c r="C89" s="15">
+        <v>0</v>
+      </c>
+      <c r="D89" s="15">
+        <v>0</v>
+      </c>
+      <c r="E89" s="15">
+        <v>0</v>
+      </c>
+      <c r="F89" s="15">
+        <v>0</v>
+      </c>
+      <c r="G89" s="15">
+        <v>0</v>
+      </c>
+      <c r="H89" s="15">
+        <v>0</v>
+      </c>
+      <c r="I89" s="15">
+        <v>0</v>
+      </c>
+      <c r="J89" s="15">
+        <v>0</v>
+      </c>
+      <c r="K89" s="15">
+        <v>0</v>
+      </c>
+      <c r="L89" s="15">
+        <v>0</v>
+      </c>
+      <c r="M89" s="15">
+        <v>0</v>
+      </c>
+      <c r="N89" s="15">
+        <v>0</v>
+      </c>
+      <c r="O89" s="15">
+        <v>0</v>
+      </c>
+      <c r="P89" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="15">
+        <v>0</v>
+      </c>
+      <c r="R89" s="15">
+        <v>0</v>
+      </c>
+      <c r="S89" s="15">
+        <v>0</v>
+      </c>
+      <c r="T89" s="15">
+        <v>0</v>
+      </c>
+      <c r="U89" s="15">
+        <v>0</v>
+      </c>
+      <c r="V89" s="15">
+        <v>0</v>
+      </c>
+      <c r="W89" s="15">
+        <v>0</v>
+      </c>
+      <c r="X89" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A90" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="15">
+        <v>2.16E-3</v>
+      </c>
+      <c r="C90" s="15">
+        <v>2.3154429999999999E-3</v>
+      </c>
+      <c r="D90" s="15">
+        <v>3.8036620000000002E-3</v>
+      </c>
+      <c r="E90" s="15">
+        <v>5.3024580000000003E-3</v>
+      </c>
+      <c r="F90" s="15">
+        <v>6.8161840000000003E-3</v>
+      </c>
+      <c r="G90" s="15">
+        <v>8.3520650000000005E-3</v>
+      </c>
+      <c r="H90" s="15">
+        <v>9.9196909999999996E-3</v>
+      </c>
+      <c r="I90" s="15">
+        <v>1.1533804E-2</v>
+      </c>
+      <c r="J90" s="15">
+        <v>1.3212750000000001E-2</v>
+      </c>
+      <c r="K90" s="15">
+        <v>1.4978709E-2</v>
+      </c>
+      <c r="L90" s="15">
+        <v>1.6867157000000001E-2</v>
+      </c>
+      <c r="M90" s="15">
+        <v>1.7452430000000001E-2</v>
+      </c>
+      <c r="N90" s="15">
+        <v>1.8252092000000001E-2</v>
+      </c>
+      <c r="O90" s="15">
+        <v>1.9309627999999999E-2</v>
+      </c>
+      <c r="P90" s="15">
+        <v>2.0645547E-2</v>
+      </c>
+      <c r="Q90" s="15">
+        <v>2.227985E-2</v>
+      </c>
+      <c r="R90" s="15">
+        <v>2.4351382000000001E-2</v>
+      </c>
+      <c r="S90" s="15">
+        <v>2.6780347999999999E-2</v>
+      </c>
+      <c r="T90" s="15">
+        <v>2.9592798E-2</v>
+      </c>
+      <c r="U90" s="15">
+        <v>3.2960165999999999E-2</v>
+      </c>
+      <c r="V90" s="15">
+        <v>3.7044072999999997E-2</v>
+      </c>
+      <c r="W90" s="15">
+        <v>4.2587001999999999E-2</v>
+      </c>
+      <c r="X90" s="15">
+        <v>4.8824688999999998E-2</v>
+      </c>
+      <c r="Y90" s="15">
+        <v>5.5696411000000001E-2</v>
+      </c>
+      <c r="Z90" s="15">
+        <v>6.2507718000000004E-2</v>
+      </c>
+      <c r="AA90" s="15">
+        <v>6.8291605000000005E-2</v>
+      </c>
+      <c r="AB90" s="15">
+        <v>7.2692810999999996E-2</v>
+      </c>
+      <c r="AC90" s="15">
+        <v>7.5988175000000005E-2</v>
+      </c>
+      <c r="AD90" s="15">
+        <v>7.8326194000000002E-2</v>
+      </c>
+      <c r="AE90" s="15">
+        <v>8.0239419000000006E-2</v>
+      </c>
+      <c r="AF90" s="15">
+        <v>8.1928860000000006E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A92" s="15" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A93" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B93" s="15">
+        <v>2020</v>
+      </c>
+      <c r="C93" s="15">
+        <v>2021</v>
+      </c>
+      <c r="D93" s="15">
+        <v>2022</v>
+      </c>
+      <c r="E93" s="15">
+        <v>2023</v>
+      </c>
+      <c r="F93" s="15">
+        <v>2024</v>
+      </c>
+      <c r="G93" s="15">
+        <v>2025</v>
+      </c>
+      <c r="H93" s="15">
+        <v>2026</v>
+      </c>
+      <c r="I93" s="15">
+        <v>2027</v>
+      </c>
+      <c r="J93" s="15">
+        <v>2028</v>
+      </c>
+      <c r="K93" s="15">
+        <v>2029</v>
+      </c>
+      <c r="L93" s="15">
+        <v>2030</v>
+      </c>
+      <c r="M93" s="15">
+        <v>2031</v>
+      </c>
+      <c r="N93" s="15">
+        <v>2032</v>
+      </c>
+      <c r="O93" s="15">
+        <v>2033</v>
+      </c>
+      <c r="P93" s="15">
+        <v>2034</v>
+      </c>
+      <c r="Q93" s="15">
+        <v>2035</v>
+      </c>
+      <c r="R93" s="15">
+        <v>2036</v>
+      </c>
+      <c r="S93" s="15">
+        <v>2037</v>
+      </c>
+      <c r="T93" s="15">
+        <v>2038</v>
+      </c>
+      <c r="U93" s="15">
+        <v>2039</v>
+      </c>
+      <c r="V93" s="15">
+        <v>2040</v>
+      </c>
+      <c r="W93" s="15">
+        <v>2041</v>
+      </c>
+      <c r="X93" s="15">
+        <v>2042</v>
+      </c>
+      <c r="Y93" s="15">
+        <v>2043</v>
+      </c>
+      <c r="Z93" s="15">
+        <v>2044</v>
+      </c>
+      <c r="AA93" s="15">
+        <v>2045</v>
+      </c>
+      <c r="AB93" s="15">
+        <v>2046</v>
+      </c>
+      <c r="AC93" s="15">
+        <v>2047</v>
+      </c>
+      <c r="AD93" s="15">
+        <v>2048</v>
+      </c>
+      <c r="AE93" s="15">
+        <v>2049</v>
+      </c>
+      <c r="AF93" s="15">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A94" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B94" s="15">
         <v>3.8708444000000002E-2</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C94" s="15">
         <v>4.6440683000000003E-2</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D94" s="15">
         <v>5.4172921999999998E-2</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E94" s="15">
         <v>6.1905160000000001E-2</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F94" s="15">
         <v>6.9637399000000003E-2</v>
       </c>
-      <c r="G89" s="15">
+      <c r="G94" s="15">
         <v>7.7369637000000005E-2</v>
       </c>
-      <c r="H89" s="15">
+      <c r="H94" s="15">
         <v>8.5101876000000007E-2</v>
       </c>
-      <c r="I89" s="15">
+      <c r="I94" s="15">
         <v>9.2834114999999995E-2</v>
       </c>
-      <c r="J89" s="15">
+      <c r="J94" s="15">
         <v>0.100566353</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K94" s="15">
         <v>0.108298592</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L94" s="15">
         <v>0.11603083</v>
       </c>
-      <c r="M89" s="15">
+      <c r="M94" s="15">
         <v>0.123763069</v>
       </c>
-      <c r="N89" s="15">
+      <c r="N94" s="15">
         <v>0.13149530700000001</v>
       </c>
-      <c r="O89" s="15">
+      <c r="O94" s="15">
         <v>0.13922754600000001</v>
       </c>
-      <c r="P89" s="15">
+      <c r="P94" s="15">
         <v>0.14695978500000001</v>
       </c>
-      <c r="Q89" s="15">
+      <c r="Q94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="R89" s="15">
+      <c r="R94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="S89" s="15">
+      <c r="S94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="T89" s="15">
+      <c r="T94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="U89" s="15">
+      <c r="U94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="V89" s="15">
+      <c r="V94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="W89" s="15">
+      <c r="W94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="X89" s="15">
+      <c r="X94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="Y89" s="15">
+      <c r="Y94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="Z89" s="15">
+      <c r="Z94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="AA89" s="15">
+      <c r="AA94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="AB89" s="15">
+      <c r="AB94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="AC89" s="15">
+      <c r="AC94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="AD89" s="15">
+      <c r="AD94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="AE89" s="15">
+      <c r="AE94" s="15">
         <v>0.16242426200000001</v>
       </c>
-      <c r="AF89" s="15">
+      <c r="AF94" s="15">
         <v>0.16242426200000001</v>
       </c>
     </row>

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ChrisB\Dropbox (Energy Innovation)\Desktop\Current CA EPS update\Revised variables\Transpo updates (19-May-2022)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\California\Models\eps-california\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25CCA9F6-74CB-41E4-9B05-CB0203C0C894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51D363B-31DD-4F92-97A1-69A16C51A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="28770" windowHeight="17970" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3294,6 +3294,350 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Assumptions!$B$59:$AF$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>8.6806201999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6378142999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10774742800000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12311778</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12811777999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13311777999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.142107188</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16099779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18444923299999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22931154200000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27915663899999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32859835799999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.38210665899999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.43904082800000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49868634500000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56029182900000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.62310319300000006</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.68639297799999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74948372400000018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81176499200000019</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87270426300000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9318523700000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98884432900000019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C87-4A81-8B40-31BD7F3E212F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1530094703"/>
+        <c:axId val="1530096783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1530094703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530096783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1530096783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1530094703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3799,7 +4143,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4405,6 +5305,42 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD8414A7-28DE-8039-3CA8-DE8865CD5EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4776,19 +5712,19 @@
       <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="15"/>
-    <col min="2" max="2" width="56.26953125" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="9.140625" style="15"/>
+    <col min="2" max="2" width="56.28515625" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
@@ -4796,525 +5732,525 @@
         <v>945</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="16" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="46" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>2014</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="18"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" s="7">
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="46" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B51" s="19"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" s="20"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B62" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B68" s="15" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B69" s="15" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B70" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B71" s="15" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B72" s="15" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B74" s="15" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B75" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B77" s="15" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B81" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B85" s="15" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B86" s="15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B87" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" s="15" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B90" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B91" s="15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B92" s="15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B94" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B95" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B96" s="15" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B97" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B99" s="15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B100" s="15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B101" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B102" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B105" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B106" s="15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B107" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B108" s="15" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B109" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B110" s="15" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B112" s="15" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B118" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B119" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B120" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="15" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
     </row>
   </sheetData>
@@ -5334,13 +6270,13 @@
   </sheetPr>
   <dimension ref="A1:AF8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:AA2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
     <col min="2" max="13" width="12" style="15" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="12" style="15" bestFit="1" customWidth="1"/>
@@ -5349,11 +6285,11 @@
     <col min="27" max="27" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="12" style="15" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="11" style="15" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.26953125" style="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.1796875" style="15"/>
+    <col min="32" max="32" width="9.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -5482,7 +6418,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -5532,51 +6468,51 @@
       </c>
       <c r="M2">
         <f>Assumptions!M59</f>
-        <v>0.293598358</v>
+        <v>0.32859835799999998</v>
       </c>
       <c r="N2">
         <f>Assumptions!N59</f>
-        <v>0.34710665899999998</v>
+        <v>0.38210665899999996</v>
       </c>
       <c r="O2">
         <f>Assumptions!O59</f>
-        <v>0.40404082800000002</v>
+        <v>0.43904082800000005</v>
       </c>
       <c r="P2">
         <f>Assumptions!P59</f>
-        <v>0.463686345</v>
+        <v>0.49868634500000003</v>
       </c>
       <c r="Q2">
         <f>Assumptions!Q59</f>
-        <v>0.52529182900000004</v>
+        <v>0.56029182900000007</v>
       </c>
       <c r="R2">
         <f>Assumptions!R59</f>
-        <v>0.58810319300000002</v>
+        <v>0.62310319300000006</v>
       </c>
       <c r="S2">
         <f>Assumptions!S59</f>
-        <v>0.65139297799999996</v>
+        <v>0.68639297799999999</v>
       </c>
       <c r="T2">
         <f>Assumptions!T59</f>
-        <v>0.71448372400000004</v>
+        <v>0.74948372400000018</v>
       </c>
       <c r="U2">
         <f>Assumptions!U59</f>
-        <v>0.77676499200000004</v>
+        <v>0.81176499200000019</v>
       </c>
       <c r="V2">
         <f>Assumptions!V59</f>
-        <v>0.837704263</v>
+        <v>0.87270426300000004</v>
       </c>
       <c r="W2">
         <f>Assumptions!W59</f>
-        <v>0.89685236999999995</v>
+        <v>0.9318523700000001</v>
       </c>
       <c r="X2">
         <f>Assumptions!X59</f>
-        <v>0.95384432900000005</v>
+        <v>0.98884432900000019</v>
       </c>
       <c r="Y2">
         <f>Assumptions!Y59</f>
@@ -5611,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -5740,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -5838,7 +6774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5967,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -6096,7 +7032,7 @@
         <v>3.7123840999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -6225,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="47" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="47" t="s">
         <v>123</v>
       </c>
@@ -6340,13 +7276,13 @@
       <selection activeCell="B3" sqref="B3:AF3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -6475,7 +7411,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -6604,7 +7540,7 @@
         <v>0.22004099999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -6733,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -6862,7 +7798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -6991,7 +7927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -7120,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -7249,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -7394,13 +8330,13 @@
       <selection activeCell="B2" sqref="B2:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -7529,7 +8465,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -7658,7 +8594,7 @@
         <v>0.16242426200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -7787,7 +8723,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -7916,7 +8852,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -8045,7 +8981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -8174,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -8303,7 +9239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -8448,13 +9384,13 @@
       <selection activeCell="AF8" sqref="B8:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -8583,7 +9519,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -8712,7 +9648,7 @@
         <v>8.1928860000000006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -8841,7 +9777,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -8970,7 +9906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -9099,7 +10035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -9228,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -9357,7 +10293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -9500,13 +10436,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -9635,7 +10571,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -9764,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -9893,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -10022,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -10151,7 +11087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -10280,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -10409,7 +11345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -10552,13 +11488,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -10687,7 +11623,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -10816,7 +11752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -10945,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -11074,7 +12010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -11203,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -11332,7 +12268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -11461,7 +12397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -11604,13 +12540,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -11739,7 +12675,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -11868,7 +12804,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -11997,7 +12933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -12126,7 +13062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -12255,7 +13191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -12384,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -12513,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -12656,13 +13592,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -12791,7 +13727,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -12920,7 +13856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -13049,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -13178,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -13307,7 +14243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -13436,7 +14372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -13565,7 +14501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -13708,13 +14644,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -13843,7 +14779,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -13972,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -14101,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -14230,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -14359,7 +15295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -14488,7 +15424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -14617,7 +15553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -14760,13 +15696,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -14895,7 +15831,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -15024,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -15153,7 +16089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -15282,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -15411,7 +16347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -15540,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -15669,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -15809,9 +16745,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -15909,27 +16845,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>145</v>
       </c>
@@ -16036,7 +16972,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -16044,7 +16980,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -16052,7 +16988,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -16162,7 +17098,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -16272,7 +17208,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -16382,7 +17318,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -16390,7 +17326,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -16500,7 +17436,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -16610,7 +17546,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -16720,7 +17656,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -16830,7 +17766,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -16940,7 +17876,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>180</v>
       </c>
@@ -17050,7 +17986,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -17160,7 +18096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>186</v>
       </c>
@@ -17270,7 +18206,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -17380,7 +18316,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -17490,7 +18426,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -17600,7 +18536,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>198</v>
       </c>
@@ -17710,7 +18646,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -17820,7 +18756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -17930,7 +18866,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -18040,7 +18976,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -18150,7 +19086,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>112</v>
       </c>
@@ -18260,7 +19196,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>214</v>
       </c>
@@ -18268,7 +19204,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>216</v>
       </c>
@@ -18276,7 +19212,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -18386,7 +19322,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -18496,7 +19432,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>222</v>
       </c>
@@ -18606,7 +19542,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>225</v>
       </c>
@@ -18614,7 +19550,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>165</v>
       </c>
@@ -18724,7 +19660,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -18834,7 +19770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>171</v>
       </c>
@@ -18944,7 +19880,7 @@
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>174</v>
       </c>
@@ -19054,7 +19990,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>177</v>
       </c>
@@ -19164,7 +20100,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>180</v>
       </c>
@@ -19274,7 +20210,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>183</v>
       </c>
@@ -19384,7 +20320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>186</v>
       </c>
@@ -19494,7 +20430,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -19604,7 +20540,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>192</v>
       </c>
@@ -19714,7 +20650,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>195</v>
       </c>
@@ -19824,7 +20760,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>198</v>
       </c>
@@ -19934,7 +20870,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>200</v>
       </c>
@@ -20044,7 +20980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>203</v>
       </c>
@@ -20154,7 +21090,7 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>255</v>
       </c>
@@ -20264,7 +21200,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -20374,7 +21310,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -20484,7 +21420,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>115</v>
       </c>
@@ -20594,7 +21530,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>116</v>
       </c>
@@ -20704,7 +21640,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>117</v>
       </c>
@@ -20814,7 +21750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>268</v>
       </c>
@@ -20825,7 +21761,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>271</v>
       </c>
@@ -20935,7 +21871,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>274</v>
       </c>
@@ -21045,7 +21981,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>277</v>
       </c>
@@ -21155,7 +22091,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>280</v>
       </c>
@@ -21265,7 +22201,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>283</v>
       </c>
@@ -21375,7 +22311,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>286</v>
       </c>
@@ -21485,7 +22421,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>289</v>
       </c>
@@ -21595,7 +22531,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>292</v>
       </c>
@@ -21705,7 +22641,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>118</v>
       </c>
@@ -21815,7 +22751,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>297</v>
       </c>
@@ -21925,7 +22861,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>300</v>
       </c>
@@ -22035,7 +22971,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>119</v>
       </c>
@@ -22161,13 +23097,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -22296,7 +23232,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -22425,7 +23361,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -22554,7 +23490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -22683,7 +23619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -22812,7 +23748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -22941,7 +23877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -23070,7 +24006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -23215,13 +24151,13 @@
       <selection activeCell="B2" sqref="B2:AF8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="24.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>125</v>
       </c>
@@ -23350,7 +24286,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
@@ -23479,7 +24415,7 @@
         <v>8.1928860000000006E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
@@ -23608,7 +24544,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -23737,7 +24673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
@@ -23866,7 +24802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
@@ -23995,7 +24931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>122</v>
       </c>
@@ -24124,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>123</v>
       </c>
@@ -24269,9 +25205,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1:AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -24369,27 +25305,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>145</v>
       </c>
@@ -24496,7 +25432,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>308</v>
       </c>
@@ -24504,7 +25440,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -24512,7 +25448,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>153</v>
       </c>
@@ -24622,7 +25558,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -24732,7 +25668,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>160</v>
       </c>
@@ -24842,7 +25778,7 @@
         <v>-1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -24850,7 +25786,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>165</v>
       </c>
@@ -24960,7 +25896,7 @@
         <v>-3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>168</v>
       </c>
@@ -25070,7 +26006,7 @@
         <v>-3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -25180,7 +26116,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>174</v>
       </c>
@@ -25290,7 +26226,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>177</v>
       </c>
@@ -25400,7 +26336,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>180</v>
       </c>
@@ -25510,7 +26446,7 @@
         <v>-8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>183</v>
       </c>
@@ -25620,7 +26556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>186</v>
       </c>
@@ -25730,7 +26666,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -25840,7 +26776,7 @@
         <v>-2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>192</v>
       </c>
@@ -25950,7 +26886,7 @@
         <v>-1.6E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>195</v>
       </c>
@@ -26060,7 +26996,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>198</v>
       </c>
@@ -26170,7 +27106,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -26280,7 +27216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>203</v>
       </c>
@@ -26390,7 +27326,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -26500,7 +27436,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -26610,7 +27546,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>328</v>
       </c>
@@ -26618,7 +27554,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>216</v>
       </c>
@@ -26626,7 +27562,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>153</v>
       </c>
@@ -26736,7 +27672,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>157</v>
       </c>
@@ -26846,7 +27782,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -26956,7 +27892,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>225</v>
       </c>
@@ -26964,7 +27900,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>165</v>
       </c>
@@ -27074,7 +28010,7 @@
         <v>-6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>168</v>
       </c>
@@ -27184,7 +28120,7 @@
         <v>-0.11600000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -27294,7 +28230,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>174</v>
       </c>
@@ -27404,7 +28340,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -27514,7 +28450,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -27624,7 +28560,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -27734,7 +28670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -27844,7 +28780,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>189</v>
       </c>
@@ -27954,7 +28890,7 @@
         <v>-5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>192</v>
       </c>
@@ -28064,7 +29000,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -28174,7 +29110,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>198</v>
       </c>
@@ -28284,7 +29220,7 @@
         <v>-2.7E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>200</v>
       </c>
@@ -28394,7 +29330,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>203</v>
       </c>
@@ -28504,7 +29440,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -28614,7 +29550,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -28724,7 +29660,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -28848,29 +29784,29 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>923</v>
       </c>
@@ -28905,7 +29841,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2050</v>
       </c>
@@ -28940,7 +29876,7 @@
         <v>968.61480700000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2049</v>
       </c>
@@ -28975,7 +29911,7 @@
         <v>975.68035899999995</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2048</v>
       </c>
@@ -29010,7 +29946,7 @@
         <v>981.37280299999998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2047</v>
       </c>
@@ -29045,7 +29981,7 @@
         <v>975.81964100000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2046</v>
       </c>
@@ -29080,7 +30016,7 @@
         <v>980.589966</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2045</v>
       </c>
@@ -29115,7 +30051,7 @@
         <v>984.091858</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2044</v>
       </c>
@@ -29150,7 +30086,7 @@
         <v>976.13824499999998</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2043</v>
       </c>
@@ -29185,7 +30121,7 @@
         <v>977.10333300000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2042</v>
       </c>
@@ -29220,7 +30156,7 @@
         <v>979.39685099999997</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2041</v>
       </c>
@@ -29255,7 +30191,7 @@
         <v>979.05828899999995</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2040</v>
       </c>
@@ -29290,7 +30226,7 @@
         <v>979.86975099999995</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -29325,7 +30261,7 @@
         <v>981.14685099999997</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2038</v>
       </c>
@@ -29360,7 +30296,7 @@
         <v>979.91186500000003</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2037</v>
       </c>
@@ -29395,7 +30331,7 @@
         <v>977.93768299999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -29430,7 +30366,7 @@
         <v>982.68225099999995</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2035</v>
       </c>
@@ -29465,7 +30401,7 @@
         <v>985.55090299999995</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2034</v>
       </c>
@@ -29500,7 +30436,7 @@
         <v>980.60241699999995</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -29535,7 +30471,7 @@
         <v>977.975098</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -29570,7 +30506,7 @@
         <v>975.89404300000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2031</v>
       </c>
@@ -29605,7 +30541,7 @@
         <v>972.47125200000005</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2030</v>
       </c>
@@ -29640,7 +30576,7 @@
         <v>970.98468000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2029</v>
       </c>
@@ -29675,7 +30611,7 @@
         <v>981.23956299999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2028</v>
       </c>
@@ -29710,7 +30646,7 @@
         <v>966.18756099999996</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2027</v>
       </c>
@@ -29745,7 +30681,7 @@
         <v>953.71936000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2026</v>
       </c>
@@ -29780,7 +30716,7 @@
         <v>966.38690199999996</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2025</v>
       </c>
@@ -29815,7 +30751,7 @@
         <v>964.77038600000003</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2024</v>
       </c>
@@ -29850,7 +30786,7 @@
         <v>940.58337400000005</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2023</v>
       </c>
@@ -29885,7 +30821,7 @@
         <v>906.911743</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -29920,7 +30856,7 @@
         <v>878.96453899999995</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -29955,7 +30891,7 @@
         <v>822.79125999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2020</v>
       </c>
@@ -29990,7 +30926,7 @@
         <v>728.74066200000004</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -30011,9 +30947,9 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1">
         <v>2020</v>
       </c>
@@ -30111,27 +31047,27 @@
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>145</v>
       </c>
@@ -30238,7 +31174,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -30246,7 +31182,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>398</v>
       </c>
@@ -30254,7 +31190,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>399</v>
       </c>
@@ -30262,7 +31198,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>400</v>
       </c>
@@ -30372,7 +31308,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>402</v>
       </c>
@@ -30482,7 +31418,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>404</v>
       </c>
@@ -30592,7 +31528,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>406</v>
       </c>
@@ -30702,7 +31638,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>408</v>
       </c>
@@ -30812,7 +31748,7 @@
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>280</v>
       </c>
@@ -30922,7 +31858,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>411</v>
       </c>
@@ -31032,7 +31968,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>413</v>
       </c>
@@ -31142,7 +32078,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>292</v>
       </c>
@@ -31252,7 +32188,7 @@
         <v>0.106</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>416</v>
       </c>
@@ -31362,7 +32298,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>418</v>
       </c>
@@ -31370,7 +32306,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>400</v>
       </c>
@@ -31480,7 +32416,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>402</v>
       </c>
@@ -31590,7 +32526,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>404</v>
       </c>
@@ -31700,7 +32636,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>406</v>
       </c>
@@ -31810,7 +32746,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>408</v>
       </c>
@@ -31920,7 +32856,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>280</v>
       </c>
@@ -32030,7 +32966,7 @@
         <v>0.129</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>411</v>
       </c>
@@ -32140,7 +33076,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>413</v>
       </c>
@@ -32250,7 +33186,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>292</v>
       </c>
@@ -32360,7 +33296,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>428</v>
       </c>
@@ -32470,7 +33406,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>430</v>
       </c>
@@ -32478,7 +33414,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>400</v>
       </c>
@@ -32588,7 +33524,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>402</v>
       </c>
@@ -32698,7 +33634,7 @@
         <v>-1.9E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>404</v>
       </c>
@@ -32808,7 +33744,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>406</v>
       </c>
@@ -32918,7 +33854,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>408</v>
       </c>
@@ -33028,7 +33964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>280</v>
       </c>
@@ -33138,7 +34074,7 @@
         <v>0.127</v>
       </c>
     </row>
-    <row r="47" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>411</v>
       </c>
@@ -33248,7 +34184,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>413</v>
       </c>
@@ -33358,7 +34294,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>292</v>
       </c>
@@ -33468,7 +34404,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>440</v>
       </c>
@@ -33578,7 +34514,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>442</v>
       </c>
@@ -33688,7 +34624,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>444</v>
       </c>
@@ -33696,7 +34632,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>399</v>
       </c>
@@ -33704,7 +34640,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>400</v>
       </c>
@@ -33814,7 +34750,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>402</v>
       </c>
@@ -33924,7 +34860,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>404</v>
       </c>
@@ -34034,7 +34970,7 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>406</v>
       </c>
@@ -34144,7 +35080,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>408</v>
       </c>
@@ -34254,7 +35190,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>280</v>
       </c>
@@ -34364,7 +35300,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>411</v>
       </c>
@@ -34474,7 +35410,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>413</v>
       </c>
@@ -34584,7 +35520,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>292</v>
       </c>
@@ -34694,7 +35630,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="63" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>416</v>
       </c>
@@ -34804,7 +35740,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>418</v>
       </c>
@@ -34812,7 +35748,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="65" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>400</v>
       </c>
@@ -34922,7 +35858,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>402</v>
       </c>
@@ -35032,7 +35968,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>404</v>
       </c>
@@ -35142,7 +36078,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>406</v>
       </c>
@@ -35252,7 +36188,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>408</v>
       </c>
@@ -35362,7 +36298,7 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>280</v>
       </c>
@@ -35472,7 +36408,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>411</v>
       </c>
@@ -35582,7 +36518,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>413</v>
       </c>
@@ -35692,7 +36628,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>292</v>
       </c>
@@ -35802,7 +36738,7 @@
         <v>0.14499999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>428</v>
       </c>
@@ -35912,7 +36848,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>430</v>
       </c>
@@ -35920,7 +36856,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>400</v>
       </c>
@@ -36030,7 +36966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>402</v>
       </c>
@@ -36140,7 +37076,7 @@
         <v>-2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>404</v>
       </c>
@@ -36250,7 +37186,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="79" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>406</v>
       </c>
@@ -36360,7 +37296,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>408</v>
       </c>
@@ -36470,7 +37406,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>280</v>
       </c>
@@ -36580,7 +37516,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>411</v>
       </c>
@@ -36690,7 +37626,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>413</v>
       </c>
@@ -36800,7 +37736,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>292</v>
       </c>
@@ -36910,7 +37846,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>440</v>
       </c>
@@ -37020,7 +37956,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>399</v>
       </c>
@@ -37031,7 +37967,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>400</v>
       </c>
@@ -37141,7 +38077,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>402</v>
       </c>
@@ -37251,7 +38187,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>404</v>
       </c>
@@ -37361,7 +38297,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>406</v>
       </c>
@@ -37471,7 +38407,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>408</v>
       </c>
@@ -37581,7 +38517,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>280</v>
       </c>
@@ -37691,7 +38627,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>411</v>
       </c>
@@ -37801,7 +38737,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>413</v>
       </c>
@@ -37911,7 +38847,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>292</v>
       </c>
@@ -38021,7 +38957,7 @@
         <v>0.13400000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>485</v>
       </c>
@@ -38131,7 +39067,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>487</v>
       </c>
@@ -38139,7 +39075,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>399</v>
       </c>
@@ -38147,7 +39083,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>400</v>
       </c>
@@ -38257,7 +39193,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>402</v>
       </c>
@@ -38367,7 +39303,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>404</v>
       </c>
@@ -38477,7 +39413,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>406</v>
       </c>
@@ -38587,7 +39523,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>408</v>
       </c>
@@ -38697,7 +39633,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>280</v>
       </c>
@@ -38807,7 +39743,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>411</v>
       </c>
@@ -38917,7 +39853,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>413</v>
       </c>
@@ -39027,7 +39963,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>292</v>
       </c>
@@ -39137,7 +40073,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>497</v>
       </c>
@@ -39244,7 +40180,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>418</v>
       </c>
@@ -39252,7 +40188,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>400</v>
       </c>
@@ -39362,7 +40298,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>402</v>
       </c>
@@ -39472,7 +40408,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>404</v>
       </c>
@@ -39582,7 +40518,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>406</v>
       </c>
@@ -39692,7 +40628,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>408</v>
       </c>
@@ -39802,7 +40738,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>280</v>
       </c>
@@ -39912,7 +40848,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>411</v>
       </c>
@@ -40022,7 +40958,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>413</v>
       </c>
@@ -40132,7 +41068,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>292</v>
       </c>
@@ -40242,7 +41178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>508</v>
       </c>
@@ -40349,7 +41285,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>430</v>
       </c>
@@ -40357,7 +41293,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>400</v>
       </c>
@@ -40467,7 +41403,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>402</v>
       </c>
@@ -40577,7 +41513,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>404</v>
       </c>
@@ -40687,7 +41623,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>406</v>
       </c>
@@ -40797,7 +41733,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>408</v>
       </c>
@@ -40907,7 +41843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>280</v>
       </c>
@@ -41017,7 +41953,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>411</v>
       </c>
@@ -41127,7 +42063,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>413</v>
       </c>
@@ -41237,7 +42173,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>292</v>
       </c>
@@ -41347,7 +42283,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>519</v>
       </c>
@@ -41454,7 +42390,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>521</v>
       </c>
@@ -41561,7 +42497,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>523</v>
       </c>
@@ -41569,7 +42505,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>399</v>
       </c>
@@ -41577,7 +42513,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>400</v>
       </c>
@@ -41687,7 +42623,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>402</v>
       </c>
@@ -41797,7 +42733,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>404</v>
       </c>
@@ -41907,7 +42843,7 @@
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>406</v>
       </c>
@@ -42017,7 +42953,7 @@
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>408</v>
       </c>
@@ -42127,7 +43063,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>280</v>
       </c>
@@ -42237,7 +43173,7 @@
         <v>0.14299999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>411</v>
       </c>
@@ -42347,7 +43283,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>413</v>
       </c>
@@ -42457,7 +43393,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>292</v>
       </c>
@@ -42567,7 +43503,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>416</v>
       </c>
@@ -42677,7 +43613,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>418</v>
       </c>
@@ -42685,7 +43621,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>400</v>
       </c>
@@ -42795,7 +43731,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>402</v>
       </c>
@@ -42905,7 +43841,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>404</v>
       </c>
@@ -43015,7 +43951,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>406</v>
       </c>
@@ -43125,7 +44061,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>408</v>
       </c>
@@ -43235,7 +44171,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>280</v>
       </c>
@@ -43345,7 +44281,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>411</v>
       </c>
@@ -43455,7 +44391,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>413</v>
       </c>
@@ -43565,7 +44501,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>292</v>
       </c>
@@ -43675,7 +44611,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>428</v>
       </c>
@@ -43785,7 +44721,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>430</v>
       </c>
@@ -43793,7 +44729,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>400</v>
       </c>
@@ -43903,7 +44839,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>402</v>
       </c>
@@ -44013,7 +44949,7 @@
         <v>-4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>404</v>
       </c>
@@ -44123,7 +45059,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>406</v>
       </c>
@@ -44233,7 +45169,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>408</v>
       </c>
@@ -44343,7 +45279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>280</v>
       </c>
@@ -44453,7 +45389,7 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>411</v>
       </c>
@@ -44563,7 +45499,7 @@
         <v>0.124</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>413</v>
       </c>
@@ -44673,7 +45609,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>292</v>
       </c>
@@ -44783,7 +45719,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>440</v>
       </c>
@@ -44893,7 +45829,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -45003,7 +45939,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>40</v>
       </c>
@@ -45011,7 +45947,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>487</v>
       </c>
@@ -45019,7 +45955,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>399</v>
       </c>
@@ -45027,7 +45963,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>400</v>
       </c>
@@ -45137,7 +46073,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>402</v>
       </c>
@@ -45247,7 +46183,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>404</v>
       </c>
@@ -45357,7 +46293,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>406</v>
       </c>
@@ -45467,7 +46403,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>408</v>
       </c>
@@ -45577,7 +46513,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>280</v>
       </c>
@@ -45687,7 +46623,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>411</v>
       </c>
@@ -45797,7 +46733,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>413</v>
       </c>
@@ -45907,7 +46843,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>292</v>
       </c>
@@ -46017,7 +46953,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>497</v>
       </c>
@@ -46124,7 +47060,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>418</v>
       </c>
@@ -46132,7 +47068,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>400</v>
       </c>
@@ -46242,7 +47178,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>402</v>
       </c>
@@ -46352,7 +47288,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>404</v>
       </c>
@@ -46462,7 +47398,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>406</v>
       </c>
@@ -46572,7 +47508,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>408</v>
       </c>
@@ -46682,7 +47618,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>280</v>
       </c>
@@ -46792,7 +47728,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>411</v>
       </c>
@@ -46902,7 +47838,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>413</v>
       </c>
@@ -47012,7 +47948,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>292</v>
       </c>
@@ -47122,7 +48058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>508</v>
       </c>
@@ -47229,7 +48165,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>430</v>
       </c>
@@ -47237,7 +48173,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>400</v>
       </c>
@@ -47347,7 +48283,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>402</v>
       </c>
@@ -47457,7 +48393,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>404</v>
       </c>
@@ -47567,7 +48503,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>406</v>
       </c>
@@ -47677,7 +48613,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>408</v>
       </c>
@@ -47787,7 +48723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>280</v>
       </c>
@@ -47897,7 +48833,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>411</v>
       </c>
@@ -48007,7 +48943,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>413</v>
       </c>
@@ -48117,7 +49053,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>292</v>
       </c>
@@ -48227,7 +49163,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>519</v>
       </c>
@@ -48334,7 +49270,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>521</v>
       </c>
@@ -48441,7 +49377,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>586</v>
       </c>
@@ -48449,7 +49385,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>399</v>
       </c>
@@ -48457,7 +49393,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>400</v>
       </c>
@@ -48567,7 +49503,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>402</v>
       </c>
@@ -48677,7 +49613,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>404</v>
       </c>
@@ -48787,7 +49723,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>406</v>
       </c>
@@ -48897,7 +49833,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>408</v>
       </c>
@@ -49007,7 +49943,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>280</v>
       </c>
@@ -49117,7 +50053,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>411</v>
       </c>
@@ -49227,7 +50163,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>413</v>
       </c>
@@ -49337,7 +50273,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>292</v>
       </c>
@@ -49447,7 +50383,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>416</v>
       </c>
@@ -49557,7 +50493,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>418</v>
       </c>
@@ -49565,7 +50501,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>400</v>
       </c>
@@ -49675,7 +50611,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>402</v>
       </c>
@@ -49785,7 +50721,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>404</v>
       </c>
@@ -49895,7 +50831,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>406</v>
       </c>
@@ -50005,7 +50941,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>408</v>
       </c>
@@ -50115,7 +51051,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>280</v>
       </c>
@@ -50225,7 +51161,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>411</v>
       </c>
@@ -50335,7 +51271,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>413</v>
       </c>
@@ -50445,7 +51381,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>292</v>
       </c>
@@ -50555,7 +51491,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>428</v>
       </c>
@@ -50665,7 +51601,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>430</v>
       </c>
@@ -50673,7 +51609,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>400</v>
       </c>
@@ -50783,7 +51719,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>402</v>
       </c>
@@ -50893,7 +51829,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>404</v>
       </c>
@@ -51003,7 +51939,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>406</v>
       </c>
@@ -51113,7 +52049,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>408</v>
       </c>
@@ -51223,7 +52159,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>280</v>
       </c>
@@ -51333,7 +52269,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>411</v>
       </c>
@@ -51443,7 +52379,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>413</v>
       </c>
@@ -51553,7 +52489,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>292</v>
       </c>
@@ -51663,7 +52599,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>440</v>
       </c>
@@ -51773,7 +52709,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>268</v>
       </c>
@@ -51883,7 +52819,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>39</v>
       </c>
@@ -51891,7 +52827,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>618</v>
       </c>
@@ -52001,7 +52937,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>620</v>
       </c>
@@ -52111,7 +53047,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>622</v>
       </c>
@@ -52119,7 +53055,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>623</v>
       </c>
@@ -52229,7 +53165,7 @@
         <v>-1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>625</v>
       </c>
@@ -52339,7 +53275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>627</v>
       </c>
@@ -52449,7 +53385,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>629</v>
       </c>
@@ -52559,7 +53495,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>38</v>
       </c>
@@ -52567,7 +53503,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>631</v>
       </c>
@@ -52677,7 +53613,7 @@
         <v>-8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>620</v>
       </c>
@@ -52787,7 +53723,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>622</v>
       </c>
@@ -52795,7 +53731,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>623</v>
       </c>
@@ -52905,7 +53841,7 @@
         <v>-1.4E-2</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>625</v>
       </c>
@@ -53015,7 +53951,7 @@
         <v>-6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>627</v>
       </c>
@@ -53125,7 +54061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>629</v>
       </c>
@@ -53235,7 +54171,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>37</v>
       </c>
@@ -53243,7 +54179,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>638</v>
       </c>
@@ -53353,7 +54289,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>640</v>
       </c>
@@ -53463,7 +54399,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>642</v>
       </c>
@@ -53573,7 +54509,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>622</v>
       </c>
@@ -53581,7 +54517,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="259" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>623</v>
       </c>
@@ -53691,7 +54627,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>625</v>
       </c>
@@ -53801,7 +54737,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>627</v>
       </c>
@@ -53911,7 +54847,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>629</v>
       </c>
@@ -54035,18 +54971,18 @@
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>126</v>
       </c>
@@ -54072,7 +55008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -54099,7 +55035,7 @@
       </c>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -54127,7 +55063,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -54153,7 +55089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -54179,7 +55115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -54205,7 +55141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -54231,11 +55167,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -54257,19 +55193,19 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>126</v>
       </c>
@@ -54295,7 +55231,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -54323,7 +55259,7 @@
       <c r="I2" s="34"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -54350,7 +55286,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -54376,7 +55312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -54402,7 +55338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -54428,7 +55364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -54454,7 +55390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="39"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -54472,147 +55408,147 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AF94"/>
   <sheetViews>
-    <sheetView topLeftCell="P57" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:AA59"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="X70" sqref="X70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" style="15" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="15"/>
+    <col min="1" max="1" width="28.42578125" style="15" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
@@ -54627,7 +55563,7 @@
       <c r="N35" s="43"/>
       <c r="O35" s="43"/>
     </row>
-    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E36" s="42"/>
       <c r="F36" s="42"/>
       <c r="G36" s="42"/>
@@ -54640,7 +55576,7 @@
       <c r="N36" s="42"/>
       <c r="O36" s="42"/>
     </row>
-    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
       <c r="G37" s="42"/>
@@ -54653,7 +55589,7 @@
       <c r="N37" s="42"/>
       <c r="O37" s="42"/>
     </row>
-    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E38" s="42"/>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
@@ -54668,22 +55604,22 @@
       <c r="P38" s="42"/>
       <c r="Q38" s="42"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K45" s="15" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
         <v>125</v>
       </c>
@@ -54781,12 +55717,12 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
         <v>955</v>
       </c>
       <c r="B59" s="15">
-        <f t="shared" ref="B59:G59" si="0">B60</f>
+        <f t="shared" ref="B59:E59" si="0">B60</f>
         <v>8.6806201999999999E-2</v>
       </c>
       <c r="C59" s="15">
@@ -54830,87 +55766,87 @@
         <v>0.27915663899999998</v>
       </c>
       <c r="M59" s="15">
-        <f>M60</f>
-        <v>0.293598358</v>
+        <f>L59+M60-L60</f>
+        <v>0.32859835799999998</v>
       </c>
       <c r="N59" s="15">
-        <f t="shared" ref="N59:AA59" si="2">N60</f>
-        <v>0.34710665899999998</v>
+        <f t="shared" ref="N59:Y59" si="2">M59+N60-M60</f>
+        <v>0.38210665899999996</v>
       </c>
       <c r="O59" s="15">
         <f t="shared" si="2"/>
-        <v>0.40404082800000002</v>
+        <v>0.43904082800000005</v>
       </c>
       <c r="P59" s="15">
         <f t="shared" si="2"/>
-        <v>0.463686345</v>
+        <v>0.49868634500000003</v>
       </c>
       <c r="Q59" s="15">
         <f t="shared" si="2"/>
-        <v>0.52529182900000004</v>
+        <v>0.56029182900000007</v>
       </c>
       <c r="R59" s="15">
         <f t="shared" si="2"/>
-        <v>0.58810319300000002</v>
+        <v>0.62310319300000006</v>
       </c>
       <c r="S59" s="15">
         <f t="shared" si="2"/>
-        <v>0.65139297799999996</v>
+        <v>0.68639297799999999</v>
       </c>
       <c r="T59" s="15">
         <f t="shared" si="2"/>
-        <v>0.71448372400000004</v>
+        <v>0.74948372400000018</v>
       </c>
       <c r="U59" s="15">
         <f t="shared" si="2"/>
-        <v>0.77676499200000004</v>
+        <v>0.81176499200000019</v>
       </c>
       <c r="V59" s="15">
         <f t="shared" si="2"/>
-        <v>0.837704263</v>
+        <v>0.87270426300000004</v>
       </c>
       <c r="W59" s="15">
         <f t="shared" si="2"/>
-        <v>0.89685236999999995</v>
+        <v>0.9318523700000001</v>
       </c>
       <c r="X59" s="15">
         <f t="shared" si="2"/>
-        <v>0.95384432900000005</v>
+        <v>0.98884432900000019</v>
       </c>
       <c r="Y59" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="N59:AA59" si="3">Y60</f>
         <v>1</v>
       </c>
       <c r="Z59" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AA59" s="15">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AB59" s="15">
-        <f t="shared" ref="AB59:AF59" si="3">Z60</f>
-        <v>1</v>
-      </c>
-      <c r="AC59" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AD59" s="15">
+      <c r="AA59" s="15">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="AB59" s="15">
+        <f t="shared" ref="AB59:AF59" si="4">Z60</f>
+        <v>1</v>
+      </c>
+      <c r="AC59" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD59" s="15">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
       <c r="AE59" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AF59" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
         <v>1</v>
       </c>
@@ -55002,7 +55938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>2</v>
       </c>
@@ -55100,7 +56036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>3</v>
       </c>
@@ -55198,7 +56134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
         <v>4</v>
       </c>
@@ -55296,7 +56232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
         <v>5</v>
       </c>
@@ -55394,7 +56330,7 @@
         <v>3.7123840999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
         <v>122</v>
       </c>
@@ -55492,7 +56428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>123</v>
       </c>
@@ -55590,38 +56526,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="15" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="15" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>958</v>
       </c>
       <c r="F70" s="15">
-        <f t="shared" ref="F70:J70" si="4">G70-0.005</f>
+        <f t="shared" ref="F70:J70" si="5">G70-0.005</f>
         <v>4.9999999999999984E-3</v>
       </c>
       <c r="G70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.9999999999999985E-3</v>
       </c>
       <c r="H70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.02</v>
       </c>
       <c r="J70" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K70" s="15">
@@ -55632,12 +56568,12 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>125</v>
       </c>
@@ -55735,7 +56671,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>1</v>
       </c>
@@ -55833,12 +56769,12 @@
         <v>0.22004099999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>3</v>
       </c>
@@ -55936,7 +56872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="15" t="s">
         <v>4</v>
       </c>
@@ -56034,7 +56970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
         <v>5</v>
       </c>
@@ -56132,7 +57068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="15" t="s">
         <v>122</v>
       </c>
@@ -56230,7 +57166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>123</v>
       </c>
@@ -56328,12 +57264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
         <v>125</v>
       </c>
@@ -56431,7 +57367,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
         <v>1</v>
       </c>
@@ -56529,7 +57465,7 @@
         <v>8.1928860000000006E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
         <v>2</v>
       </c>
@@ -56627,7 +57563,7 @@
         <v>0.15130775599999999</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>3</v>
       </c>
@@ -56725,7 +57661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
         <v>4</v>
       </c>
@@ -56823,7 +57759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
         <v>5</v>
       </c>
@@ -56921,7 +57857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>122</v>
       </c>
@@ -57019,7 +57955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>123</v>
       </c>
@@ -57117,12 +58053,12 @@
         <v>8.1928860000000006E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
         <v>125</v>
       </c>
@@ -57220,7 +58156,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
         <v>1</v>
       </c>
@@ -57339,20 +58275,20 @@
       <selection activeCell="H95" sqref="H95:AM102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="24.1796875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="15" customWidth="1"/>
     <col min="6" max="6" width="18" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="15"/>
-    <col min="8" max="9" width="9.1796875" style="15" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="15"/>
+    <col min="7" max="7" width="9.140625" style="15"/>
+    <col min="8" max="9" width="9.140625" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>100</v>
       </c>
@@ -57371,7 +58307,7 @@
       <c r="Q1" s="25"/>
       <c r="R1" s="25"/>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>101</v>
       </c>
@@ -57388,7 +58324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>102</v>
       </c>
@@ -57405,7 +58341,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>103</v>
       </c>
@@ -57422,12 +58358,12 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -57441,7 +58377,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16" t="s">
@@ -57455,7 +58391,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:38" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -57469,7 +58405,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
@@ -57611,7 +58547,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>12</v>
       </c>
@@ -57756,7 +58692,7 @@
         <v>0.99999999127152317</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C11" s="15" t="s">
         <v>2</v>
       </c>
@@ -57895,7 +58831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
@@ -58034,7 +58970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C13" s="15" t="s">
         <v>4</v>
       </c>
@@ -58173,7 +59109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C14" s="15" t="s">
         <v>5</v>
       </c>
@@ -58313,7 +59249,7 @@
         <v>0.12992786754333543</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C15" s="15" t="s">
         <v>122</v>
       </c>
@@ -58452,7 +59388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31" t="s">
@@ -58594,7 +59530,7 @@
         <v>3.2600046404929385E-7</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>12</v>
       </c>
@@ -58740,7 +59676,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C18" s="15" t="s">
         <v>2</v>
       </c>
@@ -58880,7 +59816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
         <v>3</v>
       </c>
@@ -59019,7 +59955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C20" s="15" t="s">
         <v>4</v>
       </c>
@@ -59158,7 +60094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C21" s="15" t="s">
         <v>5</v>
       </c>
@@ -59297,7 +60233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C22" s="15" t="s">
         <v>122</v>
       </c>
@@ -59436,7 +60372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31" t="s">
@@ -59577,7 +60513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
@@ -59723,7 +60659,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C25" s="15" t="s">
         <v>2</v>
       </c>
@@ -59864,7 +60800,7 @@
         <v>0.16005020400931197</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C26" s="15" t="s">
         <v>3</v>
       </c>
@@ -60005,7 +60941,7 @@
         <v>0.29946959893376196</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C27" s="15" t="s">
         <v>4</v>
       </c>
@@ -60144,7 +61080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C28" s="15" t="s">
         <v>5</v>
       </c>
@@ -60283,7 +61219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C29" s="15" t="s">
         <v>122</v>
       </c>
@@ -60422,7 +61358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
@@ -60563,7 +61499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>13</v>
       </c>
@@ -60708,7 +61644,7 @@
         <v>0.9999999881542101</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C32" s="15" t="s">
         <v>2</v>
       </c>
@@ -60849,7 +61785,7 @@
         <v>5.2333311909740617E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C33" s="15" t="s">
         <v>3</v>
       </c>
@@ -60988,7 +61924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C34" s="15" t="s">
         <v>4</v>
       </c>
@@ -61127,7 +62063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C35" s="15" t="s">
         <v>5</v>
       </c>
@@ -61266,7 +62202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C36" s="15" t="s">
         <v>122</v>
       </c>
@@ -61405,7 +62341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31" t="s">
@@ -61547,7 +62483,7 @@
         <v>0.98901330465227377</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
@@ -61692,7 +62628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C39" s="15" t="s">
         <v>2</v>
       </c>
@@ -61831,7 +62767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C40" s="15" t="s">
         <v>3</v>
       </c>
@@ -61970,7 +62906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="C41" s="15" t="s">
         <v>4</v>
@@ -62110,7 +63046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="C42" s="15" t="s">
         <v>5</v>
@@ -62250,7 +63186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="C43" s="15" t="s">
         <v>122</v>
@@ -62390,7 +63326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="31" t="s">
@@ -62531,7 +63467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>14</v>
       </c>
@@ -62676,7 +63612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C46" s="15" t="s">
         <v>2</v>
       </c>
@@ -62815,7 +63751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C47" s="15" t="s">
         <v>3</v>
       </c>
@@ -62954,7 +63890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C48" s="15" t="s">
         <v>4</v>
       </c>
@@ -63093,7 +64029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C49" s="15" t="s">
         <v>5</v>
       </c>
@@ -63232,7 +64168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C50" s="15" t="s">
         <v>122</v>
       </c>
@@ -63371,7 +64307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
       <c r="C51" s="31" t="s">
@@ -63512,7 +64448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
         <v>15</v>
       </c>
@@ -63658,7 +64594,7 @@
         <v>0.99727709808185716</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C53" s="15" t="s">
         <v>2</v>
       </c>
@@ -63797,7 +64733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C54" s="15" t="s">
         <v>3</v>
       </c>
@@ -63936,7 +64872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C55" s="15" t="s">
         <v>4</v>
       </c>
@@ -64076,7 +65012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="C56" s="15" t="s">
         <v>5</v>
@@ -64216,7 +65152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="C57" s="15" t="s">
         <v>122</v>
@@ -64356,7 +65292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
       <c r="C58" s="31" t="s">
@@ -64497,7 +65433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>15</v>
       </c>
@@ -64642,7 +65578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="C60" s="15" t="s">
         <v>2</v>
@@ -64782,7 +65718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="C61" s="15" t="s">
         <v>3</v>
@@ -64922,7 +65858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C62" s="15" t="s">
         <v>4</v>
       </c>
@@ -65061,7 +65997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C63" s="15" t="s">
         <v>5</v>
       </c>
@@ -65200,7 +66136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C64" s="15" t="s">
         <v>122</v>
       </c>
@@ -65339,7 +66275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
       <c r="C65" s="31" t="s">
@@ -65480,7 +66416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
         <v>16</v>
       </c>
@@ -65625,7 +66561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C67" s="15" t="s">
         <v>2</v>
       </c>
@@ -65764,7 +66700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C68" s="15" t="s">
         <v>3</v>
       </c>
@@ -65903,7 +66839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C69" s="15" t="s">
         <v>4</v>
       </c>
@@ -66042,7 +66978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C70" s="15" t="s">
         <v>5</v>
       </c>
@@ -66181,7 +67117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C71" s="15" t="s">
         <v>122</v>
       </c>
@@ -66320,7 +67256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
       <c r="C72" s="31" t="s">
@@ -66461,7 +67397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>16</v>
       </c>
@@ -66606,7 +67542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C74" s="15" t="s">
         <v>2</v>
       </c>
@@ -66745,7 +67681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C75" s="15" t="s">
         <v>3</v>
       </c>
@@ -66884,7 +67820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C76" s="15" t="s">
         <v>4</v>
       </c>
@@ -67023,7 +67959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C77" s="15" t="s">
         <v>5</v>
       </c>
@@ -67162,7 +68098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C78" s="15" t="s">
         <v>122</v>
       </c>
@@ -67301,7 +68237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
       <c r="C79" s="31" t="s">
@@ -67442,7 +68378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
         <v>17</v>
       </c>
@@ -67588,7 +68524,7 @@
         <v>0.99999998753074737</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C81" s="15" t="s">
         <v>2</v>
       </c>
@@ -67728,7 +68664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C82" s="15" t="s">
         <v>3</v>
       </c>
@@ -67867,7 +68803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C83" s="15" t="s">
         <v>4</v>
       </c>
@@ -68007,7 +68943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C84" s="15" t="s">
         <v>5</v>
       </c>
@@ -68147,7 +69083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C85" s="15" t="s">
         <v>122</v>
       </c>
@@ -68287,7 +69223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
       <c r="C86" s="31" t="s">
@@ -68429,7 +69365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>17</v>
       </c>
@@ -68574,7 +69510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C88" s="15" t="s">
         <v>2</v>
       </c>
@@ -68713,7 +69649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C89" s="15" t="s">
         <v>3</v>
       </c>
@@ -68852,7 +69788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C90" s="15" t="s">
         <v>4</v>
       </c>
@@ -68991,7 +69927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C91" s="15" t="s">
         <v>5</v>
       </c>
@@ -69130,7 +70066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C92" s="15" t="s">
         <v>122</v>
       </c>
@@ -69269,7 +70205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
       <c r="C93" s="31" t="s">

--- a/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
+++ b/InputData/trans/TTS/Transportation Technology Shareweights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\TTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3E9D49-3C08-403B-955B-13A3673F78ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1690D90-B88A-4916-A6CE-CC1A8F7A5860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -4728,91 +4728,91 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21838189592802051</c:v>
+                  <c:v>0.22583637175876042</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.23794069854205344</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27627957191928759</c:v>
+                  <c:v>0.25531073627467749</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.3459404190450851</c:v>
+                  <c:v>0.27980039129574813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45665704065968565</c:v>
+                  <c:v>0.31348085192039021</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60000000000000009</c:v>
+                  <c:v>0.35825288915313458</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.74334295934031447</c:v>
+                  <c:v>0.41515313709599611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85405958095491497</c:v>
+                  <c:v>0.48347495501936366</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.92372042808071253</c:v>
+                  <c:v>0.56013280215001782</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0.63986719784998236</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71652504498063641</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78484686290400396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84174711084686549</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.88651914807960996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92019960870425188</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.94468926372532258</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>0.9620593014579466</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.98161810407197958</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.99121044589552554</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.99582389944515337</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.99802190147469227</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.99906439178795559</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.99955777709046112</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.9997910477447236</c:v>
-                </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.99990128433921099</c:v>
+                  <c:v>0.97416362824123981</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.99995336698747117</c:v>
+                  <c:v>0.98249498325109563</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.99997797144710843</c:v>
+                  <c:v>0.98818077464538168</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.99998959429722678</c:v>
+                  <c:v>0.9920385585064766</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.99999508466031828</c:v>
+                  <c:v>0.99464571926057221</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99999767815041185</c:v>
+                  <c:v>0.99640298147124717</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99999890323423446</c:v>
+                  <c:v>0.99758526694023342</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.99999948192416133</c:v>
+                  <c:v>0.99837974368876004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.99999975527821849</c:v>
+                  <c:v>0.99891318403965701</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.99999988440159693</c:v>
+                  <c:v>0.99927115904447961</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99999994539517689</c:v>
+                  <c:v>0.99951129651245263</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99999997420650688</c:v>
+                  <c:v>0.99967234626801127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4994,6 +4994,347 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$I$10:$AL$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>6.8830969931196209E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>7.8745282392924873E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9.3149431265043575E-2</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0.11381977616686616</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>0.14296246564194026</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>0.18304221378526436</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>0.23632093809223015</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>0.30403223314423533</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>0.38533519647304271</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>0.47655803455852103</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>0.57144196544147907</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>0.66266480352695722</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>0.7439677668557646</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>0.81167906190776995</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0.86495778621473574</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>0.90503753435805978</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>0.93418022383313393</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>0.95485056873495655</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>0.96925471760707527</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>0.97916903006880374</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>0.98593512182800402</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>0.99052588462270719</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.99362840592008095</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.99571954795078399</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>0.99712646765887769</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.99807189498962445</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.99870668900719173</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.99913267926293059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2CD7-4B7A-BC10-BFBD94963D9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="584510703"/>
+        <c:axId val="589151247"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="584510703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="589151247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="589151247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584510703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5035,6 +5376,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6106,6 +6487,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6180,6 +7077,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37611677-E89A-3C1B-D779-903087F49626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7173,11 +8106,11 @@
       </c>
       <c r="D2">
         <f>Data!K10</f>
-        <v>5.8459569384324707E-2</v>
+        <v>6.8830969931196209E-2</v>
       </c>
       <c r="E2">
         <f>Data!L10</f>
-        <v>6.9874456154344386E-2</v>
+        <v>7.8745282392924873E-2</v>
       </c>
       <c r="F2">
         <f>Data!M10</f>
@@ -7185,103 +8118,103 @@
       </c>
       <c r="G2">
         <f>Data!N10</f>
-        <v>0.13877269058395222</v>
+        <v>0.11381977616686616</v>
       </c>
       <c r="H2">
         <f>Data!O10</f>
-        <v>0.22166909866365125</v>
+        <v>0.14296246564194026</v>
       </c>
       <c r="I2">
         <f>Data!P10</f>
-        <v>0.35342187838502587</v>
+        <v>0.18304221378526436</v>
       </c>
       <c r="J2">
         <f>Data!Q10</f>
-        <v>0.52400000000000002</v>
+        <v>0.23632093809223015</v>
       </c>
       <c r="K2">
         <f>Data!R10</f>
-        <v>0.69457812161497412</v>
+        <v>0.30403223314423533</v>
       </c>
       <c r="L2">
         <f>Data!S10</f>
-        <v>0.82633090133634868</v>
+        <v>0.38533519647304271</v>
       </c>
       <c r="M2">
         <f>Data!T10</f>
-        <v>0.90922730941604779</v>
+        <v>0.47655803455852103</v>
       </c>
       <c r="N2">
         <f>Data!U10</f>
-        <v>0.95485056873495655</v>
+        <v>0.57144196544147907</v>
       </c>
       <c r="O2">
         <f>Data!V10</f>
-        <v>0.97812554384565553</v>
+        <v>0.66266480352695722</v>
       </c>
       <c r="P2">
         <f>Data!W10</f>
-        <v>1</v>
+        <v>0.7439677668557646</v>
       </c>
       <c r="Q2">
         <f>Data!X10</f>
-        <v>1</v>
+        <v>0.81167906190776995</v>
       </c>
       <c r="R2">
         <f>Data!Y10</f>
-        <v>1</v>
+        <v>0.86495778621473574</v>
       </c>
       <c r="S2">
         <f>Data!Z10</f>
-        <v>1</v>
+        <v>0.90503753435805978</v>
       </c>
       <c r="T2">
         <f>Data!AA10</f>
-        <v>1</v>
+        <v>0.93418022383313393</v>
       </c>
       <c r="U2">
         <f>Data!AB10</f>
-        <v>1</v>
+        <v>0.95485056873495655</v>
       </c>
       <c r="V2">
         <f>Data!AC10</f>
-        <v>1</v>
+        <v>0.96925471760707527</v>
       </c>
       <c r="W2">
         <f>Data!AD10</f>
-        <v>1</v>
+        <v>0.97916903006880374</v>
       </c>
       <c r="X2">
         <f>Data!AE10</f>
-        <v>1</v>
+        <v>0.98593512182800402</v>
       </c>
       <c r="Y2">
         <f>Data!AF10</f>
-        <v>1</v>
+        <v>0.99052588462270719</v>
       </c>
       <c r="Z2">
         <f>Data!AG10</f>
-        <v>1</v>
+        <v>0.99362840592008095</v>
       </c>
       <c r="AA2">
         <f>Data!AH10</f>
-        <v>1</v>
+        <v>0.99571954795078399</v>
       </c>
       <c r="AB2">
         <f>Data!AI10</f>
-        <v>1</v>
+        <v>0.99712646765887769</v>
       </c>
       <c r="AC2">
         <f>Data!AJ10</f>
-        <v>1</v>
+        <v>0.99807189498962445</v>
       </c>
       <c r="AD2">
         <f>Data!AK10</f>
-        <v>1</v>
+        <v>0.99870668900719173</v>
       </c>
       <c r="AE2">
         <f>Data!AL10</f>
-        <v>1</v>
+        <v>0.99913267926293059</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -7677,111 +8610,111 @@
       </c>
       <c r="E6">
         <f>Data!L14</f>
-        <v>1.2004677525762598E-2</v>
+        <v>1.0903813654420566E-2</v>
       </c>
       <c r="F6">
         <f>Data!M14</f>
-        <v>1.5661871999866968E-2</v>
+        <v>1.2189520543026775E-2</v>
       </c>
       <c r="G6">
         <f>Data!N14</f>
-        <v>2.1474494634633495E-2</v>
+        <v>1.3957744725820488E-2</v>
       </c>
       <c r="H6">
         <f>Data!O14</f>
-        <v>2.9000000000000001E-2</v>
+        <v>1.6308276680539566E-2</v>
       </c>
       <c r="I6">
         <f>Data!P14</f>
-        <v>3.6525505365366501E-2</v>
+        <v>1.9295539697539797E-2</v>
       </c>
       <c r="J6">
         <f>Data!Q14</f>
-        <v>4.2338128000133035E-2</v>
+        <v>2.2882435138516594E-2</v>
       </c>
       <c r="K6">
         <f>Data!R14</f>
-        <v>4.5995322474237404E-2</v>
+        <v>2.6906972112875932E-2</v>
       </c>
       <c r="L6">
         <f>Data!S14</f>
-        <v>4.8008113326542201E-2</v>
+        <v>3.1093027887124074E-2</v>
       </c>
       <c r="M6">
         <f>Data!T14</f>
-        <v>4.9034950463778926E-2</v>
+        <v>3.5117564861483409E-2</v>
       </c>
       <c r="N6">
         <f>Data!U14</f>
-        <v>4.953854840951509E-2</v>
+        <v>3.8704460302460206E-2</v>
       </c>
       <c r="O6">
         <f>Data!V14</f>
-        <v>4.9780754720870554E-2</v>
+        <v>4.1691723319460437E-2</v>
       </c>
       <c r="P6">
         <f>Data!W14</f>
-        <v>4.9896149827421347E-2</v>
+        <v>4.4042255274179515E-2</v>
       </c>
       <c r="Q6">
         <f>Data!X14</f>
-        <v>4.9950880568867671E-2</v>
+        <v>4.5810479456973224E-2</v>
       </c>
       <c r="R6">
         <f>Data!Y14</f>
-        <v>4.9976783297249215E-2</v>
+        <v>4.7096186345579438E-2</v>
       </c>
       <c r="S6">
         <f>Data!Z14</f>
-        <v>4.9989030006597983E-2</v>
+        <v>4.8008113326542201E-2</v>
       </c>
       <c r="T6">
         <f>Data!AA14</f>
-        <v>4.9994817427808577E-2</v>
+        <v>4.8643590482665089E-2</v>
       </c>
       <c r="U6">
         <f>Data!AB14</f>
-        <v>4.9997551766842237E-2</v>
+        <v>4.9080986620682519E-2</v>
       </c>
       <c r="V6">
         <f>Data!AC14</f>
-        <v>4.9998843500973188E-2</v>
+        <v>4.9379490668882538E-2</v>
       </c>
       <c r="W6">
         <f>Data!AD14</f>
-        <v>4.9999453700604407E-2</v>
+        <v>4.9582024321590021E-2</v>
       </c>
       <c r="X6">
         <f>Data!AE14</f>
-        <v>4.9999741944666706E-2</v>
+        <v>4.9718900261180046E-2</v>
       </c>
       <c r="Y6">
         <f>Data!AF14</f>
-        <v>4.9999878102896626E-2</v>
+        <v>4.9811156527240476E-2</v>
       </c>
       <c r="Z6">
         <f>Data!AG14</f>
-        <v>4.9999942419797314E-2</v>
+        <v>4.9873226514362254E-2</v>
       </c>
       <c r="AA6">
         <f>Data!AH14</f>
-        <v>4.9999972801018477E-2</v>
+        <v>4.9914936543659902E-2</v>
       </c>
       <c r="AB6">
         <f>Data!AI14</f>
-        <v>4.9999987152106469E-2</v>
+        <v>4.9942942162081991E-2</v>
       </c>
       <c r="AC6">
         <f>Data!AJ14</f>
-        <v>4.9999993931083841E-2</v>
+        <v>4.9961735849835175E-2</v>
       </c>
       <c r="AD6">
         <f>Data!AK14</f>
-        <v>4.9999997133246779E-2</v>
+        <v>4.9974343066903758E-2</v>
       </c>
       <c r="AE6">
         <f>Data!AL14</f>
-        <v>4.9999998645841613E-2</v>
+        <v>4.9982798179070587E-2</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.35">
@@ -8190,7 +9123,7 @@
       </c>
       <c r="C2">
         <f>Data!J17</f>
-        <v>0.21838189592802051</v>
+        <v>0.22583637175876042</v>
       </c>
       <c r="D2">
         <f>Data!K17</f>
@@ -8198,111 +9131,111 @@
       </c>
       <c r="E2">
         <f>Data!L17</f>
-        <v>0.27627957191928759</v>
+        <v>0.25531073627467749</v>
       </c>
       <c r="F2">
         <f>Data!M17</f>
-        <v>0.3459404190450851</v>
+        <v>0.27980039129574813</v>
       </c>
       <c r="G2">
         <f>Data!N17</f>
-        <v>0.45665704065968565</v>
+        <v>0.31348085192039021</v>
       </c>
       <c r="H2">
         <f>Data!O17</f>
-        <v>0.60000000000000009</v>
+        <v>0.35825288915313458</v>
       </c>
       <c r="I2">
         <f>Data!P17</f>
-        <v>0.74334295934031447</v>
+        <v>0.41515313709599611</v>
       </c>
       <c r="J2">
         <f>Data!Q17</f>
-        <v>0.85405958095491497</v>
+        <v>0.48347495501936366</v>
       </c>
       <c r="K2">
         <f>Data!R17</f>
-        <v>0.92372042808071253</v>
+        <v>0.56013280215001782</v>
       </c>
       <c r="L2">
         <f>Data!S17</f>
-        <v>0.9620593014579466</v>
+        <v>0.63986719784998236</v>
       </c>
       <c r="M2">
         <f>Data!T17</f>
-        <v>0.98161810407197958</v>
+        <v>0.71652504498063641</v>
       </c>
       <c r="N2">
         <f>Data!U17</f>
-        <v>0.99121044589552554</v>
+        <v>0.78484686290400396</v>
       </c>
       <c r="O2">
         <f>Data!V17</f>
-        <v>0.99582389944515337</v>
+        <v>0.84174711084686549</v>
       </c>
       <c r="P2">
         <f>Data!W17</f>
-        <v>0.99802190147469227</v>
+        <v>0.88651914807960996</v>
       </c>
       <c r="Q2">
         <f>Data!X17</f>
-        <v>0.99906439178795559</v>
+        <v>0.92019960870425188</v>
       </c>
       <c r="R2">
         <f>Data!Y17</f>
-        <v>0.99955777709046112</v>
+        <v>0.94468926372532258</v>
       </c>
       <c r="S2">
         <f>Data!Z17</f>
-        <v>0.9997910477447236</v>
+        <v>0.9620593014579466</v>
       </c>
       <c r="T2">
         <f>Data!AA17</f>
-        <v>0.99990128433921099</v>
+        <v>0.97416362824123981</v>
       </c>
       <c r="U2">
         <f>Data!AB17</f>
-        <v>0.99995336698747117</v>
+        <v>0.98249498325109563</v>
       </c>
       <c r="V2">
         <f>Data!AC17</f>
-        <v>0.99997797144710843</v>
+        <v>0.98818077464538168</v>
       </c>
       <c r="W2">
         <f>Data!AD17</f>
-        <v>0.99998959429722678</v>
+        <v>0.9920385585064766</v>
       </c>
       <c r="X2">
         <f>Data!AE17</f>
-        <v>0.99999508466031828</v>
+        <v>0.99464571926057221</v>
       </c>
       <c r="Y2">
         <f>Data!AF17</f>
-        <v>0.99999767815041185</v>
+        <v>0.99640298147124717</v>
       </c>
       <c r="Z2">
         <f>Data!AG17</f>
-        <v>0.99999890323423446</v>
+        <v>0.99758526694023342</v>
       </c>
       <c r="AA2">
         <f>Data!AH17</f>
-        <v>0.99999948192416133</v>
+        <v>0.99837974368876004</v>
       </c>
       <c r="AB2">
         <f>Data!AI17</f>
-        <v>0.99999975527821849</v>
+        <v>0.99891318403965701</v>
       </c>
       <c r="AC2">
         <f>Data!AJ17</f>
-        <v>0.99999988440159693</v>
+        <v>0.99927115904447961</v>
       </c>
       <c r="AD2">
         <f>Data!AK17</f>
-        <v>0.99999994539517689</v>
+        <v>0.99951129651245263</v>
       </c>
       <c r="AE2">
         <f>Data!AL17</f>
-        <v>0.99999997420650688</v>
+        <v>0.99967234626801127</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -9215,11 +10148,11 @@
       </c>
       <c r="D2">
         <f>Data!K24</f>
-        <v>0.60439477705223721</v>
+        <v>0.60875250837445216</v>
       </c>
       <c r="E2">
         <f>Data!L24</f>
-        <v>0.60919094796401019</v>
+        <v>0.61291818587938018</v>
       </c>
       <c r="F2">
         <f>Data!M24</f>
@@ -9227,103 +10160,103 @@
       </c>
       <c r="G2">
         <f>Data!N24</f>
-        <v>0.63813978595964382</v>
+        <v>0.62765536813733869</v>
       </c>
       <c r="H2">
         <f>Data!O24</f>
-        <v>0.6729702095225425</v>
+        <v>0.63990019564787404</v>
       </c>
       <c r="I2">
         <f>Data!P24</f>
-        <v>0.72832852032984285</v>
+        <v>0.65674042596019511</v>
       </c>
       <c r="J2">
         <f>Data!Q24</f>
-        <v>0.8</v>
+        <v>0.67912644457656723</v>
       </c>
       <c r="K2">
         <f>Data!R24</f>
-        <v>0.87167147967015723</v>
+        <v>0.707576568547998</v>
       </c>
       <c r="L2">
         <f>Data!S24</f>
-        <v>0.92702979047745737</v>
+        <v>0.74173747750968178</v>
       </c>
       <c r="M2">
         <f>Data!T24</f>
-        <v>0.96186021404035627</v>
+        <v>0.78006640107500891</v>
       </c>
       <c r="N2">
         <f>Data!U24</f>
-        <v>0.9810296507289733</v>
+        <v>0.81993359892499118</v>
       </c>
       <c r="O2">
         <f>Data!V24</f>
-        <v>0.99080905203598979</v>
+        <v>0.8582625224903182</v>
       </c>
       <c r="P2">
         <f>Data!W24</f>
-        <v>0.99560522294776277</v>
+        <v>0.89242343145200187</v>
       </c>
       <c r="Q2">
         <f>Data!X24</f>
-        <v>0.99791194972257657</v>
+        <v>0.92087355542343274</v>
       </c>
       <c r="R2">
         <f>Data!Y24</f>
-        <v>0.99901095073734614</v>
+        <v>0.94325957403980487</v>
       </c>
       <c r="S2">
         <f>Data!Z24</f>
-        <v>0.99953219589397779</v>
+        <v>0.96009980435212594</v>
       </c>
       <c r="T2">
         <f>Data!AA24</f>
-        <v>0.99977888854523056</v>
+        <v>0.97234463186266129</v>
       </c>
       <c r="U2">
         <f>Data!AB24</f>
-        <v>0.99989552387236169</v>
+        <v>0.9810296507289733</v>
       </c>
       <c r="V2">
         <f>Data!AC24</f>
-        <v>0.9999506421696055</v>
+        <v>0.9870818141206199</v>
       </c>
       <c r="W2">
         <f>Data!AD24</f>
-        <v>0.99997668349373559</v>
+        <v>0.99124749162554782</v>
       </c>
       <c r="X2">
         <f>Data!AE24</f>
-        <v>0.99998898572355421</v>
+        <v>0.99409038732269073</v>
       </c>
       <c r="Y2">
         <f>Data!AF24</f>
-        <v>0.99999479714861339</v>
+        <v>0.9960192792532383</v>
       </c>
       <c r="Z2">
         <f>Data!AG24</f>
-        <v>0.99999754233015903</v>
+        <v>0.99732285963028611</v>
       </c>
       <c r="AA2">
         <f>Data!AH24</f>
-        <v>0.99999883907520593</v>
+        <v>0.99820149073562359</v>
       </c>
       <c r="AB2">
         <f>Data!AI24</f>
-        <v>0.99999945161711723</v>
+        <v>0.99879263347011671</v>
       </c>
       <c r="AC2">
         <f>Data!AJ24</f>
-        <v>0.99999974096208066</v>
+        <v>0.99918987184438002</v>
       </c>
       <c r="AD2">
         <f>Data!AK24</f>
-        <v>0.99999987763910925</v>
+        <v>0.99945659201982839</v>
       </c>
       <c r="AE2">
         <f>Data!AL24</f>
-        <v>0.99999994220079846</v>
+        <v>0.9996355795222398</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -23726,7 +24659,7 @@
       </c>
       <c r="C2">
         <f>Data!J80</f>
-        <v>2.2977369910025615E-2</v>
+        <v>3.2295464698450495E-2</v>
       </c>
       <c r="D2">
         <f>Data!K80</f>
@@ -23734,111 +24667,111 @@
       </c>
       <c r="E2">
         <f>Data!L80</f>
-        <v>9.534946489910949E-2</v>
+        <v>6.9138420343346815E-2</v>
       </c>
       <c r="F2">
         <f>Data!M80</f>
-        <v>0.18242552380635635</v>
+        <v>9.9750489119685135E-2</v>
       </c>
       <c r="G2">
         <f>Data!N80</f>
-        <v>0.32082130082460703</v>
+        <v>0.14185106490048777</v>
       </c>
       <c r="H2">
         <f>Data!O80</f>
-        <v>0.5</v>
+        <v>0.19781611144141822</v>
       </c>
       <c r="I2">
         <f>Data!P80</f>
-        <v>0.67917869917539297</v>
+        <v>0.2689414213699951</v>
       </c>
       <c r="J2">
         <f>Data!Q80</f>
-        <v>0.81757447619364365</v>
+        <v>0.35434369377420455</v>
       </c>
       <c r="K2">
         <f>Data!R80</f>
-        <v>0.90465053510089055</v>
+        <v>0.45016600268752216</v>
       </c>
       <c r="L2">
         <f>Data!S80</f>
-        <v>0.95257412682243336</v>
+        <v>0.54983399731247795</v>
       </c>
       <c r="M2">
         <f>Data!T80</f>
-        <v>0.97702263008997436</v>
+        <v>0.6456563062257954</v>
       </c>
       <c r="N2">
         <f>Data!U80</f>
-        <v>0.98901305736940681</v>
+        <v>0.7310585786300049</v>
       </c>
       <c r="O2">
         <f>Data!V80</f>
-        <v>0.99477987430644166</v>
+        <v>0.8021838885585818</v>
       </c>
       <c r="P2">
         <f>Data!W80</f>
-        <v>0.99752737684336534</v>
+        <v>0.85814893509951229</v>
       </c>
       <c r="Q2">
         <f>Data!X80</f>
-        <v>0.99883048973494448</v>
+        <v>0.9002495108803148</v>
       </c>
       <c r="R2">
         <f>Data!Y80</f>
-        <v>0.9994472213630764</v>
+        <v>0.93086157965665328</v>
       </c>
       <c r="S2">
         <f>Data!Z80</f>
-        <v>0.99973880968090434</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="T2">
         <f>Data!AA80</f>
-        <v>0.99987660542401369</v>
+        <v>0.96770453530154954</v>
       </c>
       <c r="U2">
         <f>Data!AB80</f>
-        <v>0.99994170873433885</v>
+        <v>0.97811872906386943</v>
       </c>
       <c r="V2">
         <f>Data!AC80</f>
-        <v>0.99997246430888531</v>
+        <v>0.98522596830672693</v>
       </c>
       <c r="W2">
         <f>Data!AD80</f>
-        <v>0.99998699287153348</v>
+        <v>0.99004819813309575</v>
       </c>
       <c r="X2">
         <f>Data!AE80</f>
-        <v>0.99999385582539779</v>
+        <v>0.99330714907571527</v>
       </c>
       <c r="Y2">
         <f>Data!AF80</f>
-        <v>0.99999709768801481</v>
+        <v>0.99550372683905886</v>
       </c>
       <c r="Z2">
         <f>Data!AG80</f>
-        <v>0.99999862904279302</v>
+        <v>0.99698158367529166</v>
       </c>
       <c r="AA2">
         <f>Data!AH80</f>
-        <v>0.99999935240520166</v>
+        <v>0.9979746796109501</v>
       </c>
       <c r="AB2">
         <f>Data!AI80</f>
-        <v>0.99999969409777301</v>
+        <v>0.9986414800495711</v>
       </c>
       <c r="AC2">
         <f>Data!AJ80</f>
-        <v>0.99999985550199622</v>
+        <v>0.9990889488055994</v>
       </c>
       <c r="AD2">
         <f>Data!AK80</f>
-        <v>0.99999993174397095</v>
+        <v>0.99938912064056562</v>
       </c>
       <c r="AE2">
         <f>Data!AL80</f>
-        <v>0.9999999677581336</v>
+        <v>0.99959043283501392</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.35">
@@ -62408,8 +63341,8 @@
   </sheetPr>
   <dimension ref="A1:AL93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24:AL24"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -62482,7 +63415,7 @@
         <v>99</v>
       </c>
       <c r="O3" s="19">
-        <v>-0.75</v>
+        <v>-0.4</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>99</v>
@@ -62505,7 +63438,7 @@
         <v>100</v>
       </c>
       <c r="O4" s="20">
-        <v>-7</v>
+        <v>-10.5</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>100</v>
@@ -62733,11 +63666,11 @@
       </c>
       <c r="K10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:K$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,K$9))</f>
-        <v>5.8459569384324707E-2</v>
+        <v>6.8830969931196209E-2</v>
       </c>
       <c r="L10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,L$9))</f>
-        <v>6.9874456154344386E-2</v>
+        <v>7.8745282392924873E-2</v>
       </c>
       <c r="M10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,M$9))</f>
@@ -62745,87 +63678,103 @@
       </c>
       <c r="N10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,N$9))</f>
-        <v>0.13877269058395222</v>
+        <v>0.11381977616686616</v>
       </c>
       <c r="O10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,O$9))</f>
-        <v>0.22166909866365125</v>
+        <v>0.14296246564194026</v>
       </c>
       <c r="P10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,P$9))</f>
-        <v>0.35342187838502587</v>
+        <v>0.18304221378526436</v>
       </c>
       <c r="Q10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Q$9))</f>
-        <v>0.52400000000000002</v>
+        <v>0.23632093809223015</v>
       </c>
       <c r="R10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,R$9))</f>
-        <v>0.69457812161497412</v>
+        <v>0.30403223314423533</v>
       </c>
       <c r="S10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,S$9))</f>
-        <v>0.82633090133634868</v>
+        <v>0.38533519647304271</v>
       </c>
       <c r="T10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,T$9))</f>
-        <v>0.90922730941604779</v>
+        <v>0.47655803455852103</v>
       </c>
       <c r="U10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,U$9))</f>
-        <v>0.95485056873495655</v>
+        <v>0.57144196544147907</v>
       </c>
       <c r="V10">
         <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,V$9))</f>
-        <v>0.97812554384565553</v>
+        <v>0.66266480352695722</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,W$9))</f>
+        <v>0.7439677668557646</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,X$9))</f>
+        <v>0.81167906190776995</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Y$9))</f>
+        <v>0.86495778621473574</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,Z$9))</f>
+        <v>0.90503753435805978</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AA$9))</f>
+        <v>0.93418022383313393</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AB$9))</f>
+        <v>0.95485056873495655</v>
       </c>
       <c r="AC10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AC$9))</f>
+        <v>0.96925471760707527</v>
       </c>
       <c r="AD10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AD$9))</f>
+        <v>0.97916903006880374</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AE$9))</f>
+        <v>0.98593512182800402</v>
       </c>
       <c r="AF10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AF$9))</f>
+        <v>0.99052588462270719</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AG$9))</f>
+        <v>0.99362840592008095</v>
       </c>
       <c r="AH10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AH$9))</f>
+        <v>0.99571954795078399</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AI$9))</f>
+        <v>0.99712646765887769</v>
       </c>
       <c r="AJ10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AJ$9))</f>
+        <v>0.99807189498962445</v>
       </c>
       <c r="AK10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AK$9))</f>
+        <v>0.99870668900719173</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <f>IF($G10="s-curve",$E10+($F10-$E10)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E10:$F10,$E$9:$F$9,AL$9))</f>
+        <v>0.99913267926293059</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.35">
@@ -63268,111 +64217,111 @@
       </c>
       <c r="L14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,L$9))</f>
-        <v>1.2004677525762598E-2</v>
+        <v>1.0903813654420566E-2</v>
       </c>
       <c r="M14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,M$9))</f>
-        <v>1.5661871999866968E-2</v>
+        <v>1.2189520543026775E-2</v>
       </c>
       <c r="N14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,N$9))</f>
-        <v>2.1474494634633495E-2</v>
+        <v>1.3957744725820488E-2</v>
       </c>
       <c r="O14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,O$9))</f>
-        <v>2.9000000000000001E-2</v>
+        <v>1.6308276680539566E-2</v>
       </c>
       <c r="P14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,P$9))</f>
-        <v>3.6525505365366501E-2</v>
+        <v>1.9295539697539797E-2</v>
       </c>
       <c r="Q14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Q$9))</f>
-        <v>4.2338128000133035E-2</v>
+        <v>2.2882435138516594E-2</v>
       </c>
       <c r="R14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,R$9))</f>
-        <v>4.5995322474237404E-2</v>
+        <v>2.6906972112875932E-2</v>
       </c>
       <c r="S14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,S$9))</f>
-        <v>4.8008113326542201E-2</v>
+        <v>3.1093027887124074E-2</v>
       </c>
       <c r="T14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,T$9))</f>
-        <v>4.9034950463778926E-2</v>
+        <v>3.5117564861483409E-2</v>
       </c>
       <c r="U14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,U$9))</f>
-        <v>4.953854840951509E-2</v>
+        <v>3.8704460302460206E-2</v>
       </c>
       <c r="V14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,V$9))</f>
-        <v>4.9780754720870554E-2</v>
+        <v>4.1691723319460437E-2</v>
       </c>
       <c r="W14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,W$9))</f>
-        <v>4.9896149827421347E-2</v>
+        <v>4.4042255274179515E-2</v>
       </c>
       <c r="X14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,X$9))</f>
-        <v>4.9950880568867671E-2</v>
+        <v>4.5810479456973224E-2</v>
       </c>
       <c r="Y14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Y$9))</f>
-        <v>4.9976783297249215E-2</v>
+        <v>4.7096186345579438E-2</v>
       </c>
       <c r="Z14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,Z$9))</f>
-        <v>4.9989030006597983E-2</v>
+        <v>4.8008113326542201E-2</v>
       </c>
       <c r="AA14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AA$9))</f>
-        <v>4.9994817427808577E-2</v>
+        <v>4.8643590482665089E-2</v>
       </c>
       <c r="AB14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AB$9))</f>
-        <v>4.9997551766842237E-2</v>
+        <v>4.9080986620682519E-2</v>
       </c>
       <c r="AC14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AC$9))</f>
-        <v>4.9998843500973188E-2</v>
+        <v>4.9379490668882538E-2</v>
       </c>
       <c r="AD14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AD$9))</f>
-        <v>4.9999453700604407E-2</v>
+        <v>4.9582024321590021E-2</v>
       </c>
       <c r="AE14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AE$9))</f>
-        <v>4.9999741944666706E-2</v>
+        <v>4.9718900261180046E-2</v>
       </c>
       <c r="AF14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AF$9))</f>
-        <v>4.9999878102896626E-2</v>
+        <v>4.9811156527240476E-2</v>
       </c>
       <c r="AG14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AG$9))</f>
-        <v>4.9999942419797314E-2</v>
+        <v>4.9873226514362254E-2</v>
       </c>
       <c r="AH14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AH$9))</f>
-        <v>4.9999972801018477E-2</v>
+        <v>4.9914936543659902E-2</v>
       </c>
       <c r="AI14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AI$9))</f>
-        <v>4.9999987152106469E-2</v>
+        <v>4.9942942162081991E-2</v>
       </c>
       <c r="AJ14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AJ$9))</f>
-        <v>4.9999993931083841E-2</v>
+        <v>4.9961735849835175E-2</v>
       </c>
       <c r="AK14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AK$9))</f>
-        <v>4.9999997133246779E-2</v>
+        <v>4.9974343066903758E-2</v>
       </c>
       <c r="AL14">
         <f>IF($G14="s-curve",$E14+($F14-$E14)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E14:$F14,$E$9:$F$9,AL$9))</f>
-        <v>4.9999998645841613E-2</v>
+        <v>4.9982798179070587E-2</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.35">
@@ -63679,7 +64628,7 @@
       </c>
       <c r="J17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,J$9))</f>
-        <v>0.21838189592802051</v>
+        <v>0.22583637175876042</v>
       </c>
       <c r="K17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,K$9))</f>
@@ -63687,111 +64636,111 @@
       </c>
       <c r="L17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,L$9))</f>
-        <v>0.27627957191928759</v>
+        <v>0.25531073627467749</v>
       </c>
       <c r="M17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,M$9))</f>
-        <v>0.3459404190450851</v>
+        <v>0.27980039129574813</v>
       </c>
       <c r="N17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,N$9))</f>
-        <v>0.45665704065968565</v>
+        <v>0.31348085192039021</v>
       </c>
       <c r="O17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,O$9))</f>
-        <v>0.60000000000000009</v>
+        <v>0.35825288915313458</v>
       </c>
       <c r="P17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,P$9))</f>
-        <v>0.74334295934031447</v>
+        <v>0.41515313709599611</v>
       </c>
       <c r="Q17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Q$9))</f>
-        <v>0.85405958095491497</v>
+        <v>0.48347495501936366</v>
       </c>
       <c r="R17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,R$9))</f>
-        <v>0.92372042808071253</v>
+        <v>0.56013280215001782</v>
       </c>
       <c r="S17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,S$9))</f>
-        <v>0.9620593014579466</v>
+        <v>0.63986719784998236</v>
       </c>
       <c r="T17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,T$9))</f>
-        <v>0.98161810407197958</v>
+        <v>0.71652504498063641</v>
       </c>
       <c r="U17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,U$9))</f>
-        <v>0.99121044589552554</v>
+        <v>0.78484686290400396</v>
       </c>
       <c r="V17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,V$9))</f>
-        <v>0.99582389944515337</v>
+        <v>0.84174711084686549</v>
       </c>
       <c r="W17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,W$9))</f>
-        <v>0.99802190147469227</v>
+        <v>0.88651914807960996</v>
       </c>
       <c r="X17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,X$9))</f>
-        <v>0.99906439178795559</v>
+        <v>0.92019960870425188</v>
       </c>
       <c r="Y17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Y$9))</f>
-        <v>0.99955777709046112</v>
+        <v>0.94468926372532258</v>
       </c>
       <c r="Z17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,Z$9))</f>
-        <v>0.9997910477447236</v>
+        <v>0.9620593014579466</v>
       </c>
       <c r="AA17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AA$9))</f>
-        <v>0.99990128433921099</v>
+        <v>0.97416362824123981</v>
       </c>
       <c r="AB17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AB$9))</f>
-        <v>0.99995336698747117</v>
+        <v>0.98249498325109563</v>
       </c>
       <c r="AC17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AC$9))</f>
-        <v>0.99997797144710843</v>
+        <v>0.98818077464538168</v>
       </c>
       <c r="AD17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AD$9))</f>
-        <v>0.99998959429722678</v>
+        <v>0.9920385585064766</v>
       </c>
       <c r="AE17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AE$9))</f>
-        <v>0.99999508466031828</v>
+        <v>0.99464571926057221</v>
       </c>
       <c r="AF17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AF$9))</f>
-        <v>0.99999767815041185</v>
+        <v>0.99640298147124717</v>
       </c>
       <c r="AG17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AG$9))</f>
-        <v>0.99999890323423446</v>
+        <v>0.99758526694023342</v>
       </c>
       <c r="AH17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AH$9))</f>
-        <v>0.99999948192416133</v>
+        <v>0.99837974368876004</v>
       </c>
       <c r="AI17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AI$9))</f>
-        <v>0.99999975527821849</v>
+        <v>0.99891318403965701</v>
       </c>
       <c r="AJ17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AJ$9))</f>
-        <v>0.99999988440159693</v>
+        <v>0.99927115904447961</v>
       </c>
       <c r="AK17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AK$9))</f>
-        <v>0.99999994539517689</v>
+        <v>0.99951129651245263</v>
       </c>
       <c r="AL17">
         <f>IF($G17="s-curve",$E17+($F17-$E17)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E17:$F17,$E$9:$F$9,AL$9))</f>
-        <v>0.99999997420650688</v>
+        <v>0.99967234626801127</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.35">
@@ -64647,11 +65596,11 @@
       </c>
       <c r="K24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:K$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,K$9))</f>
-        <v>0.60439477705223721</v>
+        <v>0.60875250837445216</v>
       </c>
       <c r="L24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:L$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,L$9))</f>
-        <v>0.60919094796401019</v>
+        <v>0.61291818587938018</v>
       </c>
       <c r="M24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:M$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,M$9))</f>
@@ -64659,103 +65608,103 @@
       </c>
       <c r="N24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:N$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,N$9))</f>
-        <v>0.63813978595964382</v>
+        <v>0.62765536813733869</v>
       </c>
       <c r="O24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:O$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,O$9))</f>
-        <v>0.6729702095225425</v>
+        <v>0.63990019564787404</v>
       </c>
       <c r="P24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:P$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,P$9))</f>
-        <v>0.72832852032984285</v>
+        <v>0.65674042596019511</v>
       </c>
       <c r="Q24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Q$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Q$9))</f>
-        <v>0.8</v>
+        <v>0.67912644457656723</v>
       </c>
       <c r="R24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:R$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,R$9))</f>
-        <v>0.87167147967015723</v>
+        <v>0.707576568547998</v>
       </c>
       <c r="S24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:S$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,S$9))</f>
-        <v>0.92702979047745737</v>
+        <v>0.74173747750968178</v>
       </c>
       <c r="T24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:T$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,T$9))</f>
-        <v>0.96186021404035627</v>
+        <v>0.78006640107500891</v>
       </c>
       <c r="U24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:U$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,U$9))</f>
-        <v>0.9810296507289733</v>
+        <v>0.81993359892499118</v>
       </c>
       <c r="V24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:V$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,V$9))</f>
-        <v>0.99080905203598979</v>
+        <v>0.8582625224903182</v>
       </c>
       <c r="W24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:W$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,W$9))</f>
-        <v>0.99560522294776277</v>
+        <v>0.89242343145200187</v>
       </c>
       <c r="X24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:X$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,X$9))</f>
-        <v>0.99791194972257657</v>
+        <v>0.92087355542343274</v>
       </c>
       <c r="Y24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Y$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Y$9))</f>
-        <v>0.99901095073734614</v>
+        <v>0.94325957403980487</v>
       </c>
       <c r="Z24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:Z$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,Z$9))</f>
-        <v>0.99953219589397779</v>
+        <v>0.96009980435212594</v>
       </c>
       <c r="AA24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AA$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AA$9))</f>
-        <v>0.99977888854523056</v>
+        <v>0.97234463186266129</v>
       </c>
       <c r="AB24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AB$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AB$9))</f>
-        <v>0.99989552387236169</v>
+        <v>0.9810296507289733</v>
       </c>
       <c r="AC24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AC$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AC$9))</f>
-        <v>0.9999506421696055</v>
+        <v>0.9870818141206199</v>
       </c>
       <c r="AD24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AD$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AD$9))</f>
-        <v>0.99997668349373559</v>
+        <v>0.99124749162554782</v>
       </c>
       <c r="AE24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AE$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AE$9))</f>
-        <v>0.99998898572355421</v>
+        <v>0.99409038732269073</v>
       </c>
       <c r="AF24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AF$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AF$9))</f>
-        <v>0.99999479714861339</v>
+        <v>0.9960192792532383</v>
       </c>
       <c r="AG24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AG$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AG$9))</f>
-        <v>0.99999754233015903</v>
+        <v>0.99732285963028611</v>
       </c>
       <c r="AH24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AH$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AH$9))</f>
-        <v>0.99999883907520593</v>
+        <v>0.99820149073562359</v>
       </c>
       <c r="AI24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AI$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AI$9))</f>
-        <v>0.99999945161711723</v>
+        <v>0.99879263347011671</v>
       </c>
       <c r="AJ24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AJ$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AJ$9))</f>
-        <v>0.99999974096208066</v>
+        <v>0.99918987184438002</v>
       </c>
       <c r="AK24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AK$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AK$9))</f>
-        <v>0.99999987763910925</v>
+        <v>0.99945659201982839</v>
       </c>
       <c r="AL24">
         <f>IF($G24="s-curve",$E24+($F24-$E24)*$O$2/(1+EXP($O$3*(COUNT($K$9:AL$9)+$O$4))),TREND($E24:$F24,$E$9:$F$9,AL$9))</f>
-        <v>0.99999994220079846</v>
+        <v>0.9996355795222398</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.35">
@@ -72291,7 +73240,7 @@
       </c>
       <c r="J80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:J$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,J$9))</f>
-        <v>2.2977369910025615E-2</v>
+        <v>3.2295464698450495E-2</v>
       </c>
       <c r="K80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:K$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,K$9))</f>
@@ -72299,111 +73248,111 @@
       </c>
       <c r="L80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:L$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,L$9))</f>
-        <v>9.534946489910949E-2</v>
+        <v>6.9138420343346815E-2</v>
       </c>
       <c r="M80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:M$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,M$9))</f>
-        <v>0.18242552380635635</v>
+        <v>9.9750489119685135E-2</v>
       </c>
       <c r="N80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:N$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,N$9))</f>
-        <v>0.32082130082460703</v>
+        <v>0.14185106490048777</v>
       </c>
       <c r="O80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:O$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,O$9))</f>
-        <v>0.5</v>
+        <v>0.19781611144141822</v>
       </c>
       <c r="P80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:P$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,P$9))</f>
-        <v>0.67917869917539297</v>
+        <v>0.2689414213699951</v>
       </c>
       <c r="Q80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Q$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Q$9))</f>
-        <v>0.81757447619364365</v>
+        <v>0.35434369377420455</v>
       </c>
       <c r="R80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:R$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,R$9))</f>
-        <v>0.90465053510089055</v>
+        <v>0.45016600268752216</v>
       </c>
       <c r="S80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:S$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,S$9))</f>
-        <v>0.95257412682243336</v>
+        <v>0.54983399731247795</v>
       </c>
       <c r="T80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:T$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,T$9))</f>
-        <v>0.97702263008997436</v>
+        <v>0.6456563062257954</v>
       </c>
       <c r="U80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:U$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,U$9))</f>
-        <v>0.98901305736940681</v>
+        <v>0.7310585786300049</v>
       </c>
       <c r="V80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:V$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,V$9))</f>
-        <v>0.99477987430644166</v>
+        <v>0.8021838885585818</v>
       </c>
       <c r="W80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:W$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,W$9))</f>
-        <v>0.99752737684336534</v>
+        <v>0.85814893509951229</v>
       </c>
       <c r="X80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:X$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,X$9))</f>
-        <v>0.99883048973494448</v>
+        <v>0.9002495108803148</v>
       </c>
       <c r="Y80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Y$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Y$9))</f>
-        <v>0.9994472213630764</v>
+        <v>0.93086157965665328</v>
       </c>
       <c r="Z80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:Z$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,Z$9))</f>
-        <v>0.99973880968090434</v>
+        <v>0.95257412682243336</v>
       </c>
       <c r="AA80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AA$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AA$9))</f>
-        <v>0.99987660542401369</v>
+        <v>0.96770453530154954</v>
       </c>
       <c r="AB80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AB$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AB$9))</f>
-        <v>0.99994170873433885</v>
+        <v>0.97811872906386943</v>
       </c>
       <c r="AC80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AC$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AC$9))</f>
-        <v>0.99997246430888531</v>
+        <v>0.98522596830672693</v>
       </c>
       <c r="AD80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AD$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AD$9))</f>
-        <v>0.99998699287153348</v>
+        <v>0.99004819813309575</v>
       </c>
       <c r="AE80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AE$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AE$9))</f>
-        <v>0.99999385582539779</v>
+        <v>0.99330714907571527</v>
       </c>
       <c r="AF80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AF$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AF$9))</f>
-        <v>0.99999709768801481</v>
+        <v>0.99550372683905886</v>
       </c>
       <c r="AG80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AG$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AG$9))</f>
-        <v>0.99999862904279302</v>
+        <v>0.99698158367529166</v>
       </c>
       <c r="AH80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AH$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AH$9))</f>
-        <v>0.99999935240520166</v>
+        <v>0.9979746796109501</v>
       </c>
       <c r="AI80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AI$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AI$9))</f>
-        <v>0.99999969409777301</v>
+        <v>0.9986414800495711</v>
       </c>
       <c r="AJ80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AJ$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AJ$9))</f>
-        <v>0.99999985550199622</v>
+        <v>0.9990889488055994</v>
       </c>
       <c r="AK80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AK$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AK$9))</f>
-        <v>0.99999993174397095</v>
+        <v>0.99938912064056562</v>
       </c>
       <c r="AL80">
         <f>IF($G80="s-curve",$E80+($F80-$E80)*$O$2/(1+EXP($O$3*(COUNT($I$9:AL$9)+$O$4))),TREND($E80:$F80,$E$9:$F$9,AL$9))</f>
-        <v>0.9999999677581336</v>
+        <v>0.99959043283501392</v>
       </c>
     </row>
     <row r="81" spans="1:38" x14ac:dyDescent="0.35">
